--- a/JupyterNotebooks/AvgHW/CopperA-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/CopperA-HW45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,68 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -630,130 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -761,37 +653,37 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1.000103678526781</v>
+      </c>
+      <c r="D3">
+        <v>0.9999399815199737</v>
+      </c>
+      <c r="E3">
         <v>1.000186208984573</v>
-      </c>
-      <c r="D3">
-        <v>0.9997206876208957</v>
-      </c>
-      <c r="E3">
-        <v>1.000069830677158</v>
       </c>
       <c r="F3">
         <v>1.000186208984573</v>
       </c>
       <c r="G3">
-        <v>0.9999399815199737</v>
+        <v>0.9998183885117414</v>
       </c>
       <c r="H3">
-        <v>1.000103678526781</v>
+        <v>1.000069830677158</v>
       </c>
       <c r="I3">
+        <v>0.9999441384978585</v>
+      </c>
+      <c r="J3">
+        <v>0.9997206876208954</v>
+      </c>
+      <c r="K3">
         <v>1.000186208984573</v>
       </c>
-      <c r="J3">
-        <v>0.9997206876208957</v>
-      </c>
-      <c r="K3">
-        <v>0.9999441384978585</v>
-      </c>
       <c r="L3">
+        <v>0.9997206876208954</v>
+      </c>
+      <c r="M3">
         <v>1.000069830677158</v>
-      </c>
-      <c r="M3">
-        <v>0.9998183885117414</v>
       </c>
       <c r="N3">
         <v>1.000186208984573</v>
@@ -800,7 +692,7 @@
         <v>1.000069830677158</v>
       </c>
       <c r="P3">
-        <v>0.9998952591490268</v>
+        <v>0.9998952591490267</v>
       </c>
       <c r="Q3">
         <v>1.000004906098566</v>
@@ -809,7 +701,7 @@
         <v>0.9999922424275421</v>
       </c>
       <c r="S3">
-        <v>0.9999101666060092</v>
+        <v>0.999910166606009</v>
       </c>
       <c r="T3">
         <v>0.9999922424275421</v>
@@ -821,10 +713,10 @@
         <v>1.000020583557435</v>
       </c>
       <c r="W3">
-        <v>0.9999815931270173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43">
+        <v>0.9999815931270174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -832,37 +724,37 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1.000200151036456</v>
+      </c>
+      <c r="D4">
+        <v>0.9998841381573534</v>
+      </c>
+      <c r="E4">
         <v>1.000359473082206</v>
-      </c>
-      <c r="D4">
-        <v>0.999460791564699</v>
-      </c>
-      <c r="E4">
-        <v>1.000134804407077</v>
       </c>
       <c r="F4">
         <v>1.000359473082206</v>
       </c>
       <c r="G4">
-        <v>0.9998841381573534</v>
+        <v>0.9996494018184214</v>
       </c>
       <c r="H4">
-        <v>1.000200151036456</v>
+        <v>1.000134804407077</v>
       </c>
       <c r="I4">
-        <v>1.000359473082206</v>
+        <v>0.9998921588438037</v>
       </c>
       <c r="J4">
         <v>0.999460791564699</v>
       </c>
       <c r="K4">
-        <v>0.9998921588438037</v>
+        <v>1.000359473082206</v>
       </c>
       <c r="L4">
+        <v>0.999460791564699</v>
+      </c>
+      <c r="M4">
         <v>1.000134804407077</v>
-      </c>
-      <c r="M4">
-        <v>0.9996494018184212</v>
       </c>
       <c r="N4">
         <v>1.000359473082206</v>
@@ -892,10 +784,10 @@
         <v>1.000039736058708</v>
       </c>
       <c r="W4">
-        <v>0.9999644654146367</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43">
+        <v>0.9999644654146368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -903,37 +795,37 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>1.000383564679916</v>
+      </c>
+      <c r="D5">
+        <v>0.9997779603091819</v>
+      </c>
+      <c r="E5">
         <v>1.000688881807163</v>
-      </c>
-      <c r="D5">
-        <v>0.9989666731737401</v>
-      </c>
-      <c r="E5">
-        <v>1.000258336708725</v>
       </c>
       <c r="F5">
         <v>1.000688881807163</v>
       </c>
       <c r="G5">
-        <v>0.9997779603091819</v>
+        <v>0.9993281203251591</v>
       </c>
       <c r="H5">
-        <v>1.000383564679916</v>
+        <v>1.000258336708725</v>
       </c>
       <c r="I5">
-        <v>1.000688881807163</v>
+        <v>0.99979333486577</v>
       </c>
       <c r="J5">
         <v>0.9989666731737401</v>
       </c>
       <c r="K5">
-        <v>0.99979333486577</v>
+        <v>1.000688881807163</v>
       </c>
       <c r="L5">
+        <v>0.9989666731737401</v>
+      </c>
+      <c r="M5">
         <v>1.000258336708725</v>
-      </c>
-      <c r="M5">
-        <v>0.9993281203251592</v>
       </c>
       <c r="N5">
         <v>1.000688881807163</v>
@@ -966,7 +858,7 @@
         <v>0.9999319010722975</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -974,37 +866,37 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>1.000562567683283</v>
+      </c>
+      <c r="D6">
+        <v>0.9996743394628689</v>
+      </c>
+      <c r="E6">
         <v>1.001010372281524</v>
-      </c>
-      <c r="D6">
-        <v>0.9984844447626824</v>
-      </c>
-      <c r="E6">
-        <v>1.000378894254865</v>
       </c>
       <c r="F6">
         <v>1.001010372281524</v>
       </c>
       <c r="G6">
-        <v>0.9996743394628689</v>
+        <v>0.9990145636885546</v>
       </c>
       <c r="H6">
-        <v>1.000562567683283</v>
+        <v>1.000378894254865</v>
       </c>
       <c r="I6">
-        <v>1.001010372281524</v>
+        <v>0.9996968872792166</v>
       </c>
       <c r="J6">
         <v>0.9984844447626824</v>
       </c>
       <c r="K6">
-        <v>0.9996968872792166</v>
+        <v>1.001010372281524</v>
       </c>
       <c r="L6">
+        <v>0.9984844447626824</v>
+      </c>
+      <c r="M6">
         <v>1.000378894254865</v>
-      </c>
-      <c r="M6">
-        <v>0.9990145636885546</v>
       </c>
       <c r="N6">
         <v>1.001010372281524</v>
@@ -1037,7 +929,7 @@
         <v>0.9999001204584823</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1045,37 +937,37 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>1.000009625438184</v>
+      </c>
+      <c r="D7">
+        <v>0.9999944271888285</v>
+      </c>
+      <c r="E7">
         <v>1.000017288633887</v>
-      </c>
-      <c r="D7">
-        <v>0.9999740685623077</v>
-      </c>
-      <c r="E7">
-        <v>1.000006485193073</v>
       </c>
       <c r="F7">
         <v>1.000017288633887</v>
       </c>
       <c r="G7">
-        <v>0.9999944271888285</v>
+        <v>0.9999831386554602</v>
       </c>
       <c r="H7">
-        <v>1.000009625438184</v>
+        <v>1.000006485193073</v>
       </c>
       <c r="I7">
-        <v>1.000017288633887</v>
+        <v>0.9999948147317129</v>
       </c>
       <c r="J7">
         <v>0.9999740685623077</v>
       </c>
       <c r="K7">
-        <v>0.9999948147317129</v>
+        <v>1.000017288633887</v>
       </c>
       <c r="L7">
+        <v>0.9999740685623077</v>
+      </c>
+      <c r="M7">
         <v>1.000006485193073</v>
-      </c>
-      <c r="M7">
-        <v>0.99998313865546</v>
       </c>
       <c r="N7">
         <v>1.000017288633887</v>
@@ -1108,7 +1000,7 @@
         <v>0.9999982916995658</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1116,37 +1008,37 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>1.000028763077269</v>
+      </c>
+      <c r="D8">
+        <v>0.999983348681753</v>
+      </c>
+      <c r="E8">
         <v>1.000051660324414</v>
-      </c>
-      <c r="D8">
-        <v>0.9999225111968943</v>
-      </c>
-      <c r="E8">
-        <v>1.000019374689356</v>
       </c>
       <c r="F8">
         <v>1.000051660324414</v>
       </c>
       <c r="G8">
-        <v>0.999983348681753</v>
+        <v>0.9999496156024215</v>
       </c>
       <c r="H8">
-        <v>1.000028763077269</v>
+        <v>1.000019374689356</v>
       </c>
       <c r="I8">
-        <v>1.000051660324414</v>
+        <v>0.9999845032781263</v>
       </c>
       <c r="J8">
         <v>0.9999225111968943</v>
       </c>
       <c r="K8">
-        <v>0.9999845032781263</v>
+        <v>1.000051660324414</v>
       </c>
       <c r="L8">
+        <v>0.9999225111968943</v>
+      </c>
+      <c r="M8">
         <v>1.000019374689356</v>
-      </c>
-      <c r="M8">
-        <v>0.9999496156024215</v>
       </c>
       <c r="N8">
         <v>1.000051660324414</v>
@@ -1179,7 +1071,7 @@
         <v>0.9999948939424487</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1187,37 +1079,37 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>1.000045770698834</v>
+      </c>
+      <c r="D9">
+        <v>0.9999735036490884</v>
+      </c>
+      <c r="E9">
         <v>1.000082205161108</v>
-      </c>
-      <c r="D9">
-        <v>0.9998766934598762</v>
-      </c>
-      <c r="E9">
-        <v>1.000030829301082</v>
       </c>
       <c r="F9">
         <v>1.000082205161108</v>
       </c>
       <c r="G9">
-        <v>0.9999735036490884</v>
+        <v>0.9999198253116477</v>
       </c>
       <c r="H9">
-        <v>1.000045770698834</v>
+        <v>1.000030829301082</v>
       </c>
       <c r="I9">
-        <v>1.000082205161108</v>
+        <v>0.9999753397303894</v>
       </c>
       <c r="J9">
         <v>0.9998766934598762</v>
       </c>
       <c r="K9">
-        <v>0.9999753397303894</v>
+        <v>1.000082205161108</v>
       </c>
       <c r="L9">
+        <v>0.9998766934598762</v>
+      </c>
+      <c r="M9">
         <v>1.000030829301082</v>
-      </c>
-      <c r="M9">
-        <v>0.9999198253116479</v>
       </c>
       <c r="N9">
         <v>1.000082205161108</v>
@@ -1250,7 +1142,7 @@
         <v>0.9999918745766384</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1258,37 +1150,37 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>1.000093605782879</v>
+      </c>
+      <c r="D10">
+        <v>0.9999458134647451</v>
+      </c>
+      <c r="E10">
         <v>1.00016811691652</v>
-      </c>
-      <c r="D10">
-        <v>0.9997478261653223</v>
-      </c>
-      <c r="E10">
-        <v>1.000063046491369</v>
       </c>
       <c r="F10">
         <v>1.00016811691652</v>
       </c>
       <c r="G10">
-        <v>0.9999458134647451</v>
+        <v>0.9998360323739636</v>
       </c>
       <c r="H10">
-        <v>1.000093605782879</v>
+        <v>1.000063046491369</v>
       </c>
       <c r="I10">
-        <v>1.00016811691652</v>
+        <v>0.9999495666344808</v>
       </c>
       <c r="J10">
         <v>0.9997478261653223</v>
       </c>
       <c r="K10">
-        <v>0.9999495666344808</v>
+        <v>1.00016811691652</v>
       </c>
       <c r="L10">
+        <v>0.9997478261653223</v>
+      </c>
+      <c r="M10">
         <v>1.000063046491369</v>
-      </c>
-      <c r="M10">
-        <v>0.9998360323739636</v>
       </c>
       <c r="N10">
         <v>1.00016811691652</v>
@@ -1321,7 +1213,7 @@
         <v>0.9999833817900812</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1329,37 +1221,37 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>1.000168661177907</v>
+      </c>
+      <c r="D11">
+        <v>0.9999023672059842</v>
+      </c>
+      <c r="E11">
         <v>1.000302917153553</v>
-      </c>
-      <c r="D11">
-        <v>0.9995456266098985</v>
-      </c>
-      <c r="E11">
-        <v>1.000113594503366</v>
       </c>
       <c r="F11">
         <v>1.000302917153553</v>
       </c>
       <c r="G11">
-        <v>0.9999023672059842</v>
+        <v>0.9997045626413523</v>
       </c>
       <c r="H11">
-        <v>1.000168661177907</v>
+        <v>1.000113594503366</v>
       </c>
       <c r="I11">
-        <v>1.000302917153553</v>
+        <v>0.9999091240252991</v>
       </c>
       <c r="J11">
         <v>0.9995456266098985</v>
       </c>
       <c r="K11">
-        <v>0.9999091240252991</v>
+        <v>1.000302917153553</v>
       </c>
       <c r="L11">
+        <v>0.9995456266098985</v>
+      </c>
+      <c r="M11">
         <v>1.000113594503366</v>
-      </c>
-      <c r="M11">
-        <v>0.9997045626413523</v>
       </c>
       <c r="N11">
         <v>1.000302917153553</v>
@@ -1392,7 +1284,7 @@
         <v>0.9999700559775906</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1400,37 +1292,37 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>0.9983746681556275</v>
+      </c>
+      <c r="D12">
+        <v>1.000940869559735</v>
+      </c>
+      <c r="E12">
         <v>0.997080871821905</v>
-      </c>
-      <c r="D12">
-        <v>1.004378693169182</v>
-      </c>
-      <c r="E12">
-        <v>0.9989053244560648</v>
       </c>
       <c r="F12">
         <v>0.997080871821905</v>
       </c>
       <c r="G12">
-        <v>1.000940869559735</v>
+        <v>1.002847057051159</v>
       </c>
       <c r="H12">
-        <v>0.9983746681556275</v>
+        <v>0.9989053244560648</v>
       </c>
       <c r="I12">
-        <v>0.997080871821905</v>
+        <v>1.000875731819619</v>
       </c>
       <c r="J12">
         <v>1.004378693169182</v>
       </c>
       <c r="K12">
-        <v>1.000875731819619</v>
+        <v>0.997080871821905</v>
       </c>
       <c r="L12">
+        <v>1.004378693169182</v>
+      </c>
+      <c r="M12">
         <v>0.9989053244560648</v>
-      </c>
-      <c r="M12">
-        <v>1.002847057051159</v>
       </c>
       <c r="N12">
         <v>0.997080871821905</v>
@@ -1463,7 +1355,7 @@
         <v>1.00028856756117</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1471,49 +1363,49 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>0.9995785444410302</v>
+      </c>
+      <c r="D13">
+        <v>1.000243971537558</v>
+      </c>
+      <c r="E13">
         <v>0.9992430526738371</v>
-      </c>
-      <c r="D13">
-        <v>1.001135415294444</v>
-      </c>
-      <c r="E13">
-        <v>0.9997161461140692</v>
       </c>
       <c r="F13">
         <v>0.9992430526738371</v>
       </c>
       <c r="G13">
-        <v>1.000243971537558</v>
+        <v>1.000738253705005</v>
       </c>
       <c r="H13">
-        <v>0.9995785444410302</v>
+        <v>0.9997161461140691</v>
       </c>
       <c r="I13">
-        <v>0.9992430526738371</v>
+        <v>1.00022707990357</v>
       </c>
       <c r="J13">
         <v>1.001135415294444</v>
       </c>
       <c r="K13">
-        <v>1.00022707990357</v>
+        <v>0.9992430526738371</v>
       </c>
       <c r="L13">
-        <v>0.9997161461140692</v>
+        <v>1.001135415294444</v>
       </c>
       <c r="M13">
-        <v>1.000738253705005</v>
+        <v>0.9997161461140691</v>
       </c>
       <c r="N13">
         <v>0.9992430526738371</v>
       </c>
       <c r="O13">
-        <v>0.9997161461140692</v>
+        <v>0.9997161461140691</v>
       </c>
       <c r="P13">
         <v>1.000425780704256</v>
       </c>
       <c r="Q13">
-        <v>0.9999800588258134</v>
+        <v>0.9999800588258133</v>
       </c>
       <c r="R13">
         <v>1.00003153802745</v>
@@ -1534,7 +1426,7 @@
         <v>1.000074826222948</v>
       </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1542,37 +1434,37 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>1.004990682548483</v>
+      </c>
+      <c r="D14">
+        <v>0.9971109779538611</v>
+      </c>
+      <c r="E14">
         <v>1.008963382175617</v>
-      </c>
-      <c r="D14">
-        <v>0.9865549385046092</v>
-      </c>
-      <c r="E14">
-        <v>1.003361267065429</v>
       </c>
       <c r="F14">
         <v>1.008963382175617</v>
       </c>
       <c r="G14">
-        <v>0.9971109779538611</v>
+        <v>0.9912579436694374</v>
       </c>
       <c r="H14">
-        <v>1.004990682548483</v>
+        <v>1.003361267065429</v>
       </c>
       <c r="I14">
-        <v>1.008963382175617</v>
+        <v>0.9973109880794155</v>
       </c>
       <c r="J14">
         <v>0.9865549385046092</v>
       </c>
       <c r="K14">
-        <v>0.9973109880794155</v>
+        <v>1.008963382175617</v>
       </c>
       <c r="L14">
+        <v>0.9865549385046092</v>
+      </c>
+      <c r="M14">
         <v>1.003361267065429</v>
-      </c>
-      <c r="M14">
-        <v>0.9912579436694376</v>
       </c>
       <c r="N14">
         <v>1.008963382175617</v>
@@ -1605,7 +1497,7 @@
         <v>0.9991139308827851</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1613,37 +1505,37 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>1.001336784776232</v>
+      </c>
+      <c r="D15">
+        <v>0.9992261583133633</v>
+      </c>
+      <c r="E15">
         <v>1.002400876334883</v>
-      </c>
-      <c r="D15">
-        <v>0.9963986712933699</v>
-      </c>
-      <c r="E15">
-        <v>1.000900328585678</v>
       </c>
       <c r="F15">
         <v>1.002400876334883</v>
       </c>
       <c r="G15">
-        <v>0.9992261583133633</v>
+        <v>0.9976583992982574</v>
       </c>
       <c r="H15">
-        <v>1.001336784776232</v>
+        <v>1.000900328585678</v>
       </c>
       <c r="I15">
+        <v>0.9992797366366857</v>
+      </c>
+      <c r="J15">
+        <v>0.99639867129337</v>
+      </c>
+      <c r="K15">
         <v>1.002400876334883</v>
       </c>
-      <c r="J15">
-        <v>0.9963986712933699</v>
-      </c>
-      <c r="K15">
-        <v>0.9992797366366857</v>
-      </c>
       <c r="L15">
+        <v>0.99639867129337</v>
+      </c>
+      <c r="M15">
         <v>1.000900328585678</v>
-      </c>
-      <c r="M15">
-        <v>0.9976583992982574</v>
       </c>
       <c r="N15">
         <v>1.002400876334883</v>
@@ -1652,7 +1544,7 @@
         <v>1.000900328585678</v>
       </c>
       <c r="P15">
-        <v>0.9986494999395238</v>
+        <v>0.9986494999395239</v>
       </c>
       <c r="Q15">
         <v>1.00006324344952</v>
@@ -1661,10 +1553,10 @@
         <v>0.999899958737977</v>
       </c>
       <c r="S15">
-        <v>0.9988417193974702</v>
+        <v>0.9988417193974705</v>
       </c>
       <c r="T15">
-        <v>0.999899958737977</v>
+        <v>0.9998999587379768</v>
       </c>
       <c r="U15">
         <v>0.9997315086318235</v>
@@ -1676,7 +1568,7 @@
         <v>0.9997626604780183</v>
       </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1684,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000769941393</v>
+        <v>1.002023575907791</v>
       </c>
       <c r="D16">
-        <v>0.9999988465396502</v>
+        <v>0.9988285881898568</v>
       </c>
       <c r="E16">
-        <v>1.00000029078186</v>
+        <v>1.003634371051806</v>
       </c>
       <c r="F16">
-        <v>1.000000769941393</v>
+        <v>1.003634371051806</v>
       </c>
       <c r="G16">
-        <v>0.9999997514288503</v>
+        <v>0.9964553581524155</v>
       </c>
       <c r="H16">
-        <v>1.000000428078016</v>
+        <v>1.0013628942925</v>
       </c>
       <c r="I16">
-        <v>1.000000769941393</v>
+        <v>0.9989096918483238</v>
       </c>
       <c r="J16">
-        <v>0.9999988465396502</v>
+        <v>0.9945484421672099</v>
       </c>
       <c r="K16">
-        <v>0.9999997702846827</v>
+        <v>1.003634371051806</v>
       </c>
       <c r="L16">
-        <v>1.00000029078186</v>
+        <v>0.9945484421672099</v>
       </c>
       <c r="M16">
-        <v>0.9999992494895125</v>
+        <v>1.0013628942925</v>
       </c>
       <c r="N16">
-        <v>1.000000769941393</v>
+        <v>1.003634371051806</v>
       </c>
       <c r="O16">
-        <v>1.00000029078186</v>
+        <v>1.0013628942925</v>
       </c>
       <c r="P16">
-        <v>0.999999568660755</v>
+        <v>0.9979556682298552</v>
       </c>
       <c r="Q16">
-        <v>1.000000021105355</v>
+        <v>1.000095741241179</v>
       </c>
       <c r="R16">
-        <v>0.9999999690876343</v>
+        <v>0.9998485691705055</v>
       </c>
       <c r="S16">
-        <v>0.9999996295834533</v>
+        <v>0.9982466415498558</v>
       </c>
       <c r="T16">
-        <v>0.9999999690876343</v>
+        <v>0.9998485691705055</v>
       </c>
       <c r="U16">
-        <v>0.9999999146729384</v>
+        <v>0.9995935739253433</v>
       </c>
       <c r="V16">
-        <v>1.000000085726629</v>
+        <v>1.000401733350636</v>
       </c>
       <c r="W16">
-        <v>0.9999999246657281</v>
+        <v>0.9996407269878005</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1755,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000016284988737</v>
+        <v>1.00166026145083</v>
       </c>
       <c r="D17">
-        <v>0.9999755738226319</v>
+        <v>0.9990389041762278</v>
       </c>
       <c r="E17">
-        <v>1.000006109077357</v>
+        <v>1.002981854819309</v>
       </c>
       <c r="F17">
-        <v>1.000016284988737</v>
+        <v>1.002981854819309</v>
       </c>
       <c r="G17">
-        <v>0.999994750590082</v>
+        <v>0.9970917657466331</v>
       </c>
       <c r="H17">
-        <v>1.000009066977487</v>
+        <v>1.001118199187533</v>
       </c>
       <c r="I17">
-        <v>1.000016284988737</v>
+        <v>0.9991054459286387</v>
       </c>
       <c r="J17">
-        <v>0.9999755738226319</v>
+        <v>0.9955272171742318</v>
       </c>
       <c r="K17">
-        <v>0.9999951153786418</v>
+        <v>1.002981854819309</v>
       </c>
       <c r="L17">
-        <v>1.000006109077357</v>
+        <v>0.9955272171742318</v>
       </c>
       <c r="M17">
-        <v>0.9999841171960576</v>
+        <v>1.001118199187533</v>
       </c>
       <c r="N17">
-        <v>1.000016284988737</v>
+        <v>1.002981854819309</v>
       </c>
       <c r="O17">
-        <v>1.000006109077357</v>
+        <v>1.001118199187533</v>
       </c>
       <c r="P17">
-        <v>0.9999908414499946</v>
+        <v>0.9983227081808823</v>
       </c>
       <c r="Q17">
-        <v>1.00000042983372</v>
+        <v>1.00007855168188</v>
       </c>
       <c r="R17">
-        <v>0.9999993226295754</v>
+        <v>0.9998757570603581</v>
       </c>
       <c r="S17">
-        <v>0.9999921444966904</v>
+        <v>0.9985614401793308</v>
       </c>
       <c r="T17">
-        <v>0.9999993226295754</v>
+        <v>0.9998757570603581</v>
       </c>
       <c r="U17">
-        <v>0.9999981796197021</v>
+        <v>0.9996665438393255</v>
       </c>
       <c r="V17">
-        <v>1.000001800693509</v>
+        <v>1.000329606035322</v>
       </c>
       <c r="W17">
-        <v>0.999998390888544</v>
+        <v>0.9997052309588671</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1826,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000057330592725</v>
+        <v>1.000938075327459</v>
       </c>
       <c r="D18">
-        <v>0.9999140037178514</v>
+        <v>0.9994569647833015</v>
       </c>
       <c r="E18">
-        <v>1.000021504195668</v>
+        <v>1.001684798760866</v>
       </c>
       <c r="F18">
-        <v>1.000057330592725</v>
+        <v>1.001684798760866</v>
       </c>
       <c r="G18">
-        <v>0.9999815167960953</v>
+        <v>0.9983568004850546</v>
       </c>
       <c r="H18">
-        <v>1.000031923827634</v>
+        <v>1.000631799155851</v>
       </c>
       <c r="I18">
-        <v>1.000057330592725</v>
+        <v>0.999494561725092</v>
       </c>
       <c r="J18">
-        <v>0.9999140037178514</v>
+        <v>0.9974728032139387</v>
       </c>
       <c r="K18">
-        <v>0.9999828034641106</v>
+        <v>1.001684798760866</v>
       </c>
       <c r="L18">
-        <v>1.000021504195668</v>
+        <v>0.9974728032139387</v>
       </c>
       <c r="M18">
-        <v>0.9999440824092917</v>
+        <v>1.000631799155851</v>
       </c>
       <c r="N18">
-        <v>1.000057330592725</v>
+        <v>1.001684798760866</v>
       </c>
       <c r="O18">
-        <v>1.000021504195668</v>
+        <v>1.000631799155851</v>
       </c>
       <c r="P18">
-        <v>0.9999677539567595</v>
+        <v>0.9990523011848951</v>
       </c>
       <c r="Q18">
-        <v>1.000001510495881</v>
+        <v>1.000044381969576</v>
       </c>
       <c r="R18">
-        <v>0.9999976128354149</v>
+        <v>0.9999298003768855</v>
       </c>
       <c r="S18">
-        <v>0.9999723415698715</v>
+        <v>0.9991871890510305</v>
       </c>
       <c r="T18">
-        <v>0.9999976128354149</v>
+        <v>0.9999298003768855</v>
       </c>
       <c r="U18">
-        <v>0.999993588825585</v>
+        <v>0.9998115914784895</v>
       </c>
       <c r="V18">
-        <v>1.000006337179013</v>
+        <v>1.000186232934965</v>
       </c>
       <c r="W18">
-        <v>0.9999943336498804</v>
+        <v>0.9998334503259269</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1897,67 +1789,351 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000134315796393</v>
+        <v>1.001008827302941</v>
       </c>
       <c r="D19">
+        <v>0.9994160087037717</v>
+      </c>
+      <c r="E19">
+        <v>1.001811874816804</v>
+      </c>
+      <c r="F19">
+        <v>1.001811874816804</v>
+      </c>
+      <c r="G19">
+        <v>0.9982328616561165</v>
+      </c>
+      <c r="H19">
+        <v>1.000679456964481</v>
+      </c>
+      <c r="I19">
+        <v>0.9994564362315043</v>
+      </c>
+      <c r="J19">
+        <v>0.997282187066219</v>
+      </c>
+      <c r="K19">
+        <v>1.001811874816804</v>
+      </c>
+      <c r="L19">
+        <v>0.997282187066219</v>
+      </c>
+      <c r="M19">
+        <v>1.000679456964481</v>
+      </c>
+      <c r="N19">
+        <v>1.001811874816804</v>
+      </c>
+      <c r="O19">
+        <v>1.000679456964481</v>
+      </c>
+      <c r="P19">
+        <v>0.9989808220153498</v>
+      </c>
+      <c r="Q19">
+        <v>1.000047732834126</v>
+      </c>
+      <c r="R19">
+        <v>0.999924506282501</v>
+      </c>
+      <c r="S19">
+        <v>0.9991258842448237</v>
+      </c>
+      <c r="T19">
+        <v>0.999924506282501</v>
+      </c>
+      <c r="U19">
+        <v>0.9997973818878186</v>
+      </c>
+      <c r="V19">
+        <v>1.000200280473616</v>
+      </c>
+      <c r="W19">
+        <v>0.9998208887132897</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000000428078016</v>
+      </c>
+      <c r="D20">
+        <v>0.9999997514288503</v>
+      </c>
+      <c r="E20">
+        <v>1.000000769941393</v>
+      </c>
+      <c r="F20">
+        <v>1.000000769941393</v>
+      </c>
+      <c r="G20">
+        <v>0.9999992494895125</v>
+      </c>
+      <c r="H20">
+        <v>1.00000029078186</v>
+      </c>
+      <c r="I20">
+        <v>0.9999997702846826</v>
+      </c>
+      <c r="J20">
+        <v>0.9999988465396503</v>
+      </c>
+      <c r="K20">
+        <v>1.000000769941393</v>
+      </c>
+      <c r="L20">
+        <v>0.9999988465396503</v>
+      </c>
+      <c r="M20">
+        <v>1.00000029078186</v>
+      </c>
+      <c r="N20">
+        <v>1.000000769941393</v>
+      </c>
+      <c r="O20">
+        <v>1.00000029078186</v>
+      </c>
+      <c r="P20">
+        <v>0.9999995686607551</v>
+      </c>
+      <c r="Q20">
+        <v>1.000000021105355</v>
+      </c>
+      <c r="R20">
+        <v>0.9999999690876343</v>
+      </c>
+      <c r="S20">
+        <v>0.9999996295834536</v>
+      </c>
+      <c r="T20">
+        <v>0.9999999690876343</v>
+      </c>
+      <c r="U20">
+        <v>0.9999999146729384</v>
+      </c>
+      <c r="V20">
+        <v>1.000000085726629</v>
+      </c>
+      <c r="W20">
+        <v>0.9999999246657281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000009066977487</v>
+      </c>
+      <c r="D21">
+        <v>0.9999947505900819</v>
+      </c>
+      <c r="E21">
+        <v>1.000016284988737</v>
+      </c>
+      <c r="F21">
+        <v>1.000016284988737</v>
+      </c>
+      <c r="G21">
+        <v>0.9999841171960576</v>
+      </c>
+      <c r="H21">
+        <v>1.000006109077358</v>
+      </c>
+      <c r="I21">
+        <v>0.9999951153786418</v>
+      </c>
+      <c r="J21">
+        <v>0.9999755738226319</v>
+      </c>
+      <c r="K21">
+        <v>1.000016284988737</v>
+      </c>
+      <c r="L21">
+        <v>0.9999755738226319</v>
+      </c>
+      <c r="M21">
+        <v>1.000006109077358</v>
+      </c>
+      <c r="N21">
+        <v>1.000016284988737</v>
+      </c>
+      <c r="O21">
+        <v>1.000006109077358</v>
+      </c>
+      <c r="P21">
+        <v>0.9999908414499947</v>
+      </c>
+      <c r="Q21">
+        <v>1.00000042983372</v>
+      </c>
+      <c r="R21">
+        <v>0.9999993226295754</v>
+      </c>
+      <c r="S21">
+        <v>0.9999921444966905</v>
+      </c>
+      <c r="T21">
+        <v>0.9999993226295754</v>
+      </c>
+      <c r="U21">
+        <v>0.9999981796197019</v>
+      </c>
+      <c r="V21">
+        <v>1.000001800693509</v>
+      </c>
+      <c r="W21">
+        <v>0.999998390888544</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000031923827634</v>
+      </c>
+      <c r="D22">
+        <v>0.9999815167960953</v>
+      </c>
+      <c r="E22">
+        <v>1.000057330592725</v>
+      </c>
+      <c r="F22">
+        <v>1.000057330592725</v>
+      </c>
+      <c r="G22">
+        <v>0.9999440824092913</v>
+      </c>
+      <c r="H22">
+        <v>1.000021504195668</v>
+      </c>
+      <c r="I22">
+        <v>0.9999828034641106</v>
+      </c>
+      <c r="J22">
+        <v>0.9999140037178514</v>
+      </c>
+      <c r="K22">
+        <v>1.000057330592725</v>
+      </c>
+      <c r="L22">
+        <v>0.9999140037178514</v>
+      </c>
+      <c r="M22">
+        <v>1.000021504195668</v>
+      </c>
+      <c r="N22">
+        <v>1.000057330592725</v>
+      </c>
+      <c r="O22">
+        <v>1.000021504195668</v>
+      </c>
+      <c r="P22">
+        <v>0.9999677539567595</v>
+      </c>
+      <c r="Q22">
+        <v>1.000001510495881</v>
+      </c>
+      <c r="R22">
+        <v>0.9999976128354149</v>
+      </c>
+      <c r="S22">
+        <v>0.9999723415698715</v>
+      </c>
+      <c r="T22">
+        <v>0.9999976128354149</v>
+      </c>
+      <c r="U22">
+        <v>0.999993588825585</v>
+      </c>
+      <c r="V22">
+        <v>1.000006337179013</v>
+      </c>
+      <c r="W22">
+        <v>0.9999943336498804</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.000074785590768</v>
+      </c>
+      <c r="D23">
+        <v>0.9999567088526379</v>
+      </c>
+      <c r="E23">
+        <v>1.000134315796392</v>
+      </c>
+      <c r="F23">
+        <v>1.000134315796392</v>
+      </c>
+      <c r="G23">
+        <v>0.9998690016907616</v>
+      </c>
+      <c r="H23">
+        <v>1.000050370149997</v>
+      </c>
+      <c r="I23">
+        <v>0.9999597076312418</v>
+      </c>
+      <c r="J23">
         <v>0.9997985361809645</v>
       </c>
-      <c r="E19">
+      <c r="K23">
+        <v>1.000134315796392</v>
+      </c>
+      <c r="L23">
+        <v>0.9997985361809645</v>
+      </c>
+      <c r="M23">
         <v>1.000050370149997</v>
       </c>
-      <c r="F19">
-        <v>1.000134315796393</v>
-      </c>
-      <c r="G19">
-        <v>0.9999567088526379</v>
-      </c>
-      <c r="H19">
-        <v>1.000074785590768</v>
-      </c>
-      <c r="I19">
-        <v>1.000134315796393</v>
-      </c>
-      <c r="J19">
-        <v>0.9997985361809645</v>
-      </c>
-      <c r="K19">
-        <v>0.9999597076312418</v>
-      </c>
-      <c r="L19">
+      <c r="N23">
+        <v>1.000134315796392</v>
+      </c>
+      <c r="O23">
         <v>1.000050370149997</v>
       </c>
-      <c r="M19">
-        <v>0.9998690016907614</v>
-      </c>
-      <c r="N19">
-        <v>1.000134315796393</v>
-      </c>
-      <c r="O19">
-        <v>1.000050370149997</v>
-      </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9999244531654806</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.000003539501317</v>
       </c>
-      <c r="R19">
-        <v>0.9999944073757847</v>
-      </c>
-      <c r="S19">
+      <c r="R23">
+        <v>0.9999944073757844</v>
+      </c>
+      <c r="S23">
         <v>0.9999352050611997</v>
       </c>
-      <c r="T19">
-        <v>0.9999944073757847</v>
-      </c>
-      <c r="U19">
-        <v>0.999984982744998</v>
-      </c>
-      <c r="V19">
+      <c r="T23">
+        <v>0.9999944073757844</v>
+      </c>
+      <c r="U23">
+        <v>0.9999849827449978</v>
+      </c>
+      <c r="V23">
         <v>1.000014849355277</v>
       </c>
-      <c r="W19">
-        <v>0.9999867245053451</v>
+      <c r="W23">
+        <v>0.999986724505345</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CopperA-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/CopperA-HW45.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 3, 1]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000103678526781</v>
+        <v>1.001109469128243</v>
       </c>
       <c r="D3">
-        <v>0.9999399815199737</v>
+        <v>0.9993577481700296</v>
       </c>
       <c r="E3">
-        <v>1.000186208984573</v>
+        <v>1.001992625634006</v>
       </c>
       <c r="F3">
-        <v>1.000186208984573</v>
+        <v>1.001992625634006</v>
       </c>
       <c r="G3">
-        <v>0.9998183885117414</v>
+        <v>0.9980565745605183</v>
       </c>
       <c r="H3">
-        <v>1.000069830677158</v>
+        <v>1.000747235057641</v>
       </c>
       <c r="I3">
-        <v>0.9999441384978585</v>
+        <v>0.9994022128602308</v>
       </c>
       <c r="J3">
-        <v>0.9997206876208954</v>
+        <v>0.9970110614048973</v>
       </c>
       <c r="K3">
-        <v>1.000186208984573</v>
+        <v>1.001992625634006</v>
       </c>
       <c r="L3">
-        <v>0.9997206876208954</v>
+        <v>0.9970110614048973</v>
       </c>
       <c r="M3">
-        <v>1.000069830677158</v>
+        <v>1.000747235057641</v>
       </c>
       <c r="N3">
-        <v>1.000186208984573</v>
+        <v>1.001992625634006</v>
       </c>
       <c r="O3">
-        <v>1.000069830677158</v>
+        <v>1.000747235057641</v>
       </c>
       <c r="P3">
-        <v>0.9998952591490267</v>
+        <v>0.9988791482312689</v>
       </c>
       <c r="Q3">
-        <v>1.000004906098566</v>
+        <v>1.000052491613835</v>
       </c>
       <c r="R3">
-        <v>0.9999922424275421</v>
+        <v>0.9999169740321814</v>
       </c>
       <c r="S3">
-        <v>0.999910166606009</v>
+        <v>0.9990386815441892</v>
       </c>
       <c r="T3">
-        <v>0.9999922424275421</v>
+        <v>0.9999169740321814</v>
       </c>
       <c r="U3">
-        <v>0.99997917720065</v>
+        <v>0.9997771675666435</v>
       </c>
       <c r="V3">
-        <v>1.000020583557435</v>
+        <v>1.000220259180116</v>
       </c>
       <c r="W3">
-        <v>0.9999815931270174</v>
+        <v>0.9998030202341508</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000200151036456</v>
+        <v>1.001004037610882</v>
       </c>
       <c r="D4">
-        <v>0.9998841381573534</v>
+        <v>0.9994187802096538</v>
       </c>
       <c r="E4">
-        <v>1.000359473082206</v>
+        <v>1.001803270091321</v>
       </c>
       <c r="F4">
-        <v>1.000359473082206</v>
+        <v>1.001803270091321</v>
       </c>
       <c r="G4">
-        <v>0.9996494018184214</v>
+        <v>0.9982412550689465</v>
       </c>
       <c r="H4">
-        <v>1.000134804407077</v>
+        <v>1.000676226785316</v>
       </c>
       <c r="I4">
-        <v>0.9998921588438037</v>
+        <v>0.9994590196599014</v>
       </c>
       <c r="J4">
-        <v>0.999460791564699</v>
+        <v>0.9972950952320191</v>
       </c>
       <c r="K4">
-        <v>1.000359473082206</v>
+        <v>1.001803270091321</v>
       </c>
       <c r="L4">
-        <v>0.999460791564699</v>
+        <v>0.9972950952320191</v>
       </c>
       <c r="M4">
-        <v>1.000134804407077</v>
+        <v>1.000676226785316</v>
       </c>
       <c r="N4">
-        <v>1.000359473082206</v>
+        <v>1.001803270091321</v>
       </c>
       <c r="O4">
-        <v>1.000134804407077</v>
+        <v>1.000676226785316</v>
       </c>
       <c r="P4">
-        <v>0.9997977979858883</v>
+        <v>0.9989856610086678</v>
       </c>
       <c r="Q4">
-        <v>1.000009471282215</v>
+        <v>1.000047503497485</v>
       </c>
       <c r="R4">
-        <v>0.9999850230179942</v>
+        <v>0.9999248640362187</v>
       </c>
       <c r="S4">
-        <v>0.9998265780430433</v>
+        <v>0.9991300340756631</v>
       </c>
       <c r="T4">
-        <v>0.9999850230179942</v>
+        <v>0.9999248640362186</v>
       </c>
       <c r="U4">
-        <v>0.9999598018028339</v>
+        <v>0.9997983430795774</v>
       </c>
       <c r="V4">
-        <v>1.000039736058708</v>
+        <v>1.000199328481926</v>
       </c>
       <c r="W4">
-        <v>0.9999644654146368</v>
+        <v>0.9998217389304194</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000383564679916</v>
+        <v>1.001316119245282</v>
       </c>
       <c r="D5">
-        <v>0.9997779603091819</v>
+        <v>0.9992381254177899</v>
       </c>
       <c r="E5">
-        <v>1.000688881807163</v>
+        <v>1.00236376347709</v>
       </c>
       <c r="F5">
-        <v>1.000688881807163</v>
+        <v>1.00236376347709</v>
       </c>
       <c r="G5">
-        <v>0.9993281203251591</v>
+        <v>0.9976945991374661</v>
       </c>
       <c r="H5">
-        <v>1.000258336708725</v>
+        <v>1.000886409487871</v>
       </c>
       <c r="I5">
-        <v>0.99979333486577</v>
+        <v>0.9992908726954186</v>
       </c>
       <c r="J5">
-        <v>0.9989666731737401</v>
+        <v>0.9964543531805926</v>
       </c>
       <c r="K5">
-        <v>1.000688881807163</v>
+        <v>1.00236376347709</v>
       </c>
       <c r="L5">
-        <v>0.9989666731737401</v>
+        <v>0.9964543531805926</v>
       </c>
       <c r="M5">
-        <v>1.000258336708725</v>
+        <v>1.000886409487871</v>
       </c>
       <c r="N5">
-        <v>1.000688881807163</v>
+        <v>1.00236376347709</v>
       </c>
       <c r="O5">
-        <v>1.000258336708725</v>
+        <v>1.000886409487871</v>
       </c>
       <c r="P5">
-        <v>0.9996125049412327</v>
+        <v>0.9986703813342319</v>
       </c>
       <c r="Q5">
-        <v>1.000018148508953</v>
+        <v>1.000062267452831</v>
       </c>
       <c r="R5">
-        <v>0.9999712972298761</v>
+        <v>0.9999015087151845</v>
       </c>
       <c r="S5">
-        <v>0.999667656730549</v>
+        <v>0.9988596293620846</v>
       </c>
       <c r="T5">
-        <v>0.9999712972298761</v>
+        <v>0.9999015087151845</v>
       </c>
       <c r="U5">
-        <v>0.9999229629997025</v>
+        <v>0.9997356628908358</v>
       </c>
       <c r="V5">
-        <v>1.000076146761194</v>
+        <v>1.000261283008087</v>
       </c>
       <c r="W5">
-        <v>0.9999319010722975</v>
+        <v>0.9997663315161727</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.000562567683283</v>
+        <v>1.001516703125001</v>
       </c>
       <c r="D6">
-        <v>0.9996743394628689</v>
+        <v>0.9991220121022724</v>
       </c>
       <c r="E6">
-        <v>1.001010372281524</v>
+        <v>1.002724012897728</v>
       </c>
       <c r="F6">
-        <v>1.001010372281524</v>
+        <v>1.002724012897728</v>
       </c>
       <c r="G6">
-        <v>0.9990145636885546</v>
+        <v>0.9973432458522734</v>
       </c>
       <c r="H6">
-        <v>1.000378894254865</v>
+        <v>1.00102150681818</v>
       </c>
       <c r="I6">
-        <v>0.9996968872792166</v>
+        <v>0.9991827962500003</v>
       </c>
       <c r="J6">
-        <v>0.9984844447626824</v>
+        <v>0.9959139821022724</v>
       </c>
       <c r="K6">
-        <v>1.001010372281524</v>
+        <v>1.002724012897728</v>
       </c>
       <c r="L6">
-        <v>0.9984844447626824</v>
+        <v>0.9959139821022724</v>
       </c>
       <c r="M6">
-        <v>1.000378894254865</v>
+        <v>1.00102150681818</v>
       </c>
       <c r="N6">
-        <v>1.001010372281524</v>
+        <v>1.002724012897728</v>
       </c>
       <c r="O6">
-        <v>1.000378894254865</v>
+        <v>1.00102150681818</v>
       </c>
       <c r="P6">
-        <v>0.9994316695087735</v>
+        <v>0.9984677444602265</v>
       </c>
       <c r="Q6">
-        <v>1.000026616858867</v>
+        <v>1.000071759460226</v>
       </c>
       <c r="R6">
-        <v>0.9999579037663571</v>
+        <v>0.9998865006060602</v>
       </c>
       <c r="S6">
-        <v>0.9995125594934718</v>
+        <v>0.9986858336742417</v>
       </c>
       <c r="T6">
-        <v>0.9999579037663571</v>
+        <v>0.9998865006060602</v>
       </c>
       <c r="U6">
-        <v>0.9998870126904851</v>
+        <v>0.9996953784801133</v>
       </c>
       <c r="V6">
-        <v>1.000111684608693</v>
+        <v>1.000301105363636</v>
       </c>
       <c r="W6">
-        <v>0.9999001204584823</v>
+        <v>0.9997307207457384</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000009625438184</v>
+        <v>1.002225531181357</v>
       </c>
       <c r="D7">
-        <v>0.9999944271888285</v>
+        <v>0.9987116782367178</v>
       </c>
       <c r="E7">
-        <v>1.000017288633887</v>
+        <v>1.003997103296716</v>
       </c>
       <c r="F7">
-        <v>1.000017288633887</v>
+        <v>1.003997103296716</v>
       </c>
       <c r="G7">
-        <v>0.9999831386554602</v>
+        <v>0.9961015939697226</v>
       </c>
       <c r="H7">
-        <v>1.000006485193073</v>
+        <v>1.00149891849415</v>
       </c>
       <c r="I7">
-        <v>0.9999948147317129</v>
+        <v>0.9988008650111829</v>
       </c>
       <c r="J7">
-        <v>0.9999740685623077</v>
+        <v>0.9940043589962853</v>
       </c>
       <c r="K7">
-        <v>1.000017288633887</v>
+        <v>1.003997103296716</v>
       </c>
       <c r="L7">
-        <v>0.9999740685623077</v>
+        <v>0.9940043589962853</v>
       </c>
       <c r="M7">
-        <v>1.000006485193073</v>
+        <v>1.00149891849415</v>
       </c>
       <c r="N7">
-        <v>1.000017288633887</v>
+        <v>1.003997103296716</v>
       </c>
       <c r="O7">
-        <v>1.000006485193073</v>
+        <v>1.00149891849415</v>
       </c>
       <c r="P7">
-        <v>0.9999902768776904</v>
+        <v>0.9977516387452174</v>
       </c>
       <c r="Q7">
-        <v>1.000000456190951</v>
+        <v>1.000105298365434</v>
       </c>
       <c r="R7">
-        <v>0.9999992807964228</v>
+        <v>0.9998334602623836</v>
       </c>
       <c r="S7">
-        <v>0.9999916603147364</v>
+        <v>0.998071651909051</v>
       </c>
       <c r="T7">
-        <v>0.9999992807964228</v>
+        <v>0.9998334602623836</v>
       </c>
       <c r="U7">
-        <v>0.9999980673945241</v>
+        <v>0.9995530147559673</v>
       </c>
       <c r="V7">
-        <v>1.000001911642397</v>
+        <v>1.000441832464117</v>
       </c>
       <c r="W7">
-        <v>0.9999982916995658</v>
+        <v>0.9996048709600351</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000028763077269</v>
+        <v>1.002271303550997</v>
       </c>
       <c r="D8">
-        <v>0.999983348681753</v>
+        <v>0.9986851814601255</v>
       </c>
       <c r="E8">
-        <v>1.000051660324414</v>
+        <v>1.004079311259511</v>
       </c>
       <c r="F8">
-        <v>1.000051660324414</v>
+        <v>1.004079311259511</v>
       </c>
       <c r="G8">
-        <v>0.9999496156024215</v>
+        <v>0.9960214157822029</v>
       </c>
       <c r="H8">
-        <v>1.000019374689356</v>
+        <v>1.001529746598335</v>
       </c>
       <c r="I8">
-        <v>0.9999845032781263</v>
+        <v>0.9987762026347601</v>
       </c>
       <c r="J8">
-        <v>0.9999225111968943</v>
+        <v>0.9938810469281386</v>
       </c>
       <c r="K8">
-        <v>1.000051660324414</v>
+        <v>1.004079311259511</v>
       </c>
       <c r="L8">
-        <v>0.9999225111968943</v>
+        <v>0.9938810469281386</v>
       </c>
       <c r="M8">
-        <v>1.000019374689356</v>
+        <v>1.001529746598335</v>
       </c>
       <c r="N8">
-        <v>1.000051660324414</v>
+        <v>1.004079311259511</v>
       </c>
       <c r="O8">
-        <v>1.000019374689356</v>
+        <v>1.001529746598335</v>
       </c>
       <c r="P8">
-        <v>0.9999709429431251</v>
+        <v>0.9977053967632368</v>
       </c>
       <c r="Q8">
-        <v>1.000001361685554</v>
+        <v>1.00010746402923</v>
       </c>
       <c r="R8">
-        <v>0.999997848736888</v>
+        <v>0.9998300349286615</v>
       </c>
       <c r="S8">
-        <v>0.9999750781893343</v>
+        <v>0.9980319916621997</v>
       </c>
       <c r="T8">
-        <v>0.999997848736888</v>
+        <v>0.9998300349286615</v>
       </c>
       <c r="U8">
-        <v>0.9999942237231043</v>
+        <v>0.9995438215615275</v>
       </c>
       <c r="V8">
-        <v>1.000005711043366</v>
+        <v>1.000450919501124</v>
       </c>
       <c r="W8">
-        <v>0.9999948939424487</v>
+        <v>0.9995967443515507</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000045770698834</v>
+        <v>1.002298401830857</v>
       </c>
       <c r="D9">
-        <v>0.9999735036490884</v>
+        <v>0.9986694948397916</v>
       </c>
       <c r="E9">
-        <v>1.000082205161108</v>
+        <v>1.00412798001143</v>
       </c>
       <c r="F9">
-        <v>1.000082205161108</v>
+        <v>1.00412798001143</v>
       </c>
       <c r="G9">
-        <v>0.9999198253116477</v>
+        <v>0.9959739486577128</v>
       </c>
       <c r="H9">
-        <v>1.000030829301082</v>
+        <v>1.0015479973313</v>
       </c>
       <c r="I9">
-        <v>0.9999753397303894</v>
+        <v>0.998761602006578</v>
       </c>
       <c r="J9">
-        <v>0.9998766934598762</v>
+        <v>0.9938080436447591</v>
       </c>
       <c r="K9">
-        <v>1.000082205161108</v>
+        <v>1.00412798001143</v>
       </c>
       <c r="L9">
-        <v>0.9998766934598762</v>
+        <v>0.9938080436447591</v>
       </c>
       <c r="M9">
-        <v>1.000030829301082</v>
+        <v>1.0015479973313</v>
       </c>
       <c r="N9">
-        <v>1.000082205161108</v>
+        <v>1.00412798001143</v>
       </c>
       <c r="O9">
-        <v>1.000030829301082</v>
+        <v>1.0015479973313</v>
       </c>
       <c r="P9">
-        <v>0.9999537613804789</v>
+        <v>0.9976780204880293</v>
       </c>
       <c r="Q9">
-        <v>1.000002166475085</v>
+        <v>1.000108746085546</v>
       </c>
       <c r="R9">
-        <v>0.999996575974022</v>
+        <v>0.9998280069958295</v>
       </c>
       <c r="S9">
-        <v>0.9999603421366819</v>
+        <v>0.9980085119386167</v>
       </c>
       <c r="T9">
-        <v>0.999996575974022</v>
+        <v>0.9998280069958293</v>
       </c>
       <c r="U9">
-        <v>0.9999908078927886</v>
+        <v>0.99953837895682</v>
       </c>
       <c r="V9">
-        <v>1.000009087346453</v>
+        <v>1.000456299167742</v>
       </c>
       <c r="W9">
-        <v>0.9999918745766384</v>
+        <v>0.9995919332067158</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000093605782879</v>
+        <v>1.002471970553578</v>
       </c>
       <c r="D10">
-        <v>0.9999458134647451</v>
+        <v>0.9985690192699457</v>
       </c>
       <c r="E10">
-        <v>1.00016811691652</v>
+        <v>1.004439711610849</v>
       </c>
       <c r="F10">
-        <v>1.00016811691652</v>
+        <v>1.004439711610849</v>
       </c>
       <c r="G10">
-        <v>0.9998360323739636</v>
+        <v>0.9956699137150964</v>
       </c>
       <c r="H10">
-        <v>1.000063046491369</v>
+        <v>1.001664896949592</v>
       </c>
       <c r="I10">
-        <v>0.9999495666344808</v>
+        <v>0.9986680824484594</v>
       </c>
       <c r="J10">
-        <v>0.9997478261653223</v>
+        <v>0.9933404454503281</v>
       </c>
       <c r="K10">
-        <v>1.00016811691652</v>
+        <v>1.004439711610849</v>
       </c>
       <c r="L10">
-        <v>0.9997478261653223</v>
+        <v>0.9933404454503281</v>
       </c>
       <c r="M10">
-        <v>1.000063046491369</v>
+        <v>1.001664896949592</v>
       </c>
       <c r="N10">
-        <v>1.00016811691652</v>
+        <v>1.004439711610849</v>
       </c>
       <c r="O10">
-        <v>1.000063046491369</v>
+        <v>1.001664896949592</v>
       </c>
       <c r="P10">
-        <v>0.9999054363283456</v>
+        <v>0.9975026711999602</v>
       </c>
       <c r="Q10">
-        <v>1.000004429978057</v>
+        <v>1.000116958109769</v>
       </c>
       <c r="R10">
-        <v>0.9999929965244038</v>
+        <v>0.9998150180035896</v>
       </c>
       <c r="S10">
-        <v>0.9999188953738121</v>
+        <v>0.997858120556622</v>
       </c>
       <c r="T10">
-        <v>0.9999929965244038</v>
+        <v>0.9998150180035896</v>
       </c>
       <c r="U10">
-        <v>0.9999812007594892</v>
+        <v>0.9995035183201786</v>
       </c>
       <c r="V10">
-        <v>1.000018583990895</v>
+        <v>1.000490756978313</v>
       </c>
       <c r="W10">
-        <v>0.9999833817900812</v>
+        <v>0.99956111711843</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000168661177907</v>
+        <v>1.000118869535809</v>
       </c>
       <c r="D11">
-        <v>0.9999023672059842</v>
+        <v>0.9999311874932012</v>
       </c>
       <c r="E11">
-        <v>1.000302917153553</v>
+        <v>1.000213493762174</v>
       </c>
       <c r="F11">
-        <v>1.000302917153553</v>
+        <v>1.000213493762174</v>
       </c>
       <c r="G11">
-        <v>0.9997045626413523</v>
+        <v>0.9997917774323375</v>
       </c>
       <c r="H11">
-        <v>1.000113594503366</v>
+        <v>1.000080062435078</v>
       </c>
       <c r="I11">
-        <v>0.9999091240252991</v>
+        <v>0.9999359536232721</v>
       </c>
       <c r="J11">
-        <v>0.9995456266098985</v>
+        <v>0.9996797608566306</v>
       </c>
       <c r="K11">
-        <v>1.000302917153553</v>
+        <v>1.000213493762174</v>
       </c>
       <c r="L11">
-        <v>0.9995456266098985</v>
+        <v>0.9996797608566306</v>
       </c>
       <c r="M11">
-        <v>1.000113594503366</v>
+        <v>1.000080062435078</v>
       </c>
       <c r="N11">
-        <v>1.000302917153553</v>
+        <v>1.000213493762174</v>
       </c>
       <c r="O11">
-        <v>1.000113594503366</v>
+        <v>1.000080062435078</v>
       </c>
       <c r="P11">
-        <v>0.9998296105566321</v>
+        <v>0.9998799116458542</v>
       </c>
       <c r="Q11">
-        <v>1.000007980854675</v>
+        <v>1.00000562496414</v>
       </c>
       <c r="R11">
-        <v>0.9999873794222723</v>
+        <v>0.9999911056846275</v>
       </c>
       <c r="S11">
-        <v>0.9998538627730827</v>
+        <v>0.9998970035949699</v>
       </c>
       <c r="T11">
-        <v>0.9999873794222723</v>
+        <v>0.9999911056846275</v>
       </c>
       <c r="U11">
-        <v>0.9999661263682004</v>
+        <v>0.9999761261367709</v>
       </c>
       <c r="V11">
-        <v>1.000033484525271</v>
+        <v>1.000023599661852</v>
       </c>
       <c r="W11">
-        <v>0.9999700559775906</v>
+        <v>0.9999788959466975</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9983746681556275</v>
+        <v>1.000067597431068</v>
       </c>
       <c r="D12">
-        <v>1.000940869559735</v>
+        <v>0.9999608681942154</v>
       </c>
       <c r="E12">
-        <v>0.997080871821905</v>
+        <v>1.000121407326677</v>
       </c>
       <c r="F12">
-        <v>0.997080871821905</v>
+        <v>1.000121407326677</v>
       </c>
       <c r="G12">
-        <v>1.002847057051159</v>
+        <v>0.9998815906302879</v>
       </c>
       <c r="H12">
-        <v>0.9989053244560648</v>
+        <v>1.000045529835751</v>
       </c>
       <c r="I12">
-        <v>1.000875731819619</v>
+        <v>0.9999635792050083</v>
       </c>
       <c r="J12">
-        <v>1.004378693169182</v>
+        <v>0.9998178906177972</v>
       </c>
       <c r="K12">
-        <v>0.997080871821905</v>
+        <v>1.000121407326677</v>
       </c>
       <c r="L12">
-        <v>1.004378693169182</v>
+        <v>0.9998178906177972</v>
       </c>
       <c r="M12">
-        <v>0.9989053244560648</v>
+        <v>1.000045529835751</v>
       </c>
       <c r="N12">
-        <v>0.997080871821905</v>
+        <v>1.000121407326677</v>
       </c>
       <c r="O12">
-        <v>0.9989053244560648</v>
+        <v>1.000045529835751</v>
       </c>
       <c r="P12">
-        <v>1.001642008812623</v>
+        <v>0.9999317102267741</v>
       </c>
       <c r="Q12">
-        <v>0.9999230970079002</v>
+        <v>1.000003199014983</v>
       </c>
       <c r="R12">
-        <v>1.000121629815717</v>
+        <v>0.9999949425934084</v>
       </c>
       <c r="S12">
-        <v>1.001408295728327</v>
+        <v>0.9999414295492546</v>
       </c>
       <c r="T12">
-        <v>1.000121629815717</v>
+        <v>0.9999949425934084</v>
       </c>
       <c r="U12">
-        <v>1.000326439751722</v>
+        <v>0.9999864239936102</v>
       </c>
       <c r="V12">
-        <v>0.9996773261657583</v>
+        <v>1.000013420660224</v>
       </c>
       <c r="W12">
-        <v>1.00028856756117</v>
+        <v>0.9999879991345695</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9995785444410302</v>
+        <v>1.000268368216947</v>
       </c>
       <c r="D13">
-        <v>1.000243971537558</v>
+        <v>0.9998446457309963</v>
       </c>
       <c r="E13">
-        <v>0.9992430526738371</v>
+        <v>1.000481989829552</v>
       </c>
       <c r="F13">
-        <v>0.9992430526738371</v>
+        <v>1.000481989829552</v>
       </c>
       <c r="G13">
-        <v>1.000738253705005</v>
+        <v>0.9995299068445227</v>
       </c>
       <c r="H13">
-        <v>0.9997161461140691</v>
+        <v>1.000180749625959</v>
       </c>
       <c r="I13">
-        <v>1.00022707990357</v>
+        <v>0.9998554040628427</v>
       </c>
       <c r="J13">
-        <v>1.001135415294444</v>
+        <v>0.9992770107703054</v>
       </c>
       <c r="K13">
-        <v>0.9992430526738371</v>
+        <v>1.000481989829552</v>
       </c>
       <c r="L13">
-        <v>1.001135415294444</v>
+        <v>0.9992770107703054</v>
       </c>
       <c r="M13">
-        <v>0.9997161461140691</v>
+        <v>1.000180749625959</v>
       </c>
       <c r="N13">
-        <v>0.9992430526738371</v>
+        <v>1.000481989829552</v>
       </c>
       <c r="O13">
-        <v>0.9997161461140691</v>
+        <v>1.000180749625959</v>
       </c>
       <c r="P13">
-        <v>1.000425780704256</v>
+        <v>0.9997288801981323</v>
       </c>
       <c r="Q13">
-        <v>0.9999800588258133</v>
+        <v>1.000012697678478</v>
       </c>
       <c r="R13">
-        <v>1.00003153802745</v>
+        <v>0.999979916741939</v>
       </c>
       <c r="S13">
-        <v>1.00036517764869</v>
+        <v>0.9997674687090869</v>
       </c>
       <c r="T13">
-        <v>1.00003153802745</v>
+        <v>0.999979916741939</v>
       </c>
       <c r="U13">
-        <v>1.000084646404977</v>
+        <v>0.9999460989892033</v>
       </c>
       <c r="V13">
-        <v>0.9999163276587488</v>
+        <v>1.000053277157273</v>
       </c>
       <c r="W13">
-        <v>1.000074826222948</v>
+        <v>0.9999523530883856</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.004990682548483</v>
+        <v>1.000290509753661</v>
       </c>
       <c r="D14">
-        <v>0.9971109779538611</v>
+        <v>0.9998318289663026</v>
       </c>
       <c r="E14">
-        <v>1.008963382175617</v>
+        <v>1.000521756533895</v>
       </c>
       <c r="F14">
-        <v>1.008963382175617</v>
+        <v>1.000521756533895</v>
       </c>
       <c r="G14">
-        <v>0.9912579436694374</v>
+        <v>0.9994911283810177</v>
       </c>
       <c r="H14">
-        <v>1.003361267065429</v>
+        <v>1.000195663666634</v>
       </c>
       <c r="I14">
-        <v>0.9973109880794155</v>
+        <v>0.9998434738126376</v>
       </c>
       <c r="J14">
-        <v>0.9865549385046092</v>
+        <v>0.9992173708698827</v>
       </c>
       <c r="K14">
-        <v>1.008963382175617</v>
+        <v>1.000521756533895</v>
       </c>
       <c r="L14">
-        <v>0.9865549385046092</v>
+        <v>0.9992173708698827</v>
       </c>
       <c r="M14">
-        <v>1.003361267065429</v>
+        <v>1.000195663666634</v>
       </c>
       <c r="N14">
-        <v>1.008963382175617</v>
+        <v>1.000521756533895</v>
       </c>
       <c r="O14">
-        <v>1.003361267065429</v>
+        <v>1.000195663666634</v>
       </c>
       <c r="P14">
-        <v>0.9949581027850192</v>
+        <v>0.9997065172682582</v>
       </c>
       <c r="Q14">
-        <v>1.000236122509645</v>
+        <v>1.000013746316468</v>
       </c>
       <c r="R14">
-        <v>0.9996265292485517</v>
+        <v>0.999978263690137</v>
       </c>
       <c r="S14">
-        <v>0.9956757278412999</v>
+        <v>0.9997482878342731</v>
       </c>
       <c r="T14">
-        <v>0.9996265292485514</v>
+        <v>0.999978263690137</v>
       </c>
       <c r="U14">
-        <v>0.9989976414248789</v>
+        <v>0.9999416550091784</v>
       </c>
       <c r="V14">
-        <v>1.000990789575026</v>
+        <v>1.000057675314122</v>
       </c>
       <c r="W14">
-        <v>0.9991139308827851</v>
+        <v>0.999948424456333</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.001336784776232</v>
+        <v>1.000103678526781</v>
       </c>
       <c r="D15">
-        <v>0.9992261583133633</v>
+        <v>0.9999399815199737</v>
       </c>
       <c r="E15">
-        <v>1.002400876334883</v>
+        <v>1.000186208984573</v>
       </c>
       <c r="F15">
-        <v>1.002400876334883</v>
+        <v>1.000186208984573</v>
       </c>
       <c r="G15">
-        <v>0.9976583992982574</v>
+        <v>0.9998183885117414</v>
       </c>
       <c r="H15">
-        <v>1.000900328585678</v>
+        <v>1.000069830677158</v>
       </c>
       <c r="I15">
-        <v>0.9992797366366857</v>
+        <v>0.9999441384978585</v>
       </c>
       <c r="J15">
-        <v>0.99639867129337</v>
+        <v>0.9997206876208954</v>
       </c>
       <c r="K15">
-        <v>1.002400876334883</v>
+        <v>1.000186208984573</v>
       </c>
       <c r="L15">
-        <v>0.99639867129337</v>
+        <v>0.9997206876208954</v>
       </c>
       <c r="M15">
-        <v>1.000900328585678</v>
+        <v>1.000069830677158</v>
       </c>
       <c r="N15">
-        <v>1.002400876334883</v>
+        <v>1.000186208984573</v>
       </c>
       <c r="O15">
-        <v>1.000900328585678</v>
+        <v>1.000069830677158</v>
       </c>
       <c r="P15">
-        <v>0.9986494999395239</v>
+        <v>0.9998952591490267</v>
       </c>
       <c r="Q15">
-        <v>1.00006324344952</v>
+        <v>1.000004906098566</v>
       </c>
       <c r="R15">
-        <v>0.999899958737977</v>
+        <v>0.9999922424275421</v>
       </c>
       <c r="S15">
-        <v>0.9988417193974705</v>
+        <v>0.999910166606009</v>
       </c>
       <c r="T15">
-        <v>0.9998999587379768</v>
+        <v>0.9999922424275421</v>
       </c>
       <c r="U15">
-        <v>0.9997315086318235</v>
+        <v>0.99997917720065</v>
       </c>
       <c r="V15">
-        <v>1.000265382172435</v>
+        <v>1.000020583557435</v>
       </c>
       <c r="W15">
-        <v>0.9997626604780183</v>
+        <v>0.9999815931270174</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.002023575907791</v>
+        <v>1.000200151036456</v>
       </c>
       <c r="D16">
-        <v>0.9988285881898568</v>
+        <v>0.9998841381573534</v>
       </c>
       <c r="E16">
-        <v>1.003634371051806</v>
+        <v>1.000359473082206</v>
       </c>
       <c r="F16">
-        <v>1.003634371051806</v>
+        <v>1.000359473082206</v>
       </c>
       <c r="G16">
-        <v>0.9964553581524155</v>
+        <v>0.9996494018184214</v>
       </c>
       <c r="H16">
-        <v>1.0013628942925</v>
+        <v>1.000134804407077</v>
       </c>
       <c r="I16">
-        <v>0.9989096918483238</v>
+        <v>0.9998921588438037</v>
       </c>
       <c r="J16">
-        <v>0.9945484421672099</v>
+        <v>0.999460791564699</v>
       </c>
       <c r="K16">
-        <v>1.003634371051806</v>
+        <v>1.000359473082206</v>
       </c>
       <c r="L16">
-        <v>0.9945484421672099</v>
+        <v>0.999460791564699</v>
       </c>
       <c r="M16">
-        <v>1.0013628942925</v>
+        <v>1.000134804407077</v>
       </c>
       <c r="N16">
-        <v>1.003634371051806</v>
+        <v>1.000359473082206</v>
       </c>
       <c r="O16">
-        <v>1.0013628942925</v>
+        <v>1.000134804407077</v>
       </c>
       <c r="P16">
-        <v>0.9979556682298552</v>
+        <v>0.9997977979858883</v>
       </c>
       <c r="Q16">
-        <v>1.000095741241179</v>
+        <v>1.000009471282215</v>
       </c>
       <c r="R16">
-        <v>0.9998485691705055</v>
+        <v>0.9999850230179942</v>
       </c>
       <c r="S16">
-        <v>0.9982466415498558</v>
+        <v>0.9998265780430433</v>
       </c>
       <c r="T16">
-        <v>0.9998485691705055</v>
+        <v>0.9999850230179942</v>
       </c>
       <c r="U16">
-        <v>0.9995935739253433</v>
+        <v>0.9999598018028339</v>
       </c>
       <c r="V16">
-        <v>1.000401733350636</v>
+        <v>1.000039736058708</v>
       </c>
       <c r="W16">
-        <v>0.9996407269878005</v>
+        <v>0.9999644654146368</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.00166026145083</v>
+        <v>1.000383564679916</v>
       </c>
       <c r="D17">
-        <v>0.9990389041762278</v>
+        <v>0.9997779603091819</v>
       </c>
       <c r="E17">
-        <v>1.002981854819309</v>
+        <v>1.000688881807163</v>
       </c>
       <c r="F17">
-        <v>1.002981854819309</v>
+        <v>1.000688881807163</v>
       </c>
       <c r="G17">
-        <v>0.9970917657466331</v>
+        <v>0.9993281203251591</v>
       </c>
       <c r="H17">
-        <v>1.001118199187533</v>
+        <v>1.000258336708725</v>
       </c>
       <c r="I17">
-        <v>0.9991054459286387</v>
+        <v>0.99979333486577</v>
       </c>
       <c r="J17">
-        <v>0.9955272171742318</v>
+        <v>0.9989666731737401</v>
       </c>
       <c r="K17">
-        <v>1.002981854819309</v>
+        <v>1.000688881807163</v>
       </c>
       <c r="L17">
-        <v>0.9955272171742318</v>
+        <v>0.9989666731737401</v>
       </c>
       <c r="M17">
-        <v>1.001118199187533</v>
+        <v>1.000258336708725</v>
       </c>
       <c r="N17">
-        <v>1.002981854819309</v>
+        <v>1.000688881807163</v>
       </c>
       <c r="O17">
-        <v>1.001118199187533</v>
+        <v>1.000258336708725</v>
       </c>
       <c r="P17">
-        <v>0.9983227081808823</v>
+        <v>0.9996125049412327</v>
       </c>
       <c r="Q17">
-        <v>1.00007855168188</v>
+        <v>1.000018148508953</v>
       </c>
       <c r="R17">
-        <v>0.9998757570603581</v>
+        <v>0.9999712972298761</v>
       </c>
       <c r="S17">
-        <v>0.9985614401793308</v>
+        <v>0.999667656730549</v>
       </c>
       <c r="T17">
-        <v>0.9998757570603581</v>
+        <v>0.9999712972298761</v>
       </c>
       <c r="U17">
-        <v>0.9996665438393255</v>
+        <v>0.9999229629997025</v>
       </c>
       <c r="V17">
-        <v>1.000329606035322</v>
+        <v>1.000076146761194</v>
       </c>
       <c r="W17">
-        <v>0.9997052309588671</v>
+        <v>0.9999319010722975</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000938075327459</v>
+        <v>1.000562567683283</v>
       </c>
       <c r="D18">
-        <v>0.9994569647833015</v>
+        <v>0.9996743394628689</v>
       </c>
       <c r="E18">
-        <v>1.001684798760866</v>
+        <v>1.001010372281524</v>
       </c>
       <c r="F18">
-        <v>1.001684798760866</v>
+        <v>1.001010372281524</v>
       </c>
       <c r="G18">
-        <v>0.9983568004850546</v>
+        <v>0.9990145636885546</v>
       </c>
       <c r="H18">
-        <v>1.000631799155851</v>
+        <v>1.000378894254865</v>
       </c>
       <c r="I18">
-        <v>0.999494561725092</v>
+        <v>0.9996968872792166</v>
       </c>
       <c r="J18">
-        <v>0.9974728032139387</v>
+        <v>0.9984844447626824</v>
       </c>
       <c r="K18">
-        <v>1.001684798760866</v>
+        <v>1.001010372281524</v>
       </c>
       <c r="L18">
-        <v>0.9974728032139387</v>
+        <v>0.9984844447626824</v>
       </c>
       <c r="M18">
-        <v>1.000631799155851</v>
+        <v>1.000378894254865</v>
       </c>
       <c r="N18">
-        <v>1.001684798760866</v>
+        <v>1.001010372281524</v>
       </c>
       <c r="O18">
-        <v>1.000631799155851</v>
+        <v>1.000378894254865</v>
       </c>
       <c r="P18">
-        <v>0.9990523011848951</v>
+        <v>0.9994316695087735</v>
       </c>
       <c r="Q18">
-        <v>1.000044381969576</v>
+        <v>1.000026616858867</v>
       </c>
       <c r="R18">
-        <v>0.9999298003768855</v>
+        <v>0.9999579037663571</v>
       </c>
       <c r="S18">
-        <v>0.9991871890510305</v>
+        <v>0.9995125594934718</v>
       </c>
       <c r="T18">
-        <v>0.9999298003768855</v>
+        <v>0.9999579037663571</v>
       </c>
       <c r="U18">
-        <v>0.9998115914784895</v>
+        <v>0.9998870126904851</v>
       </c>
       <c r="V18">
-        <v>1.000186232934965</v>
+        <v>1.000111684608693</v>
       </c>
       <c r="W18">
-        <v>0.9998334503259269</v>
+        <v>0.9999001204584823</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.001008827302941</v>
+        <v>1.000009625438184</v>
       </c>
       <c r="D19">
-        <v>0.9994160087037717</v>
+        <v>0.9999944271888285</v>
       </c>
       <c r="E19">
-        <v>1.001811874816804</v>
+        <v>1.000017288633887</v>
       </c>
       <c r="F19">
-        <v>1.001811874816804</v>
+        <v>1.000017288633887</v>
       </c>
       <c r="G19">
-        <v>0.9982328616561165</v>
+        <v>0.9999831386554602</v>
       </c>
       <c r="H19">
-        <v>1.000679456964481</v>
+        <v>1.000006485193073</v>
       </c>
       <c r="I19">
-        <v>0.9994564362315043</v>
+        <v>0.9999948147317129</v>
       </c>
       <c r="J19">
-        <v>0.997282187066219</v>
+        <v>0.9999740685623077</v>
       </c>
       <c r="K19">
-        <v>1.001811874816804</v>
+        <v>1.000017288633887</v>
       </c>
       <c r="L19">
-        <v>0.997282187066219</v>
+        <v>0.9999740685623077</v>
       </c>
       <c r="M19">
-        <v>1.000679456964481</v>
+        <v>1.000006485193073</v>
       </c>
       <c r="N19">
-        <v>1.001811874816804</v>
+        <v>1.000017288633887</v>
       </c>
       <c r="O19">
-        <v>1.000679456964481</v>
+        <v>1.000006485193073</v>
       </c>
       <c r="P19">
-        <v>0.9989808220153498</v>
+        <v>0.9999902768776904</v>
       </c>
       <c r="Q19">
-        <v>1.000047732834126</v>
+        <v>1.000000456190951</v>
       </c>
       <c r="R19">
-        <v>0.999924506282501</v>
+        <v>0.9999992807964228</v>
       </c>
       <c r="S19">
-        <v>0.9991258842448237</v>
+        <v>0.9999916603147364</v>
       </c>
       <c r="T19">
-        <v>0.999924506282501</v>
+        <v>0.9999992807964228</v>
       </c>
       <c r="U19">
-        <v>0.9997973818878186</v>
+        <v>0.9999980673945241</v>
       </c>
       <c r="V19">
-        <v>1.000200280473616</v>
+        <v>1.000001911642397</v>
       </c>
       <c r="W19">
-        <v>0.9998208887132897</v>
+        <v>0.9999982916995658</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000000428078016</v>
+        <v>1.000028763077269</v>
       </c>
       <c r="D20">
-        <v>0.9999997514288503</v>
+        <v>0.999983348681753</v>
       </c>
       <c r="E20">
-        <v>1.000000769941393</v>
+        <v>1.000051660324414</v>
       </c>
       <c r="F20">
-        <v>1.000000769941393</v>
+        <v>1.000051660324414</v>
       </c>
       <c r="G20">
-        <v>0.9999992494895125</v>
+        <v>0.9999496156024215</v>
       </c>
       <c r="H20">
-        <v>1.00000029078186</v>
+        <v>1.000019374689356</v>
       </c>
       <c r="I20">
-        <v>0.9999997702846826</v>
+        <v>0.9999845032781263</v>
       </c>
       <c r="J20">
-        <v>0.9999988465396503</v>
+        <v>0.9999225111968943</v>
       </c>
       <c r="K20">
-        <v>1.000000769941393</v>
+        <v>1.000051660324414</v>
       </c>
       <c r="L20">
-        <v>0.9999988465396503</v>
+        <v>0.9999225111968943</v>
       </c>
       <c r="M20">
-        <v>1.00000029078186</v>
+        <v>1.000019374689356</v>
       </c>
       <c r="N20">
-        <v>1.000000769941393</v>
+        <v>1.000051660324414</v>
       </c>
       <c r="O20">
-        <v>1.00000029078186</v>
+        <v>1.000019374689356</v>
       </c>
       <c r="P20">
-        <v>0.9999995686607551</v>
+        <v>0.9999709429431251</v>
       </c>
       <c r="Q20">
-        <v>1.000000021105355</v>
+        <v>1.000001361685554</v>
       </c>
       <c r="R20">
-        <v>0.9999999690876343</v>
+        <v>0.999997848736888</v>
       </c>
       <c r="S20">
-        <v>0.9999996295834536</v>
+        <v>0.9999750781893343</v>
       </c>
       <c r="T20">
-        <v>0.9999999690876343</v>
+        <v>0.999997848736888</v>
       </c>
       <c r="U20">
-        <v>0.9999999146729384</v>
+        <v>0.9999942237231043</v>
       </c>
       <c r="V20">
-        <v>1.000000085726629</v>
+        <v>1.000005711043366</v>
       </c>
       <c r="W20">
-        <v>0.9999999246657281</v>
+        <v>0.9999948939424487</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000009066977487</v>
+        <v>1.000045770698834</v>
       </c>
       <c r="D21">
-        <v>0.9999947505900819</v>
+        <v>0.9999735036490884</v>
       </c>
       <c r="E21">
-        <v>1.000016284988737</v>
+        <v>1.000082205161108</v>
       </c>
       <c r="F21">
-        <v>1.000016284988737</v>
+        <v>1.000082205161108</v>
       </c>
       <c r="G21">
-        <v>0.9999841171960576</v>
+        <v>0.9999198253116477</v>
       </c>
       <c r="H21">
-        <v>1.000006109077358</v>
+        <v>1.000030829301082</v>
       </c>
       <c r="I21">
-        <v>0.9999951153786418</v>
+        <v>0.9999753397303894</v>
       </c>
       <c r="J21">
-        <v>0.9999755738226319</v>
+        <v>0.9998766934598762</v>
       </c>
       <c r="K21">
-        <v>1.000016284988737</v>
+        <v>1.000082205161108</v>
       </c>
       <c r="L21">
-        <v>0.9999755738226319</v>
+        <v>0.9998766934598762</v>
       </c>
       <c r="M21">
-        <v>1.000006109077358</v>
+        <v>1.000030829301082</v>
       </c>
       <c r="N21">
-        <v>1.000016284988737</v>
+        <v>1.000082205161108</v>
       </c>
       <c r="O21">
-        <v>1.000006109077358</v>
+        <v>1.000030829301082</v>
       </c>
       <c r="P21">
-        <v>0.9999908414499947</v>
+        <v>0.9999537613804789</v>
       </c>
       <c r="Q21">
-        <v>1.00000042983372</v>
+        <v>1.000002166475085</v>
       </c>
       <c r="R21">
-        <v>0.9999993226295754</v>
+        <v>0.999996575974022</v>
       </c>
       <c r="S21">
-        <v>0.9999921444966905</v>
+        <v>0.9999603421366819</v>
       </c>
       <c r="T21">
-        <v>0.9999993226295754</v>
+        <v>0.999996575974022</v>
       </c>
       <c r="U21">
-        <v>0.9999981796197019</v>
+        <v>0.9999908078927886</v>
       </c>
       <c r="V21">
-        <v>1.000001800693509</v>
+        <v>1.000009087346453</v>
       </c>
       <c r="W21">
-        <v>0.999998390888544</v>
+        <v>0.9999918745766384</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000031923827634</v>
+        <v>1.000093605782879</v>
       </c>
       <c r="D22">
-        <v>0.9999815167960953</v>
+        <v>0.9999458134647451</v>
       </c>
       <c r="E22">
-        <v>1.000057330592725</v>
+        <v>1.00016811691652</v>
       </c>
       <c r="F22">
-        <v>1.000057330592725</v>
+        <v>1.00016811691652</v>
       </c>
       <c r="G22">
-        <v>0.9999440824092913</v>
+        <v>0.9998360323739636</v>
       </c>
       <c r="H22">
-        <v>1.000021504195668</v>
+        <v>1.000063046491369</v>
       </c>
       <c r="I22">
-        <v>0.9999828034641106</v>
+        <v>0.9999495666344808</v>
       </c>
       <c r="J22">
-        <v>0.9999140037178514</v>
+        <v>0.9997478261653223</v>
       </c>
       <c r="K22">
-        <v>1.000057330592725</v>
+        <v>1.00016811691652</v>
       </c>
       <c r="L22">
-        <v>0.9999140037178514</v>
+        <v>0.9997478261653223</v>
       </c>
       <c r="M22">
-        <v>1.000021504195668</v>
+        <v>1.000063046491369</v>
       </c>
       <c r="N22">
-        <v>1.000057330592725</v>
+        <v>1.00016811691652</v>
       </c>
       <c r="O22">
-        <v>1.000021504195668</v>
+        <v>1.000063046491369</v>
       </c>
       <c r="P22">
-        <v>0.9999677539567595</v>
+        <v>0.9999054363283456</v>
       </c>
       <c r="Q22">
-        <v>1.000001510495881</v>
+        <v>1.000004429978057</v>
       </c>
       <c r="R22">
-        <v>0.9999976128354149</v>
+        <v>0.9999929965244038</v>
       </c>
       <c r="S22">
-        <v>0.9999723415698715</v>
+        <v>0.9999188953738121</v>
       </c>
       <c r="T22">
-        <v>0.9999976128354149</v>
+        <v>0.9999929965244038</v>
       </c>
       <c r="U22">
-        <v>0.999993588825585</v>
+        <v>0.9999812007594892</v>
       </c>
       <c r="V22">
-        <v>1.000006337179013</v>
+        <v>1.000018583990895</v>
       </c>
       <c r="W22">
-        <v>0.9999943336498804</v>
+        <v>0.9999833817900812</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.000168661177907</v>
+      </c>
+      <c r="D23">
+        <v>0.9999023672059842</v>
+      </c>
+      <c r="E23">
+        <v>1.000302917153553</v>
+      </c>
+      <c r="F23">
+        <v>1.000302917153553</v>
+      </c>
+      <c r="G23">
+        <v>0.9997045626413523</v>
+      </c>
+      <c r="H23">
+        <v>1.000113594503366</v>
+      </c>
+      <c r="I23">
+        <v>0.9999091240252991</v>
+      </c>
+      <c r="J23">
+        <v>0.9995456266098985</v>
+      </c>
+      <c r="K23">
+        <v>1.000302917153553</v>
+      </c>
+      <c r="L23">
+        <v>0.9995456266098985</v>
+      </c>
+      <c r="M23">
+        <v>1.000113594503366</v>
+      </c>
+      <c r="N23">
+        <v>1.000302917153553</v>
+      </c>
+      <c r="O23">
+        <v>1.000113594503366</v>
+      </c>
+      <c r="P23">
+        <v>0.9998296105566321</v>
+      </c>
+      <c r="Q23">
+        <v>1.000007980854675</v>
+      </c>
+      <c r="R23">
+        <v>0.9999873794222723</v>
+      </c>
+      <c r="S23">
+        <v>0.9998538627730827</v>
+      </c>
+      <c r="T23">
+        <v>0.9999873794222723</v>
+      </c>
+      <c r="U23">
+        <v>0.9999661263682004</v>
+      </c>
+      <c r="V23">
+        <v>1.000033484525271</v>
+      </c>
+      <c r="W23">
+        <v>0.9999700559775906</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9983746681556275</v>
+      </c>
+      <c r="D24">
+        <v>1.000940869559735</v>
+      </c>
+      <c r="E24">
+        <v>0.997080871821905</v>
+      </c>
+      <c r="F24">
+        <v>0.997080871821905</v>
+      </c>
+      <c r="G24">
+        <v>1.002847057051159</v>
+      </c>
+      <c r="H24">
+        <v>0.9989053244560648</v>
+      </c>
+      <c r="I24">
+        <v>1.000875731819619</v>
+      </c>
+      <c r="J24">
+        <v>1.004378693169182</v>
+      </c>
+      <c r="K24">
+        <v>0.997080871821905</v>
+      </c>
+      <c r="L24">
+        <v>1.004378693169182</v>
+      </c>
+      <c r="M24">
+        <v>0.9989053244560648</v>
+      </c>
+      <c r="N24">
+        <v>0.997080871821905</v>
+      </c>
+      <c r="O24">
+        <v>0.9989053244560648</v>
+      </c>
+      <c r="P24">
+        <v>1.001642008812623</v>
+      </c>
+      <c r="Q24">
+        <v>0.9999230970079002</v>
+      </c>
+      <c r="R24">
+        <v>1.000121629815717</v>
+      </c>
+      <c r="S24">
+        <v>1.001408295728327</v>
+      </c>
+      <c r="T24">
+        <v>1.000121629815717</v>
+      </c>
+      <c r="U24">
+        <v>1.000326439751722</v>
+      </c>
+      <c r="V24">
+        <v>0.9996773261657583</v>
+      </c>
+      <c r="W24">
+        <v>1.00028856756117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9995785444410302</v>
+      </c>
+      <c r="D25">
+        <v>1.000243971537558</v>
+      </c>
+      <c r="E25">
+        <v>0.9992430526738371</v>
+      </c>
+      <c r="F25">
+        <v>0.9992430526738371</v>
+      </c>
+      <c r="G25">
+        <v>1.000738253705005</v>
+      </c>
+      <c r="H25">
+        <v>0.9997161461140691</v>
+      </c>
+      <c r="I25">
+        <v>1.00022707990357</v>
+      </c>
+      <c r="J25">
+        <v>1.001135415294444</v>
+      </c>
+      <c r="K25">
+        <v>0.9992430526738371</v>
+      </c>
+      <c r="L25">
+        <v>1.001135415294444</v>
+      </c>
+      <c r="M25">
+        <v>0.9997161461140691</v>
+      </c>
+      <c r="N25">
+        <v>0.9992430526738371</v>
+      </c>
+      <c r="O25">
+        <v>0.9997161461140691</v>
+      </c>
+      <c r="P25">
+        <v>1.000425780704256</v>
+      </c>
+      <c r="Q25">
+        <v>0.9999800588258133</v>
+      </c>
+      <c r="R25">
+        <v>1.00003153802745</v>
+      </c>
+      <c r="S25">
+        <v>1.00036517764869</v>
+      </c>
+      <c r="T25">
+        <v>1.00003153802745</v>
+      </c>
+      <c r="U25">
+        <v>1.000084646404977</v>
+      </c>
+      <c r="V25">
+        <v>0.9999163276587488</v>
+      </c>
+      <c r="W25">
+        <v>1.000074826222948</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.004990682548483</v>
+      </c>
+      <c r="D26">
+        <v>0.9971109779538611</v>
+      </c>
+      <c r="E26">
+        <v>1.008963382175617</v>
+      </c>
+      <c r="F26">
+        <v>1.008963382175617</v>
+      </c>
+      <c r="G26">
+        <v>0.9912579436694374</v>
+      </c>
+      <c r="H26">
+        <v>1.003361267065429</v>
+      </c>
+      <c r="I26">
+        <v>0.9973109880794155</v>
+      </c>
+      <c r="J26">
+        <v>0.9865549385046092</v>
+      </c>
+      <c r="K26">
+        <v>1.008963382175617</v>
+      </c>
+      <c r="L26">
+        <v>0.9865549385046092</v>
+      </c>
+      <c r="M26">
+        <v>1.003361267065429</v>
+      </c>
+      <c r="N26">
+        <v>1.008963382175617</v>
+      </c>
+      <c r="O26">
+        <v>1.003361267065429</v>
+      </c>
+      <c r="P26">
+        <v>0.9949581027850192</v>
+      </c>
+      <c r="Q26">
+        <v>1.000236122509645</v>
+      </c>
+      <c r="R26">
+        <v>0.9996265292485517</v>
+      </c>
+      <c r="S26">
+        <v>0.9956757278412999</v>
+      </c>
+      <c r="T26">
+        <v>0.9996265292485514</v>
+      </c>
+      <c r="U26">
+        <v>0.9989976414248789</v>
+      </c>
+      <c r="V26">
+        <v>1.000990789575026</v>
+      </c>
+      <c r="W26">
+        <v>0.9991139308827851</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.001336784776232</v>
+      </c>
+      <c r="D27">
+        <v>0.9992261583133633</v>
+      </c>
+      <c r="E27">
+        <v>1.002400876334883</v>
+      </c>
+      <c r="F27">
+        <v>1.002400876334883</v>
+      </c>
+      <c r="G27">
+        <v>0.9976583992982574</v>
+      </c>
+      <c r="H27">
+        <v>1.000900328585678</v>
+      </c>
+      <c r="I27">
+        <v>0.9992797366366857</v>
+      </c>
+      <c r="J27">
+        <v>0.99639867129337</v>
+      </c>
+      <c r="K27">
+        <v>1.002400876334883</v>
+      </c>
+      <c r="L27">
+        <v>0.99639867129337</v>
+      </c>
+      <c r="M27">
+        <v>1.000900328585678</v>
+      </c>
+      <c r="N27">
+        <v>1.002400876334883</v>
+      </c>
+      <c r="O27">
+        <v>1.000900328585678</v>
+      </c>
+      <c r="P27">
+        <v>0.9986494999395239</v>
+      </c>
+      <c r="Q27">
+        <v>1.00006324344952</v>
+      </c>
+      <c r="R27">
+        <v>0.999899958737977</v>
+      </c>
+      <c r="S27">
+        <v>0.9988417193974705</v>
+      </c>
+      <c r="T27">
+        <v>0.9998999587379768</v>
+      </c>
+      <c r="U27">
+        <v>0.9997315086318235</v>
+      </c>
+      <c r="V27">
+        <v>1.000265382172435</v>
+      </c>
+      <c r="W27">
+        <v>0.9997626604780183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.002023575907791</v>
+      </c>
+      <c r="D28">
+        <v>0.9988285881898568</v>
+      </c>
+      <c r="E28">
+        <v>1.003634371051806</v>
+      </c>
+      <c r="F28">
+        <v>1.003634371051806</v>
+      </c>
+      <c r="G28">
+        <v>0.9964553581524155</v>
+      </c>
+      <c r="H28">
+        <v>1.0013628942925</v>
+      </c>
+      <c r="I28">
+        <v>0.9989096918483238</v>
+      </c>
+      <c r="J28">
+        <v>0.9945484421672099</v>
+      </c>
+      <c r="K28">
+        <v>1.003634371051806</v>
+      </c>
+      <c r="L28">
+        <v>0.9945484421672099</v>
+      </c>
+      <c r="M28">
+        <v>1.0013628942925</v>
+      </c>
+      <c r="N28">
+        <v>1.003634371051806</v>
+      </c>
+      <c r="O28">
+        <v>1.0013628942925</v>
+      </c>
+      <c r="P28">
+        <v>0.9979556682298552</v>
+      </c>
+      <c r="Q28">
+        <v>1.000095741241179</v>
+      </c>
+      <c r="R28">
+        <v>0.9998485691705055</v>
+      </c>
+      <c r="S28">
+        <v>0.9982466415498558</v>
+      </c>
+      <c r="T28">
+        <v>0.9998485691705055</v>
+      </c>
+      <c r="U28">
+        <v>0.9995935739253433</v>
+      </c>
+      <c r="V28">
+        <v>1.000401733350636</v>
+      </c>
+      <c r="W28">
+        <v>0.9996407269878005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.00166026145083</v>
+      </c>
+      <c r="D29">
+        <v>0.9990389041762278</v>
+      </c>
+      <c r="E29">
+        <v>1.002981854819309</v>
+      </c>
+      <c r="F29">
+        <v>1.002981854819309</v>
+      </c>
+      <c r="G29">
+        <v>0.9970917657466331</v>
+      </c>
+      <c r="H29">
+        <v>1.001118199187533</v>
+      </c>
+      <c r="I29">
+        <v>0.9991054459286387</v>
+      </c>
+      <c r="J29">
+        <v>0.9955272171742318</v>
+      </c>
+      <c r="K29">
+        <v>1.002981854819309</v>
+      </c>
+      <c r="L29">
+        <v>0.9955272171742318</v>
+      </c>
+      <c r="M29">
+        <v>1.001118199187533</v>
+      </c>
+      <c r="N29">
+        <v>1.002981854819309</v>
+      </c>
+      <c r="O29">
+        <v>1.001118199187533</v>
+      </c>
+      <c r="P29">
+        <v>0.9983227081808823</v>
+      </c>
+      <c r="Q29">
+        <v>1.00007855168188</v>
+      </c>
+      <c r="R29">
+        <v>0.9998757570603581</v>
+      </c>
+      <c r="S29">
+        <v>0.9985614401793308</v>
+      </c>
+      <c r="T29">
+        <v>0.9998757570603581</v>
+      </c>
+      <c r="U29">
+        <v>0.9996665438393255</v>
+      </c>
+      <c r="V29">
+        <v>1.000329606035322</v>
+      </c>
+      <c r="W29">
+        <v>0.9997052309588671</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.000938075327459</v>
+      </c>
+      <c r="D30">
+        <v>0.9994569647833015</v>
+      </c>
+      <c r="E30">
+        <v>1.001684798760866</v>
+      </c>
+      <c r="F30">
+        <v>1.001684798760866</v>
+      </c>
+      <c r="G30">
+        <v>0.9983568004850546</v>
+      </c>
+      <c r="H30">
+        <v>1.000631799155851</v>
+      </c>
+      <c r="I30">
+        <v>0.999494561725092</v>
+      </c>
+      <c r="J30">
+        <v>0.9974728032139387</v>
+      </c>
+      <c r="K30">
+        <v>1.001684798760866</v>
+      </c>
+      <c r="L30">
+        <v>0.9974728032139387</v>
+      </c>
+      <c r="M30">
+        <v>1.000631799155851</v>
+      </c>
+      <c r="N30">
+        <v>1.001684798760866</v>
+      </c>
+      <c r="O30">
+        <v>1.000631799155851</v>
+      </c>
+      <c r="P30">
+        <v>0.9990523011848951</v>
+      </c>
+      <c r="Q30">
+        <v>1.000044381969576</v>
+      </c>
+      <c r="R30">
+        <v>0.9999298003768855</v>
+      </c>
+      <c r="S30">
+        <v>0.9991871890510305</v>
+      </c>
+      <c r="T30">
+        <v>0.9999298003768855</v>
+      </c>
+      <c r="U30">
+        <v>0.9998115914784895</v>
+      </c>
+      <c r="V30">
+        <v>1.000186232934965</v>
+      </c>
+      <c r="W30">
+        <v>0.9998334503259269</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.001008827302941</v>
+      </c>
+      <c r="D31">
+        <v>0.9994160087037717</v>
+      </c>
+      <c r="E31">
+        <v>1.001811874816804</v>
+      </c>
+      <c r="F31">
+        <v>1.001811874816804</v>
+      </c>
+      <c r="G31">
+        <v>0.9982328616561165</v>
+      </c>
+      <c r="H31">
+        <v>1.000679456964481</v>
+      </c>
+      <c r="I31">
+        <v>0.9994564362315043</v>
+      </c>
+      <c r="J31">
+        <v>0.997282187066219</v>
+      </c>
+      <c r="K31">
+        <v>1.001811874816804</v>
+      </c>
+      <c r="L31">
+        <v>0.997282187066219</v>
+      </c>
+      <c r="M31">
+        <v>1.000679456964481</v>
+      </c>
+      <c r="N31">
+        <v>1.001811874816804</v>
+      </c>
+      <c r="O31">
+        <v>1.000679456964481</v>
+      </c>
+      <c r="P31">
+        <v>0.9989808220153498</v>
+      </c>
+      <c r="Q31">
+        <v>1.000047732834126</v>
+      </c>
+      <c r="R31">
+        <v>0.999924506282501</v>
+      </c>
+      <c r="S31">
+        <v>0.9991258842448237</v>
+      </c>
+      <c r="T31">
+        <v>0.999924506282501</v>
+      </c>
+      <c r="U31">
+        <v>0.9997973818878186</v>
+      </c>
+      <c r="V31">
+        <v>1.000200280473616</v>
+      </c>
+      <c r="W31">
+        <v>0.9998208887132897</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.002593195616438</v>
+      </c>
+      <c r="D32">
+        <v>0.9984988458904106</v>
+      </c>
+      <c r="E32">
+        <v>1.00465741479452</v>
+      </c>
+      <c r="F32">
+        <v>1.00465741479452</v>
+      </c>
+      <c r="G32">
+        <v>0.9954575716438357</v>
+      </c>
+      <c r="H32">
+        <v>1.001746537808219</v>
+      </c>
+      <c r="I32">
+        <v>0.9986027793150688</v>
+      </c>
+      <c r="J32">
+        <v>0.9930138753424653</v>
+      </c>
+      <c r="K32">
+        <v>1.00465741479452</v>
+      </c>
+      <c r="L32">
+        <v>0.9930138753424653</v>
+      </c>
+      <c r="M32">
+        <v>1.001746537808219</v>
+      </c>
+      <c r="N32">
+        <v>1.00465741479452</v>
+      </c>
+      <c r="O32">
+        <v>1.001746537808219</v>
+      </c>
+      <c r="P32">
+        <v>0.9973802065753422</v>
+      </c>
+      <c r="Q32">
+        <v>1.000122691849315</v>
+      </c>
+      <c r="R32">
+        <v>0.9998059426484017</v>
+      </c>
+      <c r="S32">
+        <v>0.9977530863470316</v>
+      </c>
+      <c r="T32">
+        <v>0.9998059426484017</v>
+      </c>
+      <c r="U32">
+        <v>0.9994791684589039</v>
+      </c>
+      <c r="V32">
+        <v>1.000514817726027</v>
+      </c>
+      <c r="W32">
+        <v>0.9995395947773972</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.006381368421053</v>
+      </c>
+      <c r="D33">
+        <v>0.9963059457894736</v>
+      </c>
+      <c r="E33">
+        <v>1.011461047368421</v>
+      </c>
+      <c r="F33">
+        <v>1.011461047368421</v>
+      </c>
+      <c r="G33">
+        <v>0.9888219489473685</v>
+      </c>
+      <c r="H33">
+        <v>1.004297889473684</v>
+      </c>
+      <c r="I33">
+        <v>0.9965616873684212</v>
+      </c>
+      <c r="J33">
+        <v>0.9828084389473685</v>
+      </c>
+      <c r="K33">
+        <v>1.011461047368421</v>
+      </c>
+      <c r="L33">
+        <v>0.9828084389473685</v>
+      </c>
+      <c r="M33">
+        <v>1.004297889473684</v>
+      </c>
+      <c r="N33">
+        <v>1.011461047368421</v>
+      </c>
+      <c r="O33">
+        <v>1.004297889473684</v>
+      </c>
+      <c r="P33">
+        <v>0.9935531642105262</v>
+      </c>
+      <c r="Q33">
+        <v>1.000301917631579</v>
+      </c>
+      <c r="R33">
+        <v>0.9995224585964912</v>
+      </c>
+      <c r="S33">
+        <v>0.9944707580701753</v>
+      </c>
+      <c r="T33">
+        <v>0.9995224585964912</v>
+      </c>
+      <c r="U33">
+        <v>0.9987183303947369</v>
+      </c>
+      <c r="V33">
+        <v>1.001266873789474</v>
+      </c>
+      <c r="W33">
+        <v>0.9988670269736841</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.002882802631579</v>
+      </c>
+      <c r="D34">
+        <v>0.9983311968421054</v>
+      </c>
+      <c r="E34">
+        <v>1.005177570526316</v>
+      </c>
+      <c r="F34">
+        <v>1.005177570526316</v>
+      </c>
+      <c r="G34">
+        <v>0.994950272631579</v>
+      </c>
+      <c r="H34">
+        <v>1.001941594736842</v>
+      </c>
+      <c r="I34">
+        <v>0.998446724736842</v>
+      </c>
+      <c r="J34">
+        <v>0.9922336547368423</v>
+      </c>
+      <c r="K34">
+        <v>1.005177570526316</v>
+      </c>
+      <c r="L34">
+        <v>0.9922336547368423</v>
+      </c>
+      <c r="M34">
+        <v>1.001941594736842</v>
+      </c>
+      <c r="N34">
+        <v>1.005177570526316</v>
+      </c>
+      <c r="O34">
+        <v>1.001941594736842</v>
+      </c>
+      <c r="P34">
+        <v>0.9970876247368421</v>
+      </c>
+      <c r="Q34">
+        <v>1.000136395789474</v>
+      </c>
+      <c r="R34">
+        <v>0.9997842733333334</v>
+      </c>
+      <c r="S34">
+        <v>0.9975021487719298</v>
+      </c>
+      <c r="T34">
+        <v>0.9997842733333334</v>
+      </c>
+      <c r="U34">
+        <v>0.9994210042105265</v>
+      </c>
+      <c r="V34">
+        <v>1.000572317473684</v>
+      </c>
+      <c r="W34">
+        <v>0.9994881764473684</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.003639272026993</v>
+      </c>
+      <c r="D35">
+        <v>0.9978933035446623</v>
+      </c>
+      <c r="E35">
+        <v>1.006536153436081</v>
+      </c>
+      <c r="F35">
+        <v>1.006536153436081</v>
+      </c>
+      <c r="G35">
+        <v>0.9936252232312688</v>
+      </c>
+      <c r="H35">
+        <v>1.002451051442603</v>
+      </c>
+      <c r="I35">
+        <v>0.998039149642781</v>
+      </c>
+      <c r="J35">
+        <v>0.9901957503467068</v>
+      </c>
+      <c r="K35">
+        <v>1.006536153436081</v>
+      </c>
+      <c r="L35">
+        <v>0.9901957503467068</v>
+      </c>
+      <c r="M35">
+        <v>1.002451051442603</v>
+      </c>
+      <c r="N35">
+        <v>1.006536153436081</v>
+      </c>
+      <c r="O35">
+        <v>1.002451051442603</v>
+      </c>
+      <c r="P35">
+        <v>0.9963234008946551</v>
+      </c>
+      <c r="Q35">
+        <v>1.000172177493633</v>
+      </c>
+      <c r="R35">
+        <v>0.9997276517417971</v>
+      </c>
+      <c r="S35">
+        <v>0.9968467017779908</v>
+      </c>
+      <c r="T35">
+        <v>0.9997276517417971</v>
+      </c>
+      <c r="U35">
+        <v>0.9992690646925134</v>
+      </c>
+      <c r="V35">
+        <v>1.000722482441227</v>
+      </c>
+      <c r="W35">
+        <v>0.9993538693892126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000000428078016</v>
+      </c>
+      <c r="D36">
+        <v>0.9999997514288503</v>
+      </c>
+      <c r="E36">
+        <v>1.000000769941393</v>
+      </c>
+      <c r="F36">
+        <v>1.000000769941393</v>
+      </c>
+      <c r="G36">
+        <v>0.9999992494895125</v>
+      </c>
+      <c r="H36">
+        <v>1.00000029078186</v>
+      </c>
+      <c r="I36">
+        <v>0.9999997702846826</v>
+      </c>
+      <c r="J36">
+        <v>0.9999988465396503</v>
+      </c>
+      <c r="K36">
+        <v>1.000000769941393</v>
+      </c>
+      <c r="L36">
+        <v>0.9999988465396503</v>
+      </c>
+      <c r="M36">
+        <v>1.00000029078186</v>
+      </c>
+      <c r="N36">
+        <v>1.000000769941393</v>
+      </c>
+      <c r="O36">
+        <v>1.00000029078186</v>
+      </c>
+      <c r="P36">
+        <v>0.9999995686607551</v>
+      </c>
+      <c r="Q36">
+        <v>1.000000021105355</v>
+      </c>
+      <c r="R36">
+        <v>0.9999999690876343</v>
+      </c>
+      <c r="S36">
+        <v>0.9999996295834536</v>
+      </c>
+      <c r="T36">
+        <v>0.9999999690876343</v>
+      </c>
+      <c r="U36">
+        <v>0.9999999146729384</v>
+      </c>
+      <c r="V36">
+        <v>1.000000085726629</v>
+      </c>
+      <c r="W36">
+        <v>0.9999999246657281</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000009066977487</v>
+      </c>
+      <c r="D37">
+        <v>0.9999947505900819</v>
+      </c>
+      <c r="E37">
+        <v>1.000016284988737</v>
+      </c>
+      <c r="F37">
+        <v>1.000016284988737</v>
+      </c>
+      <c r="G37">
+        <v>0.9999841171960576</v>
+      </c>
+      <c r="H37">
+        <v>1.000006109077358</v>
+      </c>
+      <c r="I37">
+        <v>0.9999951153786418</v>
+      </c>
+      <c r="J37">
+        <v>0.9999755738226319</v>
+      </c>
+      <c r="K37">
+        <v>1.000016284988737</v>
+      </c>
+      <c r="L37">
+        <v>0.9999755738226319</v>
+      </c>
+      <c r="M37">
+        <v>1.000006109077358</v>
+      </c>
+      <c r="N37">
+        <v>1.000016284988737</v>
+      </c>
+      <c r="O37">
+        <v>1.000006109077358</v>
+      </c>
+      <c r="P37">
+        <v>0.9999908414499947</v>
+      </c>
+      <c r="Q37">
+        <v>1.00000042983372</v>
+      </c>
+      <c r="R37">
+        <v>0.9999993226295754</v>
+      </c>
+      <c r="S37">
+        <v>0.9999921444966905</v>
+      </c>
+      <c r="T37">
+        <v>0.9999993226295754</v>
+      </c>
+      <c r="U37">
+        <v>0.9999981796197019</v>
+      </c>
+      <c r="V37">
+        <v>1.000001800693509</v>
+      </c>
+      <c r="W37">
+        <v>0.999998390888544</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000031923827634</v>
+      </c>
+      <c r="D38">
+        <v>0.9999815167960953</v>
+      </c>
+      <c r="E38">
+        <v>1.000057330592725</v>
+      </c>
+      <c r="F38">
+        <v>1.000057330592725</v>
+      </c>
+      <c r="G38">
+        <v>0.9999440824092913</v>
+      </c>
+      <c r="H38">
+        <v>1.000021504195668</v>
+      </c>
+      <c r="I38">
+        <v>0.9999828034641106</v>
+      </c>
+      <c r="J38">
+        <v>0.9999140037178514</v>
+      </c>
+      <c r="K38">
+        <v>1.000057330592725</v>
+      </c>
+      <c r="L38">
+        <v>0.9999140037178514</v>
+      </c>
+      <c r="M38">
+        <v>1.000021504195668</v>
+      </c>
+      <c r="N38">
+        <v>1.000057330592725</v>
+      </c>
+      <c r="O38">
+        <v>1.000021504195668</v>
+      </c>
+      <c r="P38">
+        <v>0.9999677539567595</v>
+      </c>
+      <c r="Q38">
+        <v>1.000001510495881</v>
+      </c>
+      <c r="R38">
+        <v>0.9999976128354149</v>
+      </c>
+      <c r="S38">
+        <v>0.9999723415698715</v>
+      </c>
+      <c r="T38">
+        <v>0.9999976128354149</v>
+      </c>
+      <c r="U38">
+        <v>0.999993588825585</v>
+      </c>
+      <c r="V38">
+        <v>1.000006337179013</v>
+      </c>
+      <c r="W38">
+        <v>0.9999943336498804</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.000074785590768</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9999567088526379</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.000134315796392</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.000134315796392</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9998690016907616</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.000050370149997</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9999597076312418</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9997985361809645</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.000134315796392</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9997985361809645</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.000050370149997</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.000134315796392</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.000050370149997</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9999244531654806</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.000003539501317</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999944073757844</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9999352050611997</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9999944073757844</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>0.9999849827449978</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>1.000014849355277</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>0.999986724505345</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.001012009516553</v>
+      </c>
+      <c r="D40">
+        <v>0.9994141634065696</v>
+      </c>
+      <c r="E40">
+        <v>1.0018175943285</v>
+      </c>
+      <c r="F40">
+        <v>1.0018175943285</v>
+      </c>
+      <c r="G40">
+        <v>0.998227286377015</v>
+      </c>
+      <c r="H40">
+        <v>1.000681601033792</v>
+      </c>
+      <c r="I40">
+        <v>0.9994547232932056</v>
+      </c>
+      <c r="J40">
+        <v>0.9972736122146102</v>
+      </c>
+      <c r="K40">
+        <v>1.0018175943285</v>
+      </c>
+      <c r="L40">
+        <v>0.9972736122146102</v>
+      </c>
+      <c r="M40">
+        <v>1.000681601033792</v>
+      </c>
+      <c r="N40">
+        <v>1.0018175943285</v>
+      </c>
+      <c r="O40">
+        <v>1.000681601033792</v>
+      </c>
+      <c r="P40">
+        <v>0.998977606624201</v>
+      </c>
+      <c r="Q40">
+        <v>1.000047882220181</v>
+      </c>
+      <c r="R40">
+        <v>0.9999242691923008</v>
+      </c>
+      <c r="S40">
+        <v>0.9991231255516572</v>
+      </c>
+      <c r="T40">
+        <v>0.9999242691923008</v>
+      </c>
+      <c r="U40">
+        <v>0.9997967427458681</v>
+      </c>
+      <c r="V40">
+        <v>1.000200913062395</v>
+      </c>
+      <c r="W40">
+        <v>0.9998203239005047</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9984373021014917</v>
+      </c>
+      <c r="D41">
+        <v>1.000904618232493</v>
+      </c>
+      <c r="E41">
+        <v>0.9971933635000751</v>
+      </c>
+      <c r="F41">
+        <v>0.9971933635000751</v>
+      </c>
+      <c r="G41">
+        <v>1.002737336636505</v>
+      </c>
+      <c r="H41">
+        <v>0.9989475136670434</v>
+      </c>
+      <c r="I41">
+        <v>1.000841992630604</v>
+      </c>
+      <c r="J41">
+        <v>1.004209956666529</v>
+      </c>
+      <c r="K41">
+        <v>0.9971933635000751</v>
+      </c>
+      <c r="L41">
+        <v>1.004209956666529</v>
+      </c>
+      <c r="M41">
+        <v>0.9989475136670434</v>
+      </c>
+      <c r="N41">
+        <v>0.9971933635000751</v>
+      </c>
+      <c r="O41">
+        <v>0.9989475136670434</v>
+      </c>
+      <c r="P41">
+        <v>1.001578735166786</v>
+      </c>
+      <c r="Q41">
+        <v>0.9999260659497681</v>
+      </c>
+      <c r="R41">
+        <v>1.000116944611216</v>
+      </c>
+      <c r="S41">
+        <v>1.001354029522022</v>
+      </c>
+      <c r="T41">
+        <v>1.000116944611216</v>
+      </c>
+      <c r="U41">
+        <v>1.000313863016535</v>
+      </c>
+      <c r="V41">
+        <v>0.9996897631132431</v>
+      </c>
+      <c r="W41">
+        <v>1.000277449637723</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.000467643479772</v>
+      </c>
+      <c r="D42">
+        <v>0.9997292850371712</v>
+      </c>
+      <c r="E42">
+        <v>1.000839900876806</v>
+      </c>
+      <c r="F42">
+        <v>1.000839900876806</v>
+      </c>
+      <c r="G42">
+        <v>0.9991808415230028</v>
+      </c>
+      <c r="H42">
+        <v>1.000314967173478</v>
+      </c>
+      <c r="I42">
+        <v>0.9997480355204853</v>
+      </c>
+      <c r="J42">
+        <v>0.9987401567420414</v>
+      </c>
+      <c r="K42">
+        <v>1.000839900876806</v>
+      </c>
+      <c r="L42">
+        <v>0.9987401567420414</v>
+      </c>
+      <c r="M42">
+        <v>1.000314967173478</v>
+      </c>
+      <c r="N42">
+        <v>1.000839900876806</v>
+      </c>
+      <c r="O42">
+        <v>1.000314967173478</v>
+      </c>
+      <c r="P42">
+        <v>0.9995275619577595</v>
+      </c>
+      <c r="Q42">
+        <v>1.000022126105324</v>
+      </c>
+      <c r="R42">
+        <v>0.9999650082641084</v>
+      </c>
+      <c r="S42">
+        <v>0.99959480298423</v>
+      </c>
+      <c r="T42">
+        <v>0.9999650082641084</v>
+      </c>
+      <c r="U42">
+        <v>0.999906077457374</v>
+      </c>
+      <c r="V42">
+        <v>1.00009284214126</v>
+      </c>
+      <c r="W42">
+        <v>0.9999169746907792</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CopperA-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/CopperA-HW45.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,68 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -630,130 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -761,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000186208984573</v>
+        <v>1.000028763077269</v>
       </c>
       <c r="D3">
-        <v>0.9997206876208957</v>
+        <v>0.999983348681753</v>
       </c>
       <c r="E3">
-        <v>1.000069830677158</v>
+        <v>1.000051660324414</v>
       </c>
       <c r="F3">
-        <v>1.000186208984573</v>
+        <v>1.000051660324414</v>
       </c>
       <c r="G3">
-        <v>0.9999399815199737</v>
+        <v>0.9999496156024215</v>
       </c>
       <c r="H3">
-        <v>1.000103678526781</v>
+        <v>1.000019374689356</v>
       </c>
       <c r="I3">
-        <v>1.000186208984573</v>
+        <v>0.9999845032781263</v>
       </c>
       <c r="J3">
-        <v>0.9997206876208957</v>
+        <v>0.9999225111968943</v>
       </c>
       <c r="K3">
-        <v>0.9999441384978585</v>
+        <v>1.000051660324414</v>
       </c>
       <c r="L3">
-        <v>1.000069830677158</v>
+        <v>0.9999225111968943</v>
       </c>
       <c r="M3">
-        <v>0.9998183885117414</v>
+        <v>1.000019374689356</v>
       </c>
       <c r="N3">
-        <v>1.000186208984573</v>
+        <v>1.000051660324414</v>
       </c>
       <c r="O3">
-        <v>1.000069830677158</v>
+        <v>1.000019374689356</v>
       </c>
       <c r="P3">
-        <v>0.9998952591490268</v>
+        <v>0.9999709429431251</v>
       </c>
       <c r="Q3">
-        <v>1.000004906098566</v>
+        <v>1.000001361685554</v>
       </c>
       <c r="R3">
-        <v>0.9999922424275421</v>
+        <v>0.999997848736888</v>
       </c>
       <c r="S3">
-        <v>0.9999101666060092</v>
+        <v>0.9999750781893343</v>
       </c>
       <c r="T3">
-        <v>0.9999922424275421</v>
+        <v>0.999997848736888</v>
       </c>
       <c r="U3">
-        <v>0.99997917720065</v>
+        <v>0.9999942237231043</v>
       </c>
       <c r="V3">
-        <v>1.000020583557435</v>
+        <v>1.000005711043366</v>
       </c>
       <c r="W3">
-        <v>0.9999815931270173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43">
+        <v>0.9999948939424487</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -832,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000359473082206</v>
+        <v>1.001012009516553</v>
       </c>
       <c r="D4">
-        <v>0.999460791564699</v>
+        <v>0.9994141634065696</v>
       </c>
       <c r="E4">
-        <v>1.000134804407077</v>
+        <v>1.0018175943285</v>
       </c>
       <c r="F4">
-        <v>1.000359473082206</v>
+        <v>1.0018175943285</v>
       </c>
       <c r="G4">
-        <v>0.9998841381573534</v>
+        <v>0.998227286377015</v>
       </c>
       <c r="H4">
-        <v>1.000200151036456</v>
+        <v>1.000681601033792</v>
       </c>
       <c r="I4">
-        <v>1.000359473082206</v>
+        <v>0.9994547232932056</v>
       </c>
       <c r="J4">
-        <v>0.999460791564699</v>
+        <v>0.9972736122146102</v>
       </c>
       <c r="K4">
-        <v>0.9998921588438037</v>
+        <v>1.0018175943285</v>
       </c>
       <c r="L4">
-        <v>1.000134804407077</v>
+        <v>0.9972736122146102</v>
       </c>
       <c r="M4">
-        <v>0.9996494018184212</v>
+        <v>1.000681601033792</v>
       </c>
       <c r="N4">
-        <v>1.000359473082206</v>
+        <v>1.0018175943285</v>
       </c>
       <c r="O4">
-        <v>1.000134804407077</v>
+        <v>1.000681601033792</v>
       </c>
       <c r="P4">
-        <v>0.9997977979858883</v>
+        <v>0.998977606624201</v>
       </c>
       <c r="Q4">
-        <v>1.000009471282215</v>
+        <v>1.000047882220181</v>
       </c>
       <c r="R4">
-        <v>0.9999850230179942</v>
+        <v>0.9999242691923008</v>
       </c>
       <c r="S4">
-        <v>0.9998265780430433</v>
+        <v>0.9991231255516572</v>
       </c>
       <c r="T4">
-        <v>0.9999850230179942</v>
+        <v>0.9999242691923008</v>
       </c>
       <c r="U4">
-        <v>0.9999598018028339</v>
+        <v>0.9997967427458681</v>
       </c>
       <c r="V4">
-        <v>1.000039736058708</v>
+        <v>1.000200913062395</v>
       </c>
       <c r="W4">
-        <v>0.9999644654146367</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43">
+        <v>0.9998203239005047</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -903,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000688881807163</v>
+        <v>1.001109469128243</v>
       </c>
       <c r="D5">
-        <v>0.9989666731737401</v>
+        <v>0.9993577481700296</v>
       </c>
       <c r="E5">
-        <v>1.000258336708725</v>
+        <v>1.001992625634006</v>
       </c>
       <c r="F5">
-        <v>1.000688881807163</v>
+        <v>1.001992625634006</v>
       </c>
       <c r="G5">
-        <v>0.9997779603091819</v>
+        <v>0.9980565745605183</v>
       </c>
       <c r="H5">
-        <v>1.000383564679916</v>
+        <v>1.000747235057641</v>
       </c>
       <c r="I5">
-        <v>1.000688881807163</v>
+        <v>0.9994022128602308</v>
       </c>
       <c r="J5">
-        <v>0.9989666731737401</v>
+        <v>0.9970110614048973</v>
       </c>
       <c r="K5">
-        <v>0.99979333486577</v>
+        <v>1.001992625634006</v>
       </c>
       <c r="L5">
-        <v>1.000258336708725</v>
+        <v>0.9970110614048973</v>
       </c>
       <c r="M5">
-        <v>0.9993281203251592</v>
+        <v>1.000747235057641</v>
       </c>
       <c r="N5">
-        <v>1.000688881807163</v>
+        <v>1.001992625634006</v>
       </c>
       <c r="O5">
-        <v>1.000258336708725</v>
+        <v>1.000747235057641</v>
       </c>
       <c r="P5">
-        <v>0.9996125049412327</v>
+        <v>0.9988791482312689</v>
       </c>
       <c r="Q5">
-        <v>1.000018148508953</v>
+        <v>1.000052491613835</v>
       </c>
       <c r="R5">
-        <v>0.9999712972298761</v>
+        <v>0.9999169740321814</v>
       </c>
       <c r="S5">
-        <v>0.999667656730549</v>
+        <v>0.9990386815441892</v>
       </c>
       <c r="T5">
-        <v>0.9999712972298761</v>
+        <v>0.9999169740321814</v>
       </c>
       <c r="U5">
-        <v>0.9999229629997025</v>
+        <v>0.9997771675666435</v>
       </c>
       <c r="V5">
-        <v>1.000076146761194</v>
+        <v>1.000220259180116</v>
       </c>
       <c r="W5">
-        <v>0.9999319010722975</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43">
+        <v>0.9998030202341508</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -974,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.001010372281524</v>
+        <v>1.003639272026993</v>
       </c>
       <c r="D6">
-        <v>0.9984844447626824</v>
+        <v>0.9978933035446623</v>
       </c>
       <c r="E6">
-        <v>1.000378894254865</v>
+        <v>1.006536153436081</v>
       </c>
       <c r="F6">
-        <v>1.001010372281524</v>
+        <v>1.006536153436081</v>
       </c>
       <c r="G6">
-        <v>0.9996743394628689</v>
+        <v>0.9936252232312688</v>
       </c>
       <c r="H6">
-        <v>1.000562567683283</v>
+        <v>1.002451051442603</v>
       </c>
       <c r="I6">
-        <v>1.001010372281524</v>
+        <v>0.998039149642781</v>
       </c>
       <c r="J6">
-        <v>0.9984844447626824</v>
+        <v>0.9901957503467068</v>
       </c>
       <c r="K6">
-        <v>0.9996968872792166</v>
+        <v>1.006536153436081</v>
       </c>
       <c r="L6">
-        <v>1.000378894254865</v>
+        <v>0.9901957503467068</v>
       </c>
       <c r="M6">
-        <v>0.9990145636885546</v>
+        <v>1.002451051442603</v>
       </c>
       <c r="N6">
-        <v>1.001010372281524</v>
+        <v>1.006536153436081</v>
       </c>
       <c r="O6">
-        <v>1.000378894254865</v>
+        <v>1.002451051442603</v>
       </c>
       <c r="P6">
-        <v>0.9994316695087735</v>
+        <v>0.9963234008946551</v>
       </c>
       <c r="Q6">
-        <v>1.000026616858867</v>
+        <v>1.000172177493633</v>
       </c>
       <c r="R6">
-        <v>0.9999579037663571</v>
+        <v>0.9997276517417971</v>
       </c>
       <c r="S6">
-        <v>0.9995125594934718</v>
+        <v>0.9968467017779908</v>
       </c>
       <c r="T6">
-        <v>0.9999579037663571</v>
+        <v>0.9997276517417971</v>
       </c>
       <c r="U6">
-        <v>0.9998870126904851</v>
+        <v>0.9992690646925134</v>
       </c>
       <c r="V6">
-        <v>1.000111684608693</v>
+        <v>1.000722482441227</v>
       </c>
       <c r="W6">
-        <v>0.9999001204584823</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43">
+        <v>0.9993538693892126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1045,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000017288633887</v>
+        <v>1.000118869535809</v>
       </c>
       <c r="D7">
-        <v>0.9999740685623077</v>
+        <v>0.9999311874932012</v>
       </c>
       <c r="E7">
-        <v>1.000006485193073</v>
+        <v>1.000213493762174</v>
       </c>
       <c r="F7">
-        <v>1.000017288633887</v>
+        <v>1.000213493762174</v>
       </c>
       <c r="G7">
-        <v>0.9999944271888285</v>
+        <v>0.9997917774323375</v>
       </c>
       <c r="H7">
-        <v>1.000009625438184</v>
+        <v>1.000080062435078</v>
       </c>
       <c r="I7">
-        <v>1.000017288633887</v>
+        <v>0.9999359536232721</v>
       </c>
       <c r="J7">
-        <v>0.9999740685623077</v>
+        <v>0.9996797608566306</v>
       </c>
       <c r="K7">
-        <v>0.9999948147317129</v>
+        <v>1.000213493762174</v>
       </c>
       <c r="L7">
-        <v>1.000006485193073</v>
+        <v>0.9996797608566306</v>
       </c>
       <c r="M7">
-        <v>0.99998313865546</v>
+        <v>1.000080062435078</v>
       </c>
       <c r="N7">
-        <v>1.000017288633887</v>
+        <v>1.000213493762174</v>
       </c>
       <c r="O7">
-        <v>1.000006485193073</v>
+        <v>1.000080062435078</v>
       </c>
       <c r="P7">
-        <v>0.9999902768776904</v>
+        <v>0.9998799116458542</v>
       </c>
       <c r="Q7">
-        <v>1.000000456190951</v>
+        <v>1.00000562496414</v>
       </c>
       <c r="R7">
-        <v>0.9999992807964228</v>
+        <v>0.9999911056846275</v>
       </c>
       <c r="S7">
-        <v>0.9999916603147364</v>
+        <v>0.9998970035949699</v>
       </c>
       <c r="T7">
-        <v>0.9999992807964228</v>
+        <v>0.9999911056846275</v>
       </c>
       <c r="U7">
-        <v>0.9999980673945241</v>
+        <v>0.9999761261367709</v>
       </c>
       <c r="V7">
-        <v>1.000001911642397</v>
+        <v>1.000023599661852</v>
       </c>
       <c r="W7">
-        <v>0.9999982916995658</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43">
+        <v>0.9999788959466975</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1116,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000051660324414</v>
+        <v>1.000009066977487</v>
       </c>
       <c r="D8">
-        <v>0.9999225111968943</v>
+        <v>0.9999947505900819</v>
       </c>
       <c r="E8">
-        <v>1.000019374689356</v>
+        <v>1.000016284988737</v>
       </c>
       <c r="F8">
-        <v>1.000051660324414</v>
+        <v>1.000016284988737</v>
       </c>
       <c r="G8">
-        <v>0.999983348681753</v>
+        <v>0.9999841171960576</v>
       </c>
       <c r="H8">
-        <v>1.000028763077269</v>
+        <v>1.000006109077358</v>
       </c>
       <c r="I8">
-        <v>1.000051660324414</v>
+        <v>0.9999951153786418</v>
       </c>
       <c r="J8">
-        <v>0.9999225111968943</v>
+        <v>0.9999755738226319</v>
       </c>
       <c r="K8">
-        <v>0.9999845032781263</v>
+        <v>1.000016284988737</v>
       </c>
       <c r="L8">
-        <v>1.000019374689356</v>
+        <v>0.9999755738226319</v>
       </c>
       <c r="M8">
-        <v>0.9999496156024215</v>
+        <v>1.000006109077358</v>
       </c>
       <c r="N8">
-        <v>1.000051660324414</v>
+        <v>1.000016284988737</v>
       </c>
       <c r="O8">
-        <v>1.000019374689356</v>
+        <v>1.000006109077358</v>
       </c>
       <c r="P8">
-        <v>0.9999709429431251</v>
+        <v>0.9999908414499947</v>
       </c>
       <c r="Q8">
-        <v>1.000001361685554</v>
+        <v>1.00000042983372</v>
       </c>
       <c r="R8">
-        <v>0.999997848736888</v>
+        <v>0.9999993226295754</v>
       </c>
       <c r="S8">
-        <v>0.9999750781893343</v>
+        <v>0.9999921444966905</v>
       </c>
       <c r="T8">
-        <v>0.999997848736888</v>
+        <v>0.9999993226295754</v>
       </c>
       <c r="U8">
-        <v>0.9999942237231043</v>
+        <v>0.9999981796197019</v>
       </c>
       <c r="V8">
-        <v>1.000005711043366</v>
+        <v>1.000001800693509</v>
       </c>
       <c r="W8">
-        <v>0.9999948939424487</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43">
+        <v>0.999998390888544</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1187,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000082205161108</v>
+        <v>1.000200151036456</v>
       </c>
       <c r="D9">
-        <v>0.9998766934598762</v>
+        <v>0.9998841381573534</v>
       </c>
       <c r="E9">
-        <v>1.000030829301082</v>
+        <v>1.000359473082206</v>
       </c>
       <c r="F9">
-        <v>1.000082205161108</v>
+        <v>1.000359473082206</v>
       </c>
       <c r="G9">
-        <v>0.9999735036490884</v>
+        <v>0.9996494018184214</v>
       </c>
       <c r="H9">
-        <v>1.000045770698834</v>
+        <v>1.000134804407077</v>
       </c>
       <c r="I9">
-        <v>1.000082205161108</v>
+        <v>0.9998921588438037</v>
       </c>
       <c r="J9">
-        <v>0.9998766934598762</v>
+        <v>0.999460791564699</v>
       </c>
       <c r="K9">
-        <v>0.9999753397303894</v>
+        <v>1.000359473082206</v>
       </c>
       <c r="L9">
-        <v>1.000030829301082</v>
+        <v>0.999460791564699</v>
       </c>
       <c r="M9">
-        <v>0.9999198253116479</v>
+        <v>1.000134804407077</v>
       </c>
       <c r="N9">
-        <v>1.000082205161108</v>
+        <v>1.000359473082206</v>
       </c>
       <c r="O9">
-        <v>1.000030829301082</v>
+        <v>1.000134804407077</v>
       </c>
       <c r="P9">
-        <v>0.9999537613804789</v>
+        <v>0.9997977979858883</v>
       </c>
       <c r="Q9">
-        <v>1.000002166475085</v>
+        <v>1.000009471282215</v>
       </c>
       <c r="R9">
-        <v>0.999996575974022</v>
+        <v>0.9999850230179942</v>
       </c>
       <c r="S9">
-        <v>0.9999603421366819</v>
+        <v>0.9998265780430433</v>
       </c>
       <c r="T9">
-        <v>0.999996575974022</v>
+        <v>0.9999850230179942</v>
       </c>
       <c r="U9">
-        <v>0.9999908078927886</v>
+        <v>0.9999598018028339</v>
       </c>
       <c r="V9">
-        <v>1.000009087346453</v>
+        <v>1.000039736058708</v>
       </c>
       <c r="W9">
-        <v>0.9999918745766384</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43">
+        <v>0.9999644654146368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1258,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.00016811691652</v>
+        <v>1.003693304239008</v>
       </c>
       <c r="D10">
-        <v>0.9997478261653223</v>
+        <v>0.9978620252543446</v>
       </c>
       <c r="E10">
-        <v>1.000063046491369</v>
+        <v>1.006633196105717</v>
       </c>
       <c r="F10">
-        <v>1.00016811691652</v>
+        <v>1.006633196105717</v>
       </c>
       <c r="G10">
-        <v>0.9999458134647451</v>
+        <v>0.993530576112009</v>
       </c>
       <c r="H10">
-        <v>1.000093605782879</v>
+        <v>1.002487442235624</v>
       </c>
       <c r="I10">
-        <v>1.00016811691652</v>
+        <v>0.9980100355472129</v>
       </c>
       <c r="J10">
-        <v>0.9997478261653223</v>
+        <v>0.9900501852418357</v>
       </c>
       <c r="K10">
-        <v>0.9999495666344808</v>
+        <v>1.006633196105717</v>
       </c>
       <c r="L10">
-        <v>1.000063046491369</v>
+        <v>0.9900501852418357</v>
       </c>
       <c r="M10">
-        <v>0.9998360323739636</v>
+        <v>1.002487442235624</v>
       </c>
       <c r="N10">
-        <v>1.00016811691652</v>
+        <v>1.006633196105717</v>
       </c>
       <c r="O10">
-        <v>1.000063046491369</v>
+        <v>1.002487442235624</v>
       </c>
       <c r="P10">
-        <v>0.9999054363283456</v>
+        <v>0.9962688137387297</v>
       </c>
       <c r="Q10">
-        <v>1.000004429978057</v>
+        <v>1.000174733744984</v>
       </c>
       <c r="R10">
-        <v>0.9999929965244038</v>
+        <v>0.9997236078610587</v>
       </c>
       <c r="S10">
-        <v>0.9999188953738121</v>
+        <v>0.9967998842439346</v>
       </c>
       <c r="T10">
-        <v>0.9999929965244038</v>
+        <v>0.9997236078610587</v>
       </c>
       <c r="U10">
-        <v>0.9999812007594892</v>
+        <v>0.9992582122093803</v>
       </c>
       <c r="V10">
-        <v>1.000018583990895</v>
+        <v>1.000733208988648</v>
       </c>
       <c r="W10">
-        <v>0.9999833817900812</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43">
+        <v>0.9993442758714218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1329,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000302917153553</v>
+        <v>0.9994138156595807</v>
       </c>
       <c r="D11">
-        <v>0.9995456266098985</v>
+        <v>1.000339330117296</v>
       </c>
       <c r="E11">
-        <v>1.000113594503366</v>
+        <v>0.9989472048759357</v>
       </c>
       <c r="F11">
-        <v>1.000302917153553</v>
+        <v>0.9989472048759357</v>
       </c>
       <c r="G11">
-        <v>0.9999023672059842</v>
+        <v>1.001026802106402</v>
       </c>
       <c r="H11">
-        <v>1.000168661177907</v>
+        <v>0.9996052055752757</v>
       </c>
       <c r="I11">
-        <v>1.000302917153553</v>
+        <v>1.000315840690777</v>
       </c>
       <c r="J11">
-        <v>0.9995456266098985</v>
+        <v>1.001579196959314</v>
       </c>
       <c r="K11">
-        <v>0.9999091240252991</v>
+        <v>0.9989472048759357</v>
       </c>
       <c r="L11">
-        <v>1.000113594503366</v>
+        <v>1.001579196959314</v>
       </c>
       <c r="M11">
-        <v>0.9997045626413523</v>
+        <v>0.9996052055752757</v>
       </c>
       <c r="N11">
-        <v>1.000302917153553</v>
+        <v>0.9989472048759357</v>
       </c>
       <c r="O11">
-        <v>1.000113594503366</v>
+        <v>0.9996052055752757</v>
       </c>
       <c r="P11">
-        <v>0.9998296105566321</v>
+        <v>1.000592201267295</v>
       </c>
       <c r="Q11">
-        <v>1.000007980854675</v>
+        <v>0.9999722678462861</v>
       </c>
       <c r="R11">
-        <v>0.9999873794222723</v>
+        <v>1.000043869136842</v>
       </c>
       <c r="S11">
-        <v>0.9998538627730827</v>
+        <v>1.000507910883962</v>
       </c>
       <c r="T11">
-        <v>0.9999873794222723</v>
+        <v>1.000043869136842</v>
       </c>
       <c r="U11">
-        <v>0.9999661263682004</v>
+        <v>1.000117734381956</v>
       </c>
       <c r="V11">
-        <v>1.000033484525271</v>
+        <v>0.9998836284807517</v>
       </c>
       <c r="W11">
-        <v>0.9999700559775906</v>
-      </c>
-    </row>
-    <row r="12" spans="1:43">
+        <v>1.000104075194982</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1400,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.997080871821905</v>
+        <v>1.001075259610528</v>
       </c>
       <c r="D12">
-        <v>1.004378693169182</v>
+        <v>0.999377551873686</v>
       </c>
       <c r="E12">
-        <v>0.9989053244560648</v>
+        <v>1.001931182778946</v>
       </c>
       <c r="F12">
-        <v>0.997080871821905</v>
+        <v>1.001931182778946</v>
       </c>
       <c r="G12">
-        <v>1.000940869559735</v>
+        <v>0.9981164992000001</v>
       </c>
       <c r="H12">
-        <v>0.9983746681556275</v>
+        <v>1.000724192884213</v>
       </c>
       <c r="I12">
-        <v>0.997080871821905</v>
+        <v>0.9994206436631569</v>
       </c>
       <c r="J12">
-        <v>1.004378693169182</v>
+        <v>0.9971032230210519</v>
       </c>
       <c r="K12">
-        <v>1.000875731819619</v>
+        <v>1.001931182778946</v>
       </c>
       <c r="L12">
-        <v>0.9989053244560648</v>
+        <v>0.9971032230210519</v>
       </c>
       <c r="M12">
-        <v>1.002847057051159</v>
+        <v>1.000724192884213</v>
       </c>
       <c r="N12">
-        <v>0.997080871821905</v>
+        <v>1.001931182778946</v>
       </c>
       <c r="O12">
-        <v>0.9989053244560648</v>
+        <v>1.000724192884213</v>
       </c>
       <c r="P12">
-        <v>1.001642008812623</v>
+        <v>0.9989137079526323</v>
       </c>
       <c r="Q12">
-        <v>0.9999230970079002</v>
+        <v>1.000050872378949</v>
       </c>
       <c r="R12">
-        <v>1.000121629815717</v>
+        <v>0.9999195328947369</v>
       </c>
       <c r="S12">
-        <v>1.001408295728327</v>
+        <v>0.9990683225929836</v>
       </c>
       <c r="T12">
-        <v>1.000121629815717</v>
+        <v>0.9999195328947369</v>
       </c>
       <c r="U12">
-        <v>1.000326439751722</v>
+        <v>0.9997840376394742</v>
       </c>
       <c r="V12">
-        <v>0.9996773261657583</v>
+        <v>1.000213466667369</v>
       </c>
       <c r="W12">
-        <v>1.00028856756117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43">
+        <v>0.9998090932394743</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1471,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9992430526738371</v>
+        <v>0.9992736232045479</v>
       </c>
       <c r="D13">
-        <v>1.001135415294444</v>
+        <v>1.000420485897634</v>
       </c>
       <c r="E13">
-        <v>0.9997161461140692</v>
+        <v>0.9986954120932069</v>
       </c>
       <c r="F13">
-        <v>0.9992430526738371</v>
+        <v>0.9986954120932069</v>
       </c>
       <c r="G13">
-        <v>1.000243971537558</v>
+        <v>1.001272373719043</v>
       </c>
       <c r="H13">
-        <v>0.9995785444410302</v>
+        <v>0.9995107819716851</v>
       </c>
       <c r="I13">
-        <v>0.9992430526738371</v>
+        <v>1.000391374139881</v>
       </c>
       <c r="J13">
-        <v>1.001135415294444</v>
+        <v>1.001956879068114</v>
       </c>
       <c r="K13">
-        <v>1.00022707990357</v>
+        <v>0.9986954120932069</v>
       </c>
       <c r="L13">
-        <v>0.9997161461140692</v>
+        <v>1.001956879068114</v>
       </c>
       <c r="M13">
-        <v>1.000738253705005</v>
+        <v>0.9995107819716851</v>
       </c>
       <c r="N13">
-        <v>0.9992430526738371</v>
+        <v>0.9986954120932069</v>
       </c>
       <c r="O13">
-        <v>0.9997161461140692</v>
+        <v>0.9995107819716851</v>
       </c>
       <c r="P13">
-        <v>1.000425780704256</v>
+        <v>1.0007338305199</v>
       </c>
       <c r="Q13">
-        <v>0.9999800588258134</v>
+        <v>0.9999656339346598</v>
       </c>
       <c r="R13">
-        <v>1.00003153802745</v>
+        <v>1.000054357711002</v>
       </c>
       <c r="S13">
-        <v>1.00036517764869</v>
+        <v>1.000629382312478</v>
       </c>
       <c r="T13">
-        <v>1.00003153802745</v>
+        <v>1.000054357711002</v>
       </c>
       <c r="U13">
-        <v>1.000084646404977</v>
+        <v>1.00014588975766</v>
       </c>
       <c r="V13">
-        <v>0.9999163276587488</v>
+        <v>0.9998557942247694</v>
       </c>
       <c r="W13">
-        <v>1.000074826222948</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43">
+        <v>1.000128964008224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1542,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.008963382175617</v>
+        <v>1.006381</v>
       </c>
       <c r="D14">
-        <v>0.9865549385046092</v>
+        <v>0.9963061799999997</v>
       </c>
       <c r="E14">
-        <v>1.003361267065429</v>
+        <v>1.011460300000001</v>
       </c>
       <c r="F14">
-        <v>1.008963382175617</v>
+        <v>1.011460300000001</v>
       </c>
       <c r="G14">
-        <v>0.9971109779538611</v>
+        <v>0.9888226500000015</v>
       </c>
       <c r="H14">
-        <v>1.004990682548483</v>
+        <v>1.004297600000001</v>
       </c>
       <c r="I14">
-        <v>1.008963382175617</v>
+        <v>0.9965619000000017</v>
       </c>
       <c r="J14">
-        <v>0.9865549385046092</v>
+        <v>0.9828095100000005</v>
       </c>
       <c r="K14">
-        <v>0.9973109880794155</v>
+        <v>1.011460300000001</v>
       </c>
       <c r="L14">
-        <v>1.003361267065429</v>
+        <v>0.9828095100000005</v>
       </c>
       <c r="M14">
-        <v>0.9912579436694376</v>
+        <v>1.004297600000001</v>
       </c>
       <c r="N14">
-        <v>1.008963382175617</v>
+        <v>1.011460300000001</v>
       </c>
       <c r="O14">
-        <v>1.003361267065429</v>
+        <v>1.004297600000001</v>
       </c>
       <c r="P14">
-        <v>0.9949581027850192</v>
+        <v>0.9935535550000005</v>
       </c>
       <c r="Q14">
-        <v>1.000236122509645</v>
+        <v>1.00030189</v>
       </c>
       <c r="R14">
-        <v>0.9996265292485517</v>
+        <v>0.9995224700000005</v>
       </c>
       <c r="S14">
-        <v>0.9956757278412999</v>
+        <v>0.9944710966666669</v>
       </c>
       <c r="T14">
-        <v>0.9996265292485514</v>
+        <v>0.9995224700000005</v>
       </c>
       <c r="U14">
-        <v>0.9989976414248789</v>
+        <v>0.9987183975000002</v>
       </c>
       <c r="V14">
-        <v>1.000990789575026</v>
+        <v>1.001266778</v>
       </c>
       <c r="W14">
-        <v>0.9991139308827851</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43">
+        <v>0.9988670925000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1613,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.002400876334883</v>
+        <v>1.017017</v>
       </c>
       <c r="D15">
-        <v>0.9963986712933699</v>
+        <v>0.99014917</v>
       </c>
       <c r="E15">
-        <v>1.000900328585678</v>
+        <v>1.0305628</v>
       </c>
       <c r="F15">
-        <v>1.002400876334883</v>
+        <v>1.0305628</v>
       </c>
       <c r="G15">
-        <v>0.9992261583133633</v>
+        <v>0.97019181</v>
       </c>
       <c r="H15">
-        <v>1.001336784776232</v>
+        <v>1.0114611</v>
       </c>
       <c r="I15">
-        <v>1.002400876334883</v>
+        <v>0.9908311499999999</v>
       </c>
       <c r="J15">
-        <v>0.9963986712933699</v>
+        <v>0.95415576</v>
       </c>
       <c r="K15">
-        <v>0.9992797366366857</v>
+        <v>1.0305628</v>
       </c>
       <c r="L15">
-        <v>1.000900328585678</v>
+        <v>0.95415576</v>
       </c>
       <c r="M15">
-        <v>0.9976583992982574</v>
+        <v>1.0114611</v>
       </c>
       <c r="N15">
-        <v>1.002400876334883</v>
+        <v>1.0305628</v>
       </c>
       <c r="O15">
-        <v>1.000900328585678</v>
+        <v>1.0114611</v>
       </c>
       <c r="P15">
-        <v>0.9986494999395238</v>
+        <v>0.98280843</v>
       </c>
       <c r="Q15">
-        <v>1.00006324344952</v>
+        <v>1.000805135</v>
       </c>
       <c r="R15">
-        <v>0.999899958737977</v>
+        <v>0.9987265533333334</v>
       </c>
       <c r="S15">
-        <v>0.9988417193974702</v>
+        <v>0.9852553433333333</v>
       </c>
       <c r="T15">
-        <v>0.999899958737977</v>
+        <v>0.9987265533333334</v>
       </c>
       <c r="U15">
-        <v>0.9997315086318235</v>
+        <v>0.9965822075</v>
       </c>
       <c r="V15">
-        <v>1.000265382172435</v>
+        <v>1.003378326</v>
       </c>
       <c r="W15">
-        <v>0.9997626604780183</v>
-      </c>
-    </row>
-    <row r="16" spans="1:43">
+        <v>0.99697873625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1684,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000769941393</v>
+        <v>1.0063814</v>
       </c>
       <c r="D16">
-        <v>0.9999988465396502</v>
+        <v>0.9963059399999998</v>
       </c>
       <c r="E16">
-        <v>1.00000029078186</v>
+        <v>1.0114611</v>
       </c>
       <c r="F16">
-        <v>1.000000769941393</v>
+        <v>1.0114611</v>
       </c>
       <c r="G16">
-        <v>0.9999997514288503</v>
+        <v>0.98882193</v>
       </c>
       <c r="H16">
-        <v>1.000000428078016</v>
+        <v>1.0042979</v>
       </c>
       <c r="I16">
-        <v>1.000000769941393</v>
+        <v>0.9965616799999999</v>
       </c>
       <c r="J16">
-        <v>0.9999988465396502</v>
+        <v>0.98280841</v>
       </c>
       <c r="K16">
-        <v>0.9999997702846827</v>
+        <v>1.0114611</v>
       </c>
       <c r="L16">
-        <v>1.00000029078186</v>
+        <v>0.98280841</v>
       </c>
       <c r="M16">
-        <v>0.9999992494895125</v>
+        <v>1.0042979</v>
       </c>
       <c r="N16">
-        <v>1.000000769941393</v>
+        <v>1.0114611</v>
       </c>
       <c r="O16">
-        <v>1.00000029078186</v>
+        <v>1.0042979</v>
       </c>
       <c r="P16">
-        <v>0.999999568660755</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="Q16">
-        <v>1.000000021105355</v>
+        <v>1.00030192</v>
       </c>
       <c r="R16">
-        <v>0.9999999690876343</v>
+        <v>0.9995224700000001</v>
       </c>
       <c r="S16">
-        <v>0.9999996295834533</v>
+        <v>0.99447075</v>
       </c>
       <c r="T16">
-        <v>0.9999999690876343</v>
+        <v>0.9995224700000001</v>
       </c>
       <c r="U16">
-        <v>0.9999999146729384</v>
+        <v>0.9987183374999999</v>
       </c>
       <c r="V16">
-        <v>1.000000085726629</v>
+        <v>1.00126689</v>
       </c>
       <c r="W16">
-        <v>0.9999999246657281</v>
+        <v>0.9988670325</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1755,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000016284988737</v>
+        <v>1.0063816</v>
       </c>
       <c r="D17">
-        <v>0.9999755738226319</v>
+        <v>0.99630582</v>
       </c>
       <c r="E17">
-        <v>1.000006109077357</v>
+        <v>1.0114614</v>
       </c>
       <c r="F17">
-        <v>1.000016284988737</v>
+        <v>1.0114614</v>
       </c>
       <c r="G17">
-        <v>0.999994750590082</v>
+        <v>0.98882157</v>
       </c>
       <c r="H17">
-        <v>1.000009066977487</v>
+        <v>1.004298</v>
       </c>
       <c r="I17">
-        <v>1.000016284988737</v>
+        <v>0.9965615700000001</v>
       </c>
       <c r="J17">
-        <v>0.9999755738226319</v>
+        <v>0.9828078599999999</v>
       </c>
       <c r="K17">
-        <v>0.9999951153786418</v>
+        <v>1.0114614</v>
       </c>
       <c r="L17">
-        <v>1.000006109077357</v>
+        <v>0.9828078599999999</v>
       </c>
       <c r="M17">
-        <v>0.9999841171960576</v>
+        <v>1.004298</v>
       </c>
       <c r="N17">
-        <v>1.000016284988737</v>
+        <v>1.0114614</v>
       </c>
       <c r="O17">
-        <v>1.000006109077357</v>
+        <v>1.004298</v>
       </c>
       <c r="P17">
-        <v>0.9999908414499946</v>
+        <v>0.9935529299999999</v>
       </c>
       <c r="Q17">
-        <v>1.00000042983372</v>
+        <v>1.00030191</v>
       </c>
       <c r="R17">
-        <v>0.9999993226295754</v>
+        <v>0.9995224199999999</v>
       </c>
       <c r="S17">
-        <v>0.9999921444966904</v>
+        <v>0.9944705599999999</v>
       </c>
       <c r="T17">
-        <v>0.9999993226295754</v>
+        <v>0.9995224199999999</v>
       </c>
       <c r="U17">
-        <v>0.9999981796197021</v>
+        <v>0.9987182699999999</v>
       </c>
       <c r="V17">
-        <v>1.000001800693509</v>
+        <v>1.001266896</v>
       </c>
       <c r="W17">
-        <v>0.999998390888544</v>
+        <v>0.9988669775</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1826,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000057330592725</v>
+        <v>1.002593195616438</v>
       </c>
       <c r="D18">
-        <v>0.9999140037178514</v>
+        <v>0.9984988458904106</v>
       </c>
       <c r="E18">
-        <v>1.000021504195668</v>
+        <v>1.00465741479452</v>
       </c>
       <c r="F18">
-        <v>1.000057330592725</v>
+        <v>1.00465741479452</v>
       </c>
       <c r="G18">
-        <v>0.9999815167960953</v>
+        <v>0.9954575716438357</v>
       </c>
       <c r="H18">
-        <v>1.000031923827634</v>
+        <v>1.001746537808219</v>
       </c>
       <c r="I18">
-        <v>1.000057330592725</v>
+        <v>0.9986027793150688</v>
       </c>
       <c r="J18">
-        <v>0.9999140037178514</v>
+        <v>0.9930138753424653</v>
       </c>
       <c r="K18">
-        <v>0.9999828034641106</v>
+        <v>1.00465741479452</v>
       </c>
       <c r="L18">
-        <v>1.000021504195668</v>
+        <v>0.9930138753424653</v>
       </c>
       <c r="M18">
-        <v>0.9999440824092917</v>
+        <v>1.001746537808219</v>
       </c>
       <c r="N18">
-        <v>1.000057330592725</v>
+        <v>1.00465741479452</v>
       </c>
       <c r="O18">
-        <v>1.000021504195668</v>
+        <v>1.001746537808219</v>
       </c>
       <c r="P18">
-        <v>0.9999677539567595</v>
+        <v>0.9973802065753422</v>
       </c>
       <c r="Q18">
-        <v>1.000001510495881</v>
+        <v>1.000122691849315</v>
       </c>
       <c r="R18">
-        <v>0.9999976128354149</v>
+        <v>0.9998059426484017</v>
       </c>
       <c r="S18">
-        <v>0.9999723415698715</v>
+        <v>0.9977530863470316</v>
       </c>
       <c r="T18">
-        <v>0.9999976128354149</v>
+        <v>0.9998059426484017</v>
       </c>
       <c r="U18">
-        <v>0.999993588825585</v>
+        <v>0.9994791684589039</v>
       </c>
       <c r="V18">
-        <v>1.000006337179013</v>
+        <v>1.000514817726027</v>
       </c>
       <c r="W18">
-        <v>0.9999943336498804</v>
+        <v>0.9995395947773972</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1897,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000134315796393</v>
+        <v>1.006381368421053</v>
       </c>
       <c r="D19">
-        <v>0.9997985361809645</v>
+        <v>0.9963059457894736</v>
       </c>
       <c r="E19">
-        <v>1.000050370149997</v>
+        <v>1.011461047368421</v>
       </c>
       <c r="F19">
-        <v>1.000134315796393</v>
+        <v>1.011461047368421</v>
       </c>
       <c r="G19">
-        <v>0.9999567088526379</v>
+        <v>0.9888219489473685</v>
       </c>
       <c r="H19">
-        <v>1.000074785590768</v>
+        <v>1.004297889473684</v>
       </c>
       <c r="I19">
-        <v>1.000134315796393</v>
+        <v>0.9965616873684212</v>
       </c>
       <c r="J19">
-        <v>0.9997985361809645</v>
+        <v>0.9828084389473685</v>
       </c>
       <c r="K19">
-        <v>0.9999597076312418</v>
+        <v>1.011461047368421</v>
       </c>
       <c r="L19">
-        <v>1.000050370149997</v>
+        <v>0.9828084389473685</v>
       </c>
       <c r="M19">
-        <v>0.9998690016907614</v>
+        <v>1.004297889473684</v>
       </c>
       <c r="N19">
-        <v>1.000134315796393</v>
+        <v>1.011461047368421</v>
       </c>
       <c r="O19">
-        <v>1.000050370149997</v>
+        <v>1.004297889473684</v>
       </c>
       <c r="P19">
-        <v>0.9999244531654806</v>
+        <v>0.9935531642105262</v>
       </c>
       <c r="Q19">
-        <v>1.000003539501317</v>
+        <v>1.000301917631579</v>
       </c>
       <c r="R19">
-        <v>0.9999944073757847</v>
+        <v>0.9995224585964912</v>
       </c>
       <c r="S19">
-        <v>0.9999352050611997</v>
+        <v>0.9944707580701753</v>
       </c>
       <c r="T19">
-        <v>0.9999944073757847</v>
+        <v>0.9995224585964912</v>
       </c>
       <c r="U19">
-        <v>0.999984982744998</v>
+        <v>0.9987183303947369</v>
       </c>
       <c r="V19">
-        <v>1.000014849355277</v>
+        <v>1.001266873789474</v>
       </c>
       <c r="W19">
-        <v>0.9999867245053451</v>
+        <v>0.9988670269736841</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.002882802631579</v>
+      </c>
+      <c r="D20">
+        <v>0.9983311968421054</v>
+      </c>
+      <c r="E20">
+        <v>1.005177570526316</v>
+      </c>
+      <c r="F20">
+        <v>1.005177570526316</v>
+      </c>
+      <c r="G20">
+        <v>0.994950272631579</v>
+      </c>
+      <c r="H20">
+        <v>1.001941594736842</v>
+      </c>
+      <c r="I20">
+        <v>0.998446724736842</v>
+      </c>
+      <c r="J20">
+        <v>0.9922336547368423</v>
+      </c>
+      <c r="K20">
+        <v>1.005177570526316</v>
+      </c>
+      <c r="L20">
+        <v>0.9922336547368423</v>
+      </c>
+      <c r="M20">
+        <v>1.001941594736842</v>
+      </c>
+      <c r="N20">
+        <v>1.005177570526316</v>
+      </c>
+      <c r="O20">
+        <v>1.001941594736842</v>
+      </c>
+      <c r="P20">
+        <v>0.9970876247368421</v>
+      </c>
+      <c r="Q20">
+        <v>1.000136395789474</v>
+      </c>
+      <c r="R20">
+        <v>0.9997842733333334</v>
+      </c>
+      <c r="S20">
+        <v>0.9975021487719298</v>
+      </c>
+      <c r="T20">
+        <v>0.9997842733333334</v>
+      </c>
+      <c r="U20">
+        <v>0.9994210042105265</v>
+      </c>
+      <c r="V20">
+        <v>1.000572317473684</v>
+      </c>
+      <c r="W20">
+        <v>0.9994881764473684</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.004990682548483</v>
+      </c>
+      <c r="D21">
+        <v>0.9971109779538611</v>
+      </c>
+      <c r="E21">
+        <v>1.008963382175617</v>
+      </c>
+      <c r="F21">
+        <v>1.008963382175617</v>
+      </c>
+      <c r="G21">
+        <v>0.9912579436694374</v>
+      </c>
+      <c r="H21">
+        <v>1.003361267065429</v>
+      </c>
+      <c r="I21">
+        <v>0.9973109880794155</v>
+      </c>
+      <c r="J21">
+        <v>0.9865549385046092</v>
+      </c>
+      <c r="K21">
+        <v>1.008963382175617</v>
+      </c>
+      <c r="L21">
+        <v>0.9865549385046092</v>
+      </c>
+      <c r="M21">
+        <v>1.003361267065429</v>
+      </c>
+      <c r="N21">
+        <v>1.008963382175617</v>
+      </c>
+      <c r="O21">
+        <v>1.003361267065429</v>
+      </c>
+      <c r="P21">
+        <v>0.9949581027850192</v>
+      </c>
+      <c r="Q21">
+        <v>1.000236122509645</v>
+      </c>
+      <c r="R21">
+        <v>0.9996265292485517</v>
+      </c>
+      <c r="S21">
+        <v>0.9956757278412999</v>
+      </c>
+      <c r="T21">
+        <v>0.9996265292485514</v>
+      </c>
+      <c r="U21">
+        <v>0.9989976414248789</v>
+      </c>
+      <c r="V21">
+        <v>1.000990789575026</v>
+      </c>
+      <c r="W21">
+        <v>0.9991139308827851</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.001336784776232</v>
+      </c>
+      <c r="D22">
+        <v>0.9992261583133633</v>
+      </c>
+      <c r="E22">
+        <v>1.002400876334883</v>
+      </c>
+      <c r="F22">
+        <v>1.002400876334883</v>
+      </c>
+      <c r="G22">
+        <v>0.9976583992982574</v>
+      </c>
+      <c r="H22">
+        <v>1.000900328585678</v>
+      </c>
+      <c r="I22">
+        <v>0.9992797366366857</v>
+      </c>
+      <c r="J22">
+        <v>0.99639867129337</v>
+      </c>
+      <c r="K22">
+        <v>1.002400876334883</v>
+      </c>
+      <c r="L22">
+        <v>0.99639867129337</v>
+      </c>
+      <c r="M22">
+        <v>1.000900328585678</v>
+      </c>
+      <c r="N22">
+        <v>1.002400876334883</v>
+      </c>
+      <c r="O22">
+        <v>1.000900328585678</v>
+      </c>
+      <c r="P22">
+        <v>0.9986494999395239</v>
+      </c>
+      <c r="Q22">
+        <v>1.00006324344952</v>
+      </c>
+      <c r="R22">
+        <v>0.999899958737977</v>
+      </c>
+      <c r="S22">
+        <v>0.9988417193974705</v>
+      </c>
+      <c r="T22">
+        <v>0.9998999587379768</v>
+      </c>
+      <c r="U22">
+        <v>0.9997315086318235</v>
+      </c>
+      <c r="V22">
+        <v>1.000265382172435</v>
+      </c>
+      <c r="W22">
+        <v>0.9997626604780183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9983746681556275</v>
+      </c>
+      <c r="D23">
+        <v>1.000940869559735</v>
+      </c>
+      <c r="E23">
+        <v>0.997080871821905</v>
+      </c>
+      <c r="F23">
+        <v>0.997080871821905</v>
+      </c>
+      <c r="G23">
+        <v>1.002847057051159</v>
+      </c>
+      <c r="H23">
+        <v>0.9989053244560648</v>
+      </c>
+      <c r="I23">
+        <v>1.000875731819619</v>
+      </c>
+      <c r="J23">
+        <v>1.004378693169182</v>
+      </c>
+      <c r="K23">
+        <v>0.997080871821905</v>
+      </c>
+      <c r="L23">
+        <v>1.004378693169182</v>
+      </c>
+      <c r="M23">
+        <v>0.9989053244560648</v>
+      </c>
+      <c r="N23">
+        <v>0.997080871821905</v>
+      </c>
+      <c r="O23">
+        <v>0.9989053244560648</v>
+      </c>
+      <c r="P23">
+        <v>1.001642008812623</v>
+      </c>
+      <c r="Q23">
+        <v>0.9999230970079002</v>
+      </c>
+      <c r="R23">
+        <v>1.000121629815717</v>
+      </c>
+      <c r="S23">
+        <v>1.001408295728327</v>
+      </c>
+      <c r="T23">
+        <v>1.000121629815717</v>
+      </c>
+      <c r="U23">
+        <v>1.000326439751722</v>
+      </c>
+      <c r="V23">
+        <v>0.9996773261657583</v>
+      </c>
+      <c r="W23">
+        <v>1.00028856756117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9995785444410302</v>
+      </c>
+      <c r="D24">
+        <v>1.000243971537558</v>
+      </c>
+      <c r="E24">
+        <v>0.9992430526738371</v>
+      </c>
+      <c r="F24">
+        <v>0.9992430526738371</v>
+      </c>
+      <c r="G24">
+        <v>1.000738253705005</v>
+      </c>
+      <c r="H24">
+        <v>0.9997161461140691</v>
+      </c>
+      <c r="I24">
+        <v>1.00022707990357</v>
+      </c>
+      <c r="J24">
+        <v>1.001135415294444</v>
+      </c>
+      <c r="K24">
+        <v>0.9992430526738371</v>
+      </c>
+      <c r="L24">
+        <v>1.001135415294444</v>
+      </c>
+      <c r="M24">
+        <v>0.9997161461140691</v>
+      </c>
+      <c r="N24">
+        <v>0.9992430526738371</v>
+      </c>
+      <c r="O24">
+        <v>0.9997161461140691</v>
+      </c>
+      <c r="P24">
+        <v>1.000425780704256</v>
+      </c>
+      <c r="Q24">
+        <v>0.9999800588258133</v>
+      </c>
+      <c r="R24">
+        <v>1.00003153802745</v>
+      </c>
+      <c r="S24">
+        <v>1.00036517764869</v>
+      </c>
+      <c r="T24">
+        <v>1.00003153802745</v>
+      </c>
+      <c r="U24">
+        <v>1.000084646404977</v>
+      </c>
+      <c r="V24">
+        <v>0.9999163276587488</v>
+      </c>
+      <c r="W24">
+        <v>1.000074826222948</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9949151403414688</v>
+      </c>
+      <c r="D25">
+        <v>1.002943531185744</v>
+      </c>
+      <c r="E25">
+        <v>0.9908674922017333</v>
+      </c>
+      <c r="F25">
+        <v>0.9908674922017333</v>
+      </c>
+      <c r="G25">
+        <v>1.00890700788199</v>
+      </c>
+      <c r="H25">
+        <v>0.996575311192052</v>
+      </c>
+      <c r="I25">
+        <v>1.00273974973363</v>
+      </c>
+      <c r="J25">
+        <v>1.013698763136555</v>
+      </c>
+      <c r="K25">
+        <v>0.9908674922017333</v>
+      </c>
+      <c r="L25">
+        <v>1.013698763136555</v>
+      </c>
+      <c r="M25">
+        <v>0.996575311192052</v>
+      </c>
+      <c r="N25">
+        <v>0.9908674922017333</v>
+      </c>
+      <c r="O25">
+        <v>0.996575311192052</v>
+      </c>
+      <c r="P25">
+        <v>1.005137037164304</v>
+      </c>
+      <c r="Q25">
+        <v>0.9997594211888983</v>
+      </c>
+      <c r="R25">
+        <v>1.00038052217678</v>
+      </c>
+      <c r="S25">
+        <v>1.004405868504784</v>
+      </c>
+      <c r="T25">
+        <v>1.00038052217678</v>
+      </c>
+      <c r="U25">
+        <v>1.001021274429021</v>
+      </c>
+      <c r="V25">
+        <v>0.9989905179835636</v>
+      </c>
+      <c r="W25">
+        <v>1.000902788358153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9986425339601728</v>
+      </c>
+      <c r="D26">
+        <v>1.000785810630476</v>
+      </c>
+      <c r="E26">
+        <v>0.9975619771097732</v>
+      </c>
+      <c r="F26">
+        <v>0.9975619771097732</v>
+      </c>
+      <c r="G26">
+        <v>1.00237783324719</v>
+      </c>
+      <c r="H26">
+        <v>0.9990857341341745</v>
+      </c>
+      <c r="I26">
+        <v>1.000731406432863</v>
+      </c>
+      <c r="J26">
+        <v>1.003657046535804</v>
+      </c>
+      <c r="K26">
+        <v>0.9975619771097732</v>
+      </c>
+      <c r="L26">
+        <v>1.003657046535804</v>
+      </c>
+      <c r="M26">
+        <v>0.9990857341341745</v>
+      </c>
+      <c r="N26">
+        <v>0.9975619771097732</v>
+      </c>
+      <c r="O26">
+        <v>0.9990857341341745</v>
+      </c>
+      <c r="P26">
+        <v>1.001371390334989</v>
+      </c>
+      <c r="Q26">
+        <v>0.9999357723823252</v>
+      </c>
+      <c r="R26">
+        <v>1.000101585926584</v>
+      </c>
+      <c r="S26">
+        <v>1.001176197100152</v>
+      </c>
+      <c r="T26">
+        <v>1.000101585926584</v>
+      </c>
+      <c r="U26">
+        <v>1.000272642102557</v>
+      </c>
+      <c r="V26">
+        <v>0.9997305091040001</v>
+      </c>
+      <c r="W26">
+        <v>1.000241009523079</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.000380313871962</v>
+      </c>
+      <c r="D27">
+        <v>0.9997798342723206</v>
+      </c>
+      <c r="E27">
+        <v>1.000683044448457</v>
+      </c>
+      <c r="F27">
+        <v>1.000683044448457</v>
+      </c>
+      <c r="G27">
+        <v>0.9993338285464076</v>
+      </c>
+      <c r="H27">
+        <v>1.000256135877702</v>
+      </c>
+      <c r="I27">
+        <v>0.9997951011925987</v>
+      </c>
+      <c r="J27">
+        <v>0.9989754654530382</v>
+      </c>
+      <c r="K27">
+        <v>1.000683044448457</v>
+      </c>
+      <c r="L27">
+        <v>0.9989754654530382</v>
+      </c>
+      <c r="M27">
+        <v>1.000256135877702</v>
+      </c>
+      <c r="N27">
+        <v>1.000683044448457</v>
+      </c>
+      <c r="O27">
+        <v>1.000256135877702</v>
+      </c>
+      <c r="P27">
+        <v>0.9996158006653699</v>
+      </c>
+      <c r="Q27">
+        <v>1.000017985075011</v>
+      </c>
+      <c r="R27">
+        <v>0.9999715485930656</v>
+      </c>
+      <c r="S27">
+        <v>0.9996704785343535</v>
+      </c>
+      <c r="T27">
+        <v>0.9999715485930656</v>
+      </c>
+      <c r="U27">
+        <v>0.9999236200128794</v>
+      </c>
+      <c r="V27">
+        <v>1.000075504899995</v>
+      </c>
+      <c r="W27">
+        <v>0.9999324824425234</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.000372747986499</v>
+      </c>
+      <c r="D28">
+        <v>0.9997842214452117</v>
+      </c>
+      <c r="E28">
+        <v>1.000669469003816</v>
+      </c>
+      <c r="F28">
+        <v>1.000669469003816</v>
+      </c>
+      <c r="G28">
+        <v>0.999347058266792</v>
+      </c>
+      <c r="H28">
+        <v>1.000251060831639</v>
+      </c>
+      <c r="I28">
+        <v>0.9997991668799046</v>
+      </c>
+      <c r="J28">
+        <v>0.9989958061640675</v>
+      </c>
+      <c r="K28">
+        <v>1.000669469003816</v>
+      </c>
+      <c r="L28">
+        <v>0.9989958061640675</v>
+      </c>
+      <c r="M28">
+        <v>1.000251060831639</v>
+      </c>
+      <c r="N28">
+        <v>1.000669469003816</v>
+      </c>
+      <c r="O28">
+        <v>1.000251060831639</v>
+      </c>
+      <c r="P28">
+        <v>0.9996234334978533</v>
+      </c>
+      <c r="Q28">
+        <v>1.000017641138425</v>
+      </c>
+      <c r="R28">
+        <v>0.999972111999841</v>
+      </c>
+      <c r="S28">
+        <v>0.999677029480306</v>
+      </c>
+      <c r="T28">
+        <v>0.999972111999841</v>
+      </c>
+      <c r="U28">
+        <v>0.9999251393611837</v>
+      </c>
+      <c r="V28">
+        <v>1.00007400528971</v>
+      </c>
+      <c r="W28">
+        <v>0.9999338239261962</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9992480841462991</v>
+      </c>
+      <c r="D29">
+        <v>1.00043526959427</v>
+      </c>
+      <c r="E29">
+        <v>0.9986495625379689</v>
+      </c>
+      <c r="F29">
+        <v>0.9986495625379689</v>
+      </c>
+      <c r="G29">
+        <v>1.001317100969767</v>
+      </c>
+      <c r="H29">
+        <v>0.9994936002262427</v>
+      </c>
+      <c r="I29">
+        <v>1.000405145468639</v>
+      </c>
+      <c r="J29">
+        <v>1.002025682343194</v>
+      </c>
+      <c r="K29">
+        <v>0.9986495625379689</v>
+      </c>
+      <c r="L29">
+        <v>1.002025682343194</v>
+      </c>
+      <c r="M29">
+        <v>0.9994936002262427</v>
+      </c>
+      <c r="N29">
+        <v>0.9986495625379689</v>
+      </c>
+      <c r="O29">
+        <v>0.9994936002262427</v>
+      </c>
+      <c r="P29">
+        <v>1.000759641284718</v>
+      </c>
+      <c r="Q29">
+        <v>0.9999644349102565</v>
+      </c>
+      <c r="R29">
+        <v>1.000056281702469</v>
+      </c>
+      <c r="S29">
+        <v>1.000651517387902</v>
+      </c>
+      <c r="T29">
+        <v>1.000056281702469</v>
+      </c>
+      <c r="U29">
+        <v>1.000151028675419</v>
+      </c>
+      <c r="V29">
+        <v>0.9998507354479289</v>
+      </c>
+      <c r="W29">
+        <v>1.000133505689078</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CopperA-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/CopperA-HW45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.001012009516553</v>
+        <v>1.000843468333092</v>
       </c>
       <c r="D4">
-        <v>0.9994141634065696</v>
+        <v>0.999511730604866</v>
       </c>
       <c r="E4">
-        <v>1.0018175943285</v>
+        <v>1.001514885813414</v>
       </c>
       <c r="F4">
-        <v>1.0018175943285</v>
+        <v>1.001514885813414</v>
       </c>
       <c r="G4">
-        <v>0.998227286377015</v>
+        <v>0.9985225191782205</v>
       </c>
       <c r="H4">
-        <v>1.000681601033792</v>
+        <v>1.000568082670927</v>
       </c>
       <c r="I4">
-        <v>0.9994547232932056</v>
+        <v>0.9995455351166779</v>
       </c>
       <c r="J4">
-        <v>0.9972736122146102</v>
+        <v>0.9977276722324377</v>
       </c>
       <c r="K4">
-        <v>1.0018175943285</v>
+        <v>1.001514885813414</v>
       </c>
       <c r="L4">
-        <v>0.9972736122146102</v>
+        <v>0.9977276722324377</v>
       </c>
       <c r="M4">
-        <v>1.000681601033792</v>
+        <v>1.000568082670927</v>
       </c>
       <c r="N4">
-        <v>1.0018175943285</v>
+        <v>1.001514885813414</v>
       </c>
       <c r="O4">
-        <v>1.000681601033792</v>
+        <v>1.000568082670927</v>
       </c>
       <c r="P4">
-        <v>0.998977606624201</v>
+        <v>0.9991478774516824</v>
       </c>
       <c r="Q4">
-        <v>1.000047882220181</v>
+        <v>1.000039906637896</v>
       </c>
       <c r="R4">
-        <v>0.9999242691923008</v>
+        <v>0.9999368802389265</v>
       </c>
       <c r="S4">
-        <v>0.9991231255516572</v>
+        <v>0.9992691618360769</v>
       </c>
       <c r="T4">
-        <v>0.9999242691923008</v>
+        <v>0.9999368802389265</v>
       </c>
       <c r="U4">
-        <v>0.9997967427458681</v>
+        <v>0.9998305928304113</v>
       </c>
       <c r="V4">
-        <v>1.000200913062395</v>
+        <v>1.000167451427012</v>
       </c>
       <c r="W4">
-        <v>0.9998203239005047</v>
+        <v>0.9998502470775703</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.001109469128243</v>
+        <v>1.002271303550997</v>
       </c>
       <c r="D5">
-        <v>0.9993577481700296</v>
+        <v>0.9986851814601255</v>
       </c>
       <c r="E5">
-        <v>1.001992625634006</v>
+        <v>1.004079311259511</v>
       </c>
       <c r="F5">
-        <v>1.001992625634006</v>
+        <v>1.004079311259511</v>
       </c>
       <c r="G5">
-        <v>0.9980565745605183</v>
+        <v>0.9960214157822029</v>
       </c>
       <c r="H5">
-        <v>1.000747235057641</v>
+        <v>1.001529746598335</v>
       </c>
       <c r="I5">
-        <v>0.9994022128602308</v>
+        <v>0.9987762026347601</v>
       </c>
       <c r="J5">
-        <v>0.9970110614048973</v>
+        <v>0.9938810469281386</v>
       </c>
       <c r="K5">
-        <v>1.001992625634006</v>
+        <v>1.004079311259511</v>
       </c>
       <c r="L5">
-        <v>0.9970110614048973</v>
+        <v>0.9938810469281386</v>
       </c>
       <c r="M5">
-        <v>1.000747235057641</v>
+        <v>1.001529746598335</v>
       </c>
       <c r="N5">
-        <v>1.001992625634006</v>
+        <v>1.004079311259511</v>
       </c>
       <c r="O5">
-        <v>1.000747235057641</v>
+        <v>1.001529746598335</v>
       </c>
       <c r="P5">
-        <v>0.9988791482312689</v>
+        <v>0.9977053967632368</v>
       </c>
       <c r="Q5">
-        <v>1.000052491613835</v>
+        <v>1.00010746402923</v>
       </c>
       <c r="R5">
-        <v>0.9999169740321814</v>
+        <v>0.9998300349286615</v>
       </c>
       <c r="S5">
-        <v>0.9990386815441892</v>
+        <v>0.9980319916621997</v>
       </c>
       <c r="T5">
-        <v>0.9999169740321814</v>
+        <v>0.9998300349286615</v>
       </c>
       <c r="U5">
-        <v>0.9997771675666435</v>
+        <v>0.9995438215615275</v>
       </c>
       <c r="V5">
-        <v>1.000220259180116</v>
+        <v>1.000450919501124</v>
       </c>
       <c r="W5">
-        <v>0.9998030202341508</v>
+        <v>0.9995967443515507</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.003639272026993</v>
+        <v>1.001012009516553</v>
       </c>
       <c r="D6">
-        <v>0.9978933035446623</v>
+        <v>0.9994141634065696</v>
       </c>
       <c r="E6">
-        <v>1.006536153436081</v>
+        <v>1.0018175943285</v>
       </c>
       <c r="F6">
-        <v>1.006536153436081</v>
+        <v>1.0018175943285</v>
       </c>
       <c r="G6">
-        <v>0.9936252232312688</v>
+        <v>0.998227286377015</v>
       </c>
       <c r="H6">
-        <v>1.002451051442603</v>
+        <v>1.000681601033792</v>
       </c>
       <c r="I6">
-        <v>0.998039149642781</v>
+        <v>0.9994547232932056</v>
       </c>
       <c r="J6">
-        <v>0.9901957503467068</v>
+        <v>0.9972736122146102</v>
       </c>
       <c r="K6">
-        <v>1.006536153436081</v>
+        <v>1.0018175943285</v>
       </c>
       <c r="L6">
-        <v>0.9901957503467068</v>
+        <v>0.9972736122146102</v>
       </c>
       <c r="M6">
-        <v>1.002451051442603</v>
+        <v>1.000681601033792</v>
       </c>
       <c r="N6">
-        <v>1.006536153436081</v>
+        <v>1.0018175943285</v>
       </c>
       <c r="O6">
-        <v>1.002451051442603</v>
+        <v>1.000681601033792</v>
       </c>
       <c r="P6">
-        <v>0.9963234008946551</v>
+        <v>0.998977606624201</v>
       </c>
       <c r="Q6">
-        <v>1.000172177493633</v>
+        <v>1.000047882220181</v>
       </c>
       <c r="R6">
-        <v>0.9997276517417971</v>
+        <v>0.9999242691923008</v>
       </c>
       <c r="S6">
-        <v>0.9968467017779908</v>
+        <v>0.9991231255516572</v>
       </c>
       <c r="T6">
-        <v>0.9997276517417971</v>
+        <v>0.9999242691923008</v>
       </c>
       <c r="U6">
-        <v>0.9992690646925134</v>
+        <v>0.9997967427458681</v>
       </c>
       <c r="V6">
-        <v>1.000722482441227</v>
+        <v>1.000200913062395</v>
       </c>
       <c r="W6">
-        <v>0.9993538693892126</v>
+        <v>0.9998203239005047</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000118869535809</v>
+        <v>1.001109469128243</v>
       </c>
       <c r="D7">
-        <v>0.9999311874932012</v>
+        <v>0.9993577481700296</v>
       </c>
       <c r="E7">
-        <v>1.000213493762174</v>
+        <v>1.001992625634006</v>
       </c>
       <c r="F7">
-        <v>1.000213493762174</v>
+        <v>1.001992625634006</v>
       </c>
       <c r="G7">
-        <v>0.9997917774323375</v>
+        <v>0.9980565745605183</v>
       </c>
       <c r="H7">
-        <v>1.000080062435078</v>
+        <v>1.000747235057641</v>
       </c>
       <c r="I7">
-        <v>0.9999359536232721</v>
+        <v>0.9994022128602308</v>
       </c>
       <c r="J7">
-        <v>0.9996797608566306</v>
+        <v>0.9970110614048973</v>
       </c>
       <c r="K7">
-        <v>1.000213493762174</v>
+        <v>1.001992625634006</v>
       </c>
       <c r="L7">
-        <v>0.9996797608566306</v>
+        <v>0.9970110614048973</v>
       </c>
       <c r="M7">
-        <v>1.000080062435078</v>
+        <v>1.000747235057641</v>
       </c>
       <c r="N7">
-        <v>1.000213493762174</v>
+        <v>1.001992625634006</v>
       </c>
       <c r="O7">
-        <v>1.000080062435078</v>
+        <v>1.000747235057641</v>
       </c>
       <c r="P7">
-        <v>0.9998799116458542</v>
+        <v>0.9988791482312689</v>
       </c>
       <c r="Q7">
-        <v>1.00000562496414</v>
+        <v>1.000052491613835</v>
       </c>
       <c r="R7">
-        <v>0.9999911056846275</v>
+        <v>0.9999169740321814</v>
       </c>
       <c r="S7">
-        <v>0.9998970035949699</v>
+        <v>0.9990386815441892</v>
       </c>
       <c r="T7">
-        <v>0.9999911056846275</v>
+        <v>0.9999169740321814</v>
       </c>
       <c r="U7">
-        <v>0.9999761261367709</v>
+        <v>0.9997771675666435</v>
       </c>
       <c r="V7">
-        <v>1.000023599661852</v>
+        <v>1.000220259180116</v>
       </c>
       <c r="W7">
-        <v>0.9999788959466975</v>
+        <v>0.9998030202341508</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000009066977487</v>
+        <v>1.003639272026993</v>
       </c>
       <c r="D8">
-        <v>0.9999947505900819</v>
+        <v>0.9978933035446623</v>
       </c>
       <c r="E8">
-        <v>1.000016284988737</v>
+        <v>1.006536153436081</v>
       </c>
       <c r="F8">
-        <v>1.000016284988737</v>
+        <v>1.006536153436081</v>
       </c>
       <c r="G8">
-        <v>0.9999841171960576</v>
+        <v>0.9936252232312688</v>
       </c>
       <c r="H8">
-        <v>1.000006109077358</v>
+        <v>1.002451051442603</v>
       </c>
       <c r="I8">
-        <v>0.9999951153786418</v>
+        <v>0.998039149642781</v>
       </c>
       <c r="J8">
-        <v>0.9999755738226319</v>
+        <v>0.9901957503467068</v>
       </c>
       <c r="K8">
-        <v>1.000016284988737</v>
+        <v>1.006536153436081</v>
       </c>
       <c r="L8">
-        <v>0.9999755738226319</v>
+        <v>0.9901957503467068</v>
       </c>
       <c r="M8">
-        <v>1.000006109077358</v>
+        <v>1.002451051442603</v>
       </c>
       <c r="N8">
-        <v>1.000016284988737</v>
+        <v>1.006536153436081</v>
       </c>
       <c r="O8">
-        <v>1.000006109077358</v>
+        <v>1.002451051442603</v>
       </c>
       <c r="P8">
-        <v>0.9999908414499947</v>
+        <v>0.9963234008946551</v>
       </c>
       <c r="Q8">
-        <v>1.00000042983372</v>
+        <v>1.000172177493633</v>
       </c>
       <c r="R8">
-        <v>0.9999993226295754</v>
+        <v>0.9997276517417971</v>
       </c>
       <c r="S8">
-        <v>0.9999921444966905</v>
+        <v>0.9968467017779908</v>
       </c>
       <c r="T8">
-        <v>0.9999993226295754</v>
+        <v>0.9997276517417971</v>
       </c>
       <c r="U8">
-        <v>0.9999981796197019</v>
+        <v>0.9992690646925134</v>
       </c>
       <c r="V8">
-        <v>1.000001800693509</v>
+        <v>1.000722482441227</v>
       </c>
       <c r="W8">
-        <v>0.999998390888544</v>
+        <v>0.9993538693892126</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000200151036456</v>
+        <v>1.000118869535809</v>
       </c>
       <c r="D9">
-        <v>0.9998841381573534</v>
+        <v>0.9999311874932012</v>
       </c>
       <c r="E9">
-        <v>1.000359473082206</v>
+        <v>1.000213493762174</v>
       </c>
       <c r="F9">
-        <v>1.000359473082206</v>
+        <v>1.000213493762174</v>
       </c>
       <c r="G9">
-        <v>0.9996494018184214</v>
+        <v>0.9997917774323375</v>
       </c>
       <c r="H9">
-        <v>1.000134804407077</v>
+        <v>1.000080062435078</v>
       </c>
       <c r="I9">
-        <v>0.9998921588438037</v>
+        <v>0.9999359536232721</v>
       </c>
       <c r="J9">
-        <v>0.999460791564699</v>
+        <v>0.9996797608566306</v>
       </c>
       <c r="K9">
-        <v>1.000359473082206</v>
+        <v>1.000213493762174</v>
       </c>
       <c r="L9">
-        <v>0.999460791564699</v>
+        <v>0.9996797608566306</v>
       </c>
       <c r="M9">
-        <v>1.000134804407077</v>
+        <v>1.000080062435078</v>
       </c>
       <c r="N9">
-        <v>1.000359473082206</v>
+        <v>1.000213493762174</v>
       </c>
       <c r="O9">
-        <v>1.000134804407077</v>
+        <v>1.000080062435078</v>
       </c>
       <c r="P9">
-        <v>0.9997977979858883</v>
+        <v>0.9998799116458542</v>
       </c>
       <c r="Q9">
-        <v>1.000009471282215</v>
+        <v>1.00000562496414</v>
       </c>
       <c r="R9">
-        <v>0.9999850230179942</v>
+        <v>0.9999911056846275</v>
       </c>
       <c r="S9">
-        <v>0.9998265780430433</v>
+        <v>0.9998970035949699</v>
       </c>
       <c r="T9">
-        <v>0.9999850230179942</v>
+        <v>0.9999911056846275</v>
       </c>
       <c r="U9">
-        <v>0.9999598018028339</v>
+        <v>0.9999761261367709</v>
       </c>
       <c r="V9">
-        <v>1.000039736058708</v>
+        <v>1.000023599661852</v>
       </c>
       <c r="W9">
-        <v>0.9999644654146368</v>
+        <v>0.9999788959466975</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.003693304239008</v>
+        <v>1.000009066977487</v>
       </c>
       <c r="D10">
-        <v>0.9978620252543446</v>
+        <v>0.9999947505900819</v>
       </c>
       <c r="E10">
-        <v>1.006633196105717</v>
+        <v>1.000016284988737</v>
       </c>
       <c r="F10">
-        <v>1.006633196105717</v>
+        <v>1.000016284988737</v>
       </c>
       <c r="G10">
-        <v>0.993530576112009</v>
+        <v>0.9999841171960576</v>
       </c>
       <c r="H10">
-        <v>1.002487442235624</v>
+        <v>1.000006109077358</v>
       </c>
       <c r="I10">
-        <v>0.9980100355472129</v>
+        <v>0.9999951153786418</v>
       </c>
       <c r="J10">
-        <v>0.9900501852418357</v>
+        <v>0.9999755738226319</v>
       </c>
       <c r="K10">
-        <v>1.006633196105717</v>
+        <v>1.000016284988737</v>
       </c>
       <c r="L10">
-        <v>0.9900501852418357</v>
+        <v>0.9999755738226319</v>
       </c>
       <c r="M10">
-        <v>1.002487442235624</v>
+        <v>1.000006109077358</v>
       </c>
       <c r="N10">
-        <v>1.006633196105717</v>
+        <v>1.000016284988737</v>
       </c>
       <c r="O10">
-        <v>1.002487442235624</v>
+        <v>1.000006109077358</v>
       </c>
       <c r="P10">
-        <v>0.9962688137387297</v>
+        <v>0.9999908414499947</v>
       </c>
       <c r="Q10">
-        <v>1.000174733744984</v>
+        <v>1.00000042983372</v>
       </c>
       <c r="R10">
-        <v>0.9997236078610587</v>
+        <v>0.9999993226295754</v>
       </c>
       <c r="S10">
-        <v>0.9967998842439346</v>
+        <v>0.9999921444966905</v>
       </c>
       <c r="T10">
-        <v>0.9997236078610587</v>
+        <v>0.9999993226295754</v>
       </c>
       <c r="U10">
-        <v>0.9992582122093803</v>
+        <v>0.9999981796197019</v>
       </c>
       <c r="V10">
-        <v>1.000733208988648</v>
+        <v>1.000001800693509</v>
       </c>
       <c r="W10">
-        <v>0.9993442758714218</v>
+        <v>0.999998390888544</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9994138156595807</v>
+        <v>1.000200151036456</v>
       </c>
       <c r="D11">
-        <v>1.000339330117296</v>
+        <v>0.9998841381573534</v>
       </c>
       <c r="E11">
-        <v>0.9989472048759357</v>
+        <v>1.000359473082206</v>
       </c>
       <c r="F11">
-        <v>0.9989472048759357</v>
+        <v>1.000359473082206</v>
       </c>
       <c r="G11">
-        <v>1.001026802106402</v>
+        <v>0.9996494018184214</v>
       </c>
       <c r="H11">
-        <v>0.9996052055752757</v>
+        <v>1.000134804407077</v>
       </c>
       <c r="I11">
-        <v>1.000315840690777</v>
+        <v>0.9998921588438037</v>
       </c>
       <c r="J11">
-        <v>1.001579196959314</v>
+        <v>0.999460791564699</v>
       </c>
       <c r="K11">
-        <v>0.9989472048759357</v>
+        <v>1.000359473082206</v>
       </c>
       <c r="L11">
-        <v>1.001579196959314</v>
+        <v>0.999460791564699</v>
       </c>
       <c r="M11">
-        <v>0.9996052055752757</v>
+        <v>1.000134804407077</v>
       </c>
       <c r="N11">
-        <v>0.9989472048759357</v>
+        <v>1.000359473082206</v>
       </c>
       <c r="O11">
-        <v>0.9996052055752757</v>
+        <v>1.000134804407077</v>
       </c>
       <c r="P11">
-        <v>1.000592201267295</v>
+        <v>0.9997977979858883</v>
       </c>
       <c r="Q11">
-        <v>0.9999722678462861</v>
+        <v>1.000009471282215</v>
       </c>
       <c r="R11">
-        <v>1.000043869136842</v>
+        <v>0.9999850230179942</v>
       </c>
       <c r="S11">
-        <v>1.000507910883962</v>
+        <v>0.9998265780430433</v>
       </c>
       <c r="T11">
-        <v>1.000043869136842</v>
+        <v>0.9999850230179942</v>
       </c>
       <c r="U11">
-        <v>1.000117734381956</v>
+        <v>0.9999598018028339</v>
       </c>
       <c r="V11">
-        <v>0.9998836284807517</v>
+        <v>1.000039736058708</v>
       </c>
       <c r="W11">
-        <v>1.000104075194982</v>
+        <v>0.9999644654146368</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.001075259610528</v>
+        <v>1.003693304239008</v>
       </c>
       <c r="D12">
-        <v>0.999377551873686</v>
+        <v>0.9978620252543446</v>
       </c>
       <c r="E12">
-        <v>1.001931182778946</v>
+        <v>1.006633196105717</v>
       </c>
       <c r="F12">
-        <v>1.001931182778946</v>
+        <v>1.006633196105717</v>
       </c>
       <c r="G12">
-        <v>0.9981164992000001</v>
+        <v>0.993530576112009</v>
       </c>
       <c r="H12">
-        <v>1.000724192884213</v>
+        <v>1.002487442235624</v>
       </c>
       <c r="I12">
-        <v>0.9994206436631569</v>
+        <v>0.9980100355472129</v>
       </c>
       <c r="J12">
-        <v>0.9971032230210519</v>
+        <v>0.9900501852418357</v>
       </c>
       <c r="K12">
-        <v>1.001931182778946</v>
+        <v>1.006633196105717</v>
       </c>
       <c r="L12">
-        <v>0.9971032230210519</v>
+        <v>0.9900501852418357</v>
       </c>
       <c r="M12">
-        <v>1.000724192884213</v>
+        <v>1.002487442235624</v>
       </c>
       <c r="N12">
-        <v>1.001931182778946</v>
+        <v>1.006633196105717</v>
       </c>
       <c r="O12">
-        <v>1.000724192884213</v>
+        <v>1.002487442235624</v>
       </c>
       <c r="P12">
-        <v>0.9989137079526323</v>
+        <v>0.9962688137387297</v>
       </c>
       <c r="Q12">
-        <v>1.000050872378949</v>
+        <v>1.000174733744984</v>
       </c>
       <c r="R12">
-        <v>0.9999195328947369</v>
+        <v>0.9997236078610587</v>
       </c>
       <c r="S12">
-        <v>0.9990683225929836</v>
+        <v>0.9967998842439346</v>
       </c>
       <c r="T12">
-        <v>0.9999195328947369</v>
+        <v>0.9997236078610587</v>
       </c>
       <c r="U12">
-        <v>0.9997840376394742</v>
+        <v>0.9992582122093803</v>
       </c>
       <c r="V12">
-        <v>1.000213466667369</v>
+        <v>1.000733208988648</v>
       </c>
       <c r="W12">
-        <v>0.9998090932394743</v>
+        <v>0.9993442758714218</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9992736232045479</v>
+        <v>0.9994138156595807</v>
       </c>
       <c r="D13">
-        <v>1.000420485897634</v>
+        <v>1.000339330117296</v>
       </c>
       <c r="E13">
-        <v>0.9986954120932069</v>
+        <v>0.9989472048759357</v>
       </c>
       <c r="F13">
-        <v>0.9986954120932069</v>
+        <v>0.9989472048759357</v>
       </c>
       <c r="G13">
-        <v>1.001272373719043</v>
+        <v>1.001026802106402</v>
       </c>
       <c r="H13">
-        <v>0.9995107819716851</v>
+        <v>0.9996052055752757</v>
       </c>
       <c r="I13">
-        <v>1.000391374139881</v>
+        <v>1.000315840690777</v>
       </c>
       <c r="J13">
-        <v>1.001956879068114</v>
+        <v>1.001579196959314</v>
       </c>
       <c r="K13">
-        <v>0.9986954120932069</v>
+        <v>0.9989472048759357</v>
       </c>
       <c r="L13">
-        <v>1.001956879068114</v>
+        <v>1.001579196959314</v>
       </c>
       <c r="M13">
-        <v>0.9995107819716851</v>
+        <v>0.9996052055752757</v>
       </c>
       <c r="N13">
-        <v>0.9986954120932069</v>
+        <v>0.9989472048759357</v>
       </c>
       <c r="O13">
-        <v>0.9995107819716851</v>
+        <v>0.9996052055752757</v>
       </c>
       <c r="P13">
-        <v>1.0007338305199</v>
+        <v>1.000592201267295</v>
       </c>
       <c r="Q13">
-        <v>0.9999656339346598</v>
+        <v>0.9999722678462861</v>
       </c>
       <c r="R13">
-        <v>1.000054357711002</v>
+        <v>1.000043869136842</v>
       </c>
       <c r="S13">
-        <v>1.000629382312478</v>
+        <v>1.000507910883962</v>
       </c>
       <c r="T13">
-        <v>1.000054357711002</v>
+        <v>1.000043869136842</v>
       </c>
       <c r="U13">
-        <v>1.00014588975766</v>
+        <v>1.000117734381956</v>
       </c>
       <c r="V13">
-        <v>0.9998557942247694</v>
+        <v>0.9998836284807517</v>
       </c>
       <c r="W13">
-        <v>1.000128964008224</v>
+        <v>1.000104075194982</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.006381</v>
+        <v>1.001075259610528</v>
       </c>
       <c r="D14">
-        <v>0.9963061799999997</v>
+        <v>0.999377551873686</v>
       </c>
       <c r="E14">
-        <v>1.011460300000001</v>
+        <v>1.001931182778946</v>
       </c>
       <c r="F14">
-        <v>1.011460300000001</v>
+        <v>1.001931182778946</v>
       </c>
       <c r="G14">
-        <v>0.9888226500000015</v>
+        <v>0.9981164992000001</v>
       </c>
       <c r="H14">
-        <v>1.004297600000001</v>
+        <v>1.000724192884213</v>
       </c>
       <c r="I14">
-        <v>0.9965619000000017</v>
+        <v>0.9994206436631569</v>
       </c>
       <c r="J14">
-        <v>0.9828095100000005</v>
+        <v>0.9971032230210519</v>
       </c>
       <c r="K14">
-        <v>1.011460300000001</v>
+        <v>1.001931182778946</v>
       </c>
       <c r="L14">
-        <v>0.9828095100000005</v>
+        <v>0.9971032230210519</v>
       </c>
       <c r="M14">
-        <v>1.004297600000001</v>
+        <v>1.000724192884213</v>
       </c>
       <c r="N14">
-        <v>1.011460300000001</v>
+        <v>1.001931182778946</v>
       </c>
       <c r="O14">
-        <v>1.004297600000001</v>
+        <v>1.000724192884213</v>
       </c>
       <c r="P14">
-        <v>0.9935535550000005</v>
+        <v>0.9989137079526323</v>
       </c>
       <c r="Q14">
-        <v>1.00030189</v>
+        <v>1.000050872378949</v>
       </c>
       <c r="R14">
-        <v>0.9995224700000005</v>
+        <v>0.9999195328947369</v>
       </c>
       <c r="S14">
-        <v>0.9944710966666669</v>
+        <v>0.9990683225929836</v>
       </c>
       <c r="T14">
-        <v>0.9995224700000005</v>
+        <v>0.9999195328947369</v>
       </c>
       <c r="U14">
-        <v>0.9987183975000002</v>
+        <v>0.9997840376394742</v>
       </c>
       <c r="V14">
-        <v>1.001266778</v>
+        <v>1.000213466667369</v>
       </c>
       <c r="W14">
-        <v>0.9988670925000007</v>
+        <v>0.9998090932394743</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.017017</v>
+        <v>0.9992736232045479</v>
       </c>
       <c r="D15">
-        <v>0.99014917</v>
+        <v>1.000420485897634</v>
       </c>
       <c r="E15">
-        <v>1.0305628</v>
+        <v>0.9986954120932069</v>
       </c>
       <c r="F15">
-        <v>1.0305628</v>
+        <v>0.9986954120932069</v>
       </c>
       <c r="G15">
-        <v>0.97019181</v>
+        <v>1.001272373719043</v>
       </c>
       <c r="H15">
-        <v>1.0114611</v>
+        <v>0.9995107819716851</v>
       </c>
       <c r="I15">
-        <v>0.9908311499999999</v>
+        <v>1.000391374139881</v>
       </c>
       <c r="J15">
-        <v>0.95415576</v>
+        <v>1.001956879068114</v>
       </c>
       <c r="K15">
-        <v>1.0305628</v>
+        <v>0.9986954120932069</v>
       </c>
       <c r="L15">
-        <v>0.95415576</v>
+        <v>1.001956879068114</v>
       </c>
       <c r="M15">
-        <v>1.0114611</v>
+        <v>0.9995107819716851</v>
       </c>
       <c r="N15">
-        <v>1.0305628</v>
+        <v>0.9986954120932069</v>
       </c>
       <c r="O15">
-        <v>1.0114611</v>
+        <v>0.9995107819716851</v>
       </c>
       <c r="P15">
-        <v>0.98280843</v>
+        <v>1.0007338305199</v>
       </c>
       <c r="Q15">
-        <v>1.000805135</v>
+        <v>0.9999656339346598</v>
       </c>
       <c r="R15">
-        <v>0.9987265533333334</v>
+        <v>1.000054357711002</v>
       </c>
       <c r="S15">
-        <v>0.9852553433333333</v>
+        <v>1.000629382312478</v>
       </c>
       <c r="T15">
-        <v>0.9987265533333334</v>
+        <v>1.000054357711002</v>
       </c>
       <c r="U15">
-        <v>0.9965822075</v>
+        <v>1.00014588975766</v>
       </c>
       <c r="V15">
-        <v>1.003378326</v>
+        <v>0.9998557942247694</v>
       </c>
       <c r="W15">
-        <v>0.99697873625</v>
+        <v>1.000128964008224</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.0063814</v>
+        <v>1.006381</v>
       </c>
       <c r="D16">
-        <v>0.9963059399999998</v>
+        <v>0.9963061799999997</v>
       </c>
       <c r="E16">
-        <v>1.0114611</v>
+        <v>1.011460300000001</v>
       </c>
       <c r="F16">
-        <v>1.0114611</v>
+        <v>1.011460300000001</v>
       </c>
       <c r="G16">
-        <v>0.98882193</v>
+        <v>0.9888226500000015</v>
       </c>
       <c r="H16">
-        <v>1.0042979</v>
+        <v>1.004297600000001</v>
       </c>
       <c r="I16">
-        <v>0.9965616799999999</v>
+        <v>0.9965619000000017</v>
       </c>
       <c r="J16">
-        <v>0.98280841</v>
+        <v>0.9828095100000005</v>
       </c>
       <c r="K16">
-        <v>1.0114611</v>
+        <v>1.011460300000001</v>
       </c>
       <c r="L16">
-        <v>0.98280841</v>
+        <v>0.9828095100000005</v>
       </c>
       <c r="M16">
-        <v>1.0042979</v>
+        <v>1.004297600000001</v>
       </c>
       <c r="N16">
-        <v>1.0114611</v>
+        <v>1.011460300000001</v>
       </c>
       <c r="O16">
-        <v>1.0042979</v>
+        <v>1.004297600000001</v>
       </c>
       <c r="P16">
-        <v>0.9935531550000001</v>
+        <v>0.9935535550000005</v>
       </c>
       <c r="Q16">
-        <v>1.00030192</v>
+        <v>1.00030189</v>
       </c>
       <c r="R16">
-        <v>0.9995224700000001</v>
+        <v>0.9995224700000005</v>
       </c>
       <c r="S16">
-        <v>0.99447075</v>
+        <v>0.9944710966666669</v>
       </c>
       <c r="T16">
-        <v>0.9995224700000001</v>
+        <v>0.9995224700000005</v>
       </c>
       <c r="U16">
-        <v>0.9987183374999999</v>
+        <v>0.9987183975000002</v>
       </c>
       <c r="V16">
-        <v>1.00126689</v>
+        <v>1.001266778</v>
       </c>
       <c r="W16">
-        <v>0.9988670325</v>
+        <v>0.9988670925000007</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.0063816</v>
+        <v>1.017017</v>
       </c>
       <c r="D17">
-        <v>0.99630582</v>
+        <v>0.99014917</v>
       </c>
       <c r="E17">
-        <v>1.0114614</v>
+        <v>1.0305628</v>
       </c>
       <c r="F17">
-        <v>1.0114614</v>
+        <v>1.0305628</v>
       </c>
       <c r="G17">
-        <v>0.98882157</v>
+        <v>0.97019181</v>
       </c>
       <c r="H17">
-        <v>1.004298</v>
+        <v>1.0114611</v>
       </c>
       <c r="I17">
-        <v>0.9965615700000001</v>
+        <v>0.9908311499999999</v>
       </c>
       <c r="J17">
-        <v>0.9828078599999999</v>
+        <v>0.95415576</v>
       </c>
       <c r="K17">
-        <v>1.0114614</v>
+        <v>1.0305628</v>
       </c>
       <c r="L17">
-        <v>0.9828078599999999</v>
+        <v>0.95415576</v>
       </c>
       <c r="M17">
-        <v>1.004298</v>
+        <v>1.0114611</v>
       </c>
       <c r="N17">
-        <v>1.0114614</v>
+        <v>1.0305628</v>
       </c>
       <c r="O17">
-        <v>1.004298</v>
+        <v>1.0114611</v>
       </c>
       <c r="P17">
-        <v>0.9935529299999999</v>
+        <v>0.98280843</v>
       </c>
       <c r="Q17">
-        <v>1.00030191</v>
+        <v>1.000805135</v>
       </c>
       <c r="R17">
-        <v>0.9995224199999999</v>
+        <v>0.9987265533333334</v>
       </c>
       <c r="S17">
-        <v>0.9944705599999999</v>
+        <v>0.9852553433333333</v>
       </c>
       <c r="T17">
-        <v>0.9995224199999999</v>
+        <v>0.9987265533333334</v>
       </c>
       <c r="U17">
-        <v>0.9987182699999999</v>
+        <v>0.9965822075</v>
       </c>
       <c r="V17">
-        <v>1.001266896</v>
+        <v>1.003378326</v>
       </c>
       <c r="W17">
-        <v>0.9988669775</v>
+        <v>0.99697873625</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.002593195616438</v>
+        <v>1.0063814</v>
       </c>
       <c r="D18">
-        <v>0.9984988458904106</v>
+        <v>0.9963059399999998</v>
       </c>
       <c r="E18">
-        <v>1.00465741479452</v>
+        <v>1.0114611</v>
       </c>
       <c r="F18">
-        <v>1.00465741479452</v>
+        <v>1.0114611</v>
       </c>
       <c r="G18">
-        <v>0.9954575716438357</v>
+        <v>0.98882193</v>
       </c>
       <c r="H18">
-        <v>1.001746537808219</v>
+        <v>1.0042979</v>
       </c>
       <c r="I18">
-        <v>0.9986027793150688</v>
+        <v>0.9965616799999999</v>
       </c>
       <c r="J18">
-        <v>0.9930138753424653</v>
+        <v>0.98280841</v>
       </c>
       <c r="K18">
-        <v>1.00465741479452</v>
+        <v>1.0114611</v>
       </c>
       <c r="L18">
-        <v>0.9930138753424653</v>
+        <v>0.98280841</v>
       </c>
       <c r="M18">
-        <v>1.001746537808219</v>
+        <v>1.0042979</v>
       </c>
       <c r="N18">
-        <v>1.00465741479452</v>
+        <v>1.0114611</v>
       </c>
       <c r="O18">
-        <v>1.001746537808219</v>
+        <v>1.0042979</v>
       </c>
       <c r="P18">
-        <v>0.9973802065753422</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="Q18">
-        <v>1.000122691849315</v>
+        <v>1.00030192</v>
       </c>
       <c r="R18">
-        <v>0.9998059426484017</v>
+        <v>0.9995224700000001</v>
       </c>
       <c r="S18">
-        <v>0.9977530863470316</v>
+        <v>0.99447075</v>
       </c>
       <c r="T18">
-        <v>0.9998059426484017</v>
+        <v>0.9995224700000001</v>
       </c>
       <c r="U18">
-        <v>0.9994791684589039</v>
+        <v>0.9987183374999999</v>
       </c>
       <c r="V18">
-        <v>1.000514817726027</v>
+        <v>1.00126689</v>
       </c>
       <c r="W18">
-        <v>0.9995395947773972</v>
+        <v>0.9988670325</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.006381368421053</v>
+        <v>1.0063816</v>
       </c>
       <c r="D19">
-        <v>0.9963059457894736</v>
+        <v>0.99630582</v>
       </c>
       <c r="E19">
-        <v>1.011461047368421</v>
+        <v>1.0114614</v>
       </c>
       <c r="F19">
-        <v>1.011461047368421</v>
+        <v>1.0114614</v>
       </c>
       <c r="G19">
-        <v>0.9888219489473685</v>
+        <v>0.98882157</v>
       </c>
       <c r="H19">
-        <v>1.004297889473684</v>
+        <v>1.004298</v>
       </c>
       <c r="I19">
-        <v>0.9965616873684212</v>
+        <v>0.9965615700000001</v>
       </c>
       <c r="J19">
-        <v>0.9828084389473685</v>
+        <v>0.9828078599999999</v>
       </c>
       <c r="K19">
-        <v>1.011461047368421</v>
+        <v>1.0114614</v>
       </c>
       <c r="L19">
-        <v>0.9828084389473685</v>
+        <v>0.9828078599999999</v>
       </c>
       <c r="M19">
-        <v>1.004297889473684</v>
+        <v>1.004298</v>
       </c>
       <c r="N19">
-        <v>1.011461047368421</v>
+        <v>1.0114614</v>
       </c>
       <c r="O19">
-        <v>1.004297889473684</v>
+        <v>1.004298</v>
       </c>
       <c r="P19">
-        <v>0.9935531642105262</v>
+        <v>0.9935529299999999</v>
       </c>
       <c r="Q19">
-        <v>1.000301917631579</v>
+        <v>1.00030191</v>
       </c>
       <c r="R19">
-        <v>0.9995224585964912</v>
+        <v>0.9995224199999999</v>
       </c>
       <c r="S19">
-        <v>0.9944707580701753</v>
+        <v>0.9944705599999999</v>
       </c>
       <c r="T19">
-        <v>0.9995224585964912</v>
+        <v>0.9995224199999999</v>
       </c>
       <c r="U19">
-        <v>0.9987183303947369</v>
+        <v>0.9987182699999999</v>
       </c>
       <c r="V19">
-        <v>1.001266873789474</v>
+        <v>1.001266896</v>
       </c>
       <c r="W19">
-        <v>0.9988670269736841</v>
+        <v>0.9988669775</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.002882802631579</v>
+        <v>1.002593195616438</v>
       </c>
       <c r="D20">
-        <v>0.9983311968421054</v>
+        <v>0.9984988458904106</v>
       </c>
       <c r="E20">
-        <v>1.005177570526316</v>
+        <v>1.00465741479452</v>
       </c>
       <c r="F20">
-        <v>1.005177570526316</v>
+        <v>1.00465741479452</v>
       </c>
       <c r="G20">
-        <v>0.994950272631579</v>
+        <v>0.9954575716438357</v>
       </c>
       <c r="H20">
-        <v>1.001941594736842</v>
+        <v>1.001746537808219</v>
       </c>
       <c r="I20">
-        <v>0.998446724736842</v>
+        <v>0.9986027793150688</v>
       </c>
       <c r="J20">
-        <v>0.9922336547368423</v>
+        <v>0.9930138753424653</v>
       </c>
       <c r="K20">
-        <v>1.005177570526316</v>
+        <v>1.00465741479452</v>
       </c>
       <c r="L20">
-        <v>0.9922336547368423</v>
+        <v>0.9930138753424653</v>
       </c>
       <c r="M20">
-        <v>1.001941594736842</v>
+        <v>1.001746537808219</v>
       </c>
       <c r="N20">
-        <v>1.005177570526316</v>
+        <v>1.00465741479452</v>
       </c>
       <c r="O20">
-        <v>1.001941594736842</v>
+        <v>1.001746537808219</v>
       </c>
       <c r="P20">
-        <v>0.9970876247368421</v>
+        <v>0.9973802065753422</v>
       </c>
       <c r="Q20">
-        <v>1.000136395789474</v>
+        <v>1.000122691849315</v>
       </c>
       <c r="R20">
-        <v>0.9997842733333334</v>
+        <v>0.9998059426484017</v>
       </c>
       <c r="S20">
-        <v>0.9975021487719298</v>
+        <v>0.9977530863470316</v>
       </c>
       <c r="T20">
-        <v>0.9997842733333334</v>
+        <v>0.9998059426484017</v>
       </c>
       <c r="U20">
-        <v>0.9994210042105265</v>
+        <v>0.9994791684589039</v>
       </c>
       <c r="V20">
-        <v>1.000572317473684</v>
+        <v>1.000514817726027</v>
       </c>
       <c r="W20">
-        <v>0.9994881764473684</v>
+        <v>0.9995395947773972</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.004990682548483</v>
+        <v>1.006381368421053</v>
       </c>
       <c r="D21">
-        <v>0.9971109779538611</v>
+        <v>0.9963059457894736</v>
       </c>
       <c r="E21">
-        <v>1.008963382175617</v>
+        <v>1.011461047368421</v>
       </c>
       <c r="F21">
-        <v>1.008963382175617</v>
+        <v>1.011461047368421</v>
       </c>
       <c r="G21">
-        <v>0.9912579436694374</v>
+        <v>0.9888219489473685</v>
       </c>
       <c r="H21">
-        <v>1.003361267065429</v>
+        <v>1.004297889473684</v>
       </c>
       <c r="I21">
-        <v>0.9973109880794155</v>
+        <v>0.9965616873684212</v>
       </c>
       <c r="J21">
-        <v>0.9865549385046092</v>
+        <v>0.9828084389473685</v>
       </c>
       <c r="K21">
-        <v>1.008963382175617</v>
+        <v>1.011461047368421</v>
       </c>
       <c r="L21">
-        <v>0.9865549385046092</v>
+        <v>0.9828084389473685</v>
       </c>
       <c r="M21">
-        <v>1.003361267065429</v>
+        <v>1.004297889473684</v>
       </c>
       <c r="N21">
-        <v>1.008963382175617</v>
+        <v>1.011461047368421</v>
       </c>
       <c r="O21">
-        <v>1.003361267065429</v>
+        <v>1.004297889473684</v>
       </c>
       <c r="P21">
-        <v>0.9949581027850192</v>
+        <v>0.9935531642105262</v>
       </c>
       <c r="Q21">
-        <v>1.000236122509645</v>
+        <v>1.000301917631579</v>
       </c>
       <c r="R21">
-        <v>0.9996265292485517</v>
+        <v>0.9995224585964912</v>
       </c>
       <c r="S21">
-        <v>0.9956757278412999</v>
+        <v>0.9944707580701753</v>
       </c>
       <c r="T21">
-        <v>0.9996265292485514</v>
+        <v>0.9995224585964912</v>
       </c>
       <c r="U21">
-        <v>0.9989976414248789</v>
+        <v>0.9987183303947369</v>
       </c>
       <c r="V21">
-        <v>1.000990789575026</v>
+        <v>1.001266873789474</v>
       </c>
       <c r="W21">
-        <v>0.9991139308827851</v>
+        <v>0.9988670269736841</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.001336784776232</v>
+        <v>1.002882802631579</v>
       </c>
       <c r="D22">
-        <v>0.9992261583133633</v>
+        <v>0.9983311968421054</v>
       </c>
       <c r="E22">
-        <v>1.002400876334883</v>
+        <v>1.005177570526316</v>
       </c>
       <c r="F22">
-        <v>1.002400876334883</v>
+        <v>1.005177570526316</v>
       </c>
       <c r="G22">
-        <v>0.9976583992982574</v>
+        <v>0.994950272631579</v>
       </c>
       <c r="H22">
-        <v>1.000900328585678</v>
+        <v>1.001941594736842</v>
       </c>
       <c r="I22">
-        <v>0.9992797366366857</v>
+        <v>0.998446724736842</v>
       </c>
       <c r="J22">
-        <v>0.99639867129337</v>
+        <v>0.9922336547368423</v>
       </c>
       <c r="K22">
-        <v>1.002400876334883</v>
+        <v>1.005177570526316</v>
       </c>
       <c r="L22">
-        <v>0.99639867129337</v>
+        <v>0.9922336547368423</v>
       </c>
       <c r="M22">
-        <v>1.000900328585678</v>
+        <v>1.001941594736842</v>
       </c>
       <c r="N22">
-        <v>1.002400876334883</v>
+        <v>1.005177570526316</v>
       </c>
       <c r="O22">
-        <v>1.000900328585678</v>
+        <v>1.001941594736842</v>
       </c>
       <c r="P22">
-        <v>0.9986494999395239</v>
+        <v>0.9970876247368421</v>
       </c>
       <c r="Q22">
-        <v>1.00006324344952</v>
+        <v>1.000136395789474</v>
       </c>
       <c r="R22">
-        <v>0.999899958737977</v>
+        <v>0.9997842733333334</v>
       </c>
       <c r="S22">
-        <v>0.9988417193974705</v>
+        <v>0.9975021487719298</v>
       </c>
       <c r="T22">
-        <v>0.9998999587379768</v>
+        <v>0.9997842733333334</v>
       </c>
       <c r="U22">
-        <v>0.9997315086318235</v>
+        <v>0.9994210042105265</v>
       </c>
       <c r="V22">
-        <v>1.000265382172435</v>
+        <v>1.000572317473684</v>
       </c>
       <c r="W22">
-        <v>0.9997626604780183</v>
+        <v>0.9994881764473684</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9983746681556275</v>
+        <v>1.004990682548483</v>
       </c>
       <c r="D23">
-        <v>1.000940869559735</v>
+        <v>0.9971109779538611</v>
       </c>
       <c r="E23">
-        <v>0.997080871821905</v>
+        <v>1.008963382175617</v>
       </c>
       <c r="F23">
-        <v>0.997080871821905</v>
+        <v>1.008963382175617</v>
       </c>
       <c r="G23">
-        <v>1.002847057051159</v>
+        <v>0.9912579436694374</v>
       </c>
       <c r="H23">
-        <v>0.9989053244560648</v>
+        <v>1.003361267065429</v>
       </c>
       <c r="I23">
-        <v>1.000875731819619</v>
+        <v>0.9973109880794155</v>
       </c>
       <c r="J23">
-        <v>1.004378693169182</v>
+        <v>0.9865549385046092</v>
       </c>
       <c r="K23">
-        <v>0.997080871821905</v>
+        <v>1.008963382175617</v>
       </c>
       <c r="L23">
-        <v>1.004378693169182</v>
+        <v>0.9865549385046092</v>
       </c>
       <c r="M23">
-        <v>0.9989053244560648</v>
+        <v>1.003361267065429</v>
       </c>
       <c r="N23">
-        <v>0.997080871821905</v>
+        <v>1.008963382175617</v>
       </c>
       <c r="O23">
-        <v>0.9989053244560648</v>
+        <v>1.003361267065429</v>
       </c>
       <c r="P23">
-        <v>1.001642008812623</v>
+        <v>0.9949581027850192</v>
       </c>
       <c r="Q23">
-        <v>0.9999230970079002</v>
+        <v>1.000236122509645</v>
       </c>
       <c r="R23">
-        <v>1.000121629815717</v>
+        <v>0.9996265292485517</v>
       </c>
       <c r="S23">
-        <v>1.001408295728327</v>
+        <v>0.9956757278412999</v>
       </c>
       <c r="T23">
-        <v>1.000121629815717</v>
+        <v>0.9996265292485514</v>
       </c>
       <c r="U23">
-        <v>1.000326439751722</v>
+        <v>0.9989976414248789</v>
       </c>
       <c r="V23">
-        <v>0.9996773261657583</v>
+        <v>1.000990789575026</v>
       </c>
       <c r="W23">
-        <v>1.00028856756117</v>
+        <v>0.9991139308827851</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9995785444410302</v>
+        <v>1.001336784776232</v>
       </c>
       <c r="D24">
-        <v>1.000243971537558</v>
+        <v>0.9992261583133633</v>
       </c>
       <c r="E24">
-        <v>0.9992430526738371</v>
+        <v>1.002400876334883</v>
       </c>
       <c r="F24">
-        <v>0.9992430526738371</v>
+        <v>1.002400876334883</v>
       </c>
       <c r="G24">
-        <v>1.000738253705005</v>
+        <v>0.9976583992982574</v>
       </c>
       <c r="H24">
-        <v>0.9997161461140691</v>
+        <v>1.000900328585678</v>
       </c>
       <c r="I24">
-        <v>1.00022707990357</v>
+        <v>0.9992797366366857</v>
       </c>
       <c r="J24">
-        <v>1.001135415294444</v>
+        <v>0.99639867129337</v>
       </c>
       <c r="K24">
-        <v>0.9992430526738371</v>
+        <v>1.002400876334883</v>
       </c>
       <c r="L24">
-        <v>1.001135415294444</v>
+        <v>0.99639867129337</v>
       </c>
       <c r="M24">
-        <v>0.9997161461140691</v>
+        <v>1.000900328585678</v>
       </c>
       <c r="N24">
-        <v>0.9992430526738371</v>
+        <v>1.002400876334883</v>
       </c>
       <c r="O24">
-        <v>0.9997161461140691</v>
+        <v>1.000900328585678</v>
       </c>
       <c r="P24">
-        <v>1.000425780704256</v>
+        <v>0.9986494999395239</v>
       </c>
       <c r="Q24">
-        <v>0.9999800588258133</v>
+        <v>1.00006324344952</v>
       </c>
       <c r="R24">
-        <v>1.00003153802745</v>
+        <v>0.999899958737977</v>
       </c>
       <c r="S24">
-        <v>1.00036517764869</v>
+        <v>0.9988417193974705</v>
       </c>
       <c r="T24">
-        <v>1.00003153802745</v>
+        <v>0.9998999587379768</v>
       </c>
       <c r="U24">
-        <v>1.000084646404977</v>
+        <v>0.9997315086318235</v>
       </c>
       <c r="V24">
-        <v>0.9999163276587488</v>
+        <v>1.000265382172435</v>
       </c>
       <c r="W24">
-        <v>1.000074826222948</v>
+        <v>0.9997626604780183</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9949151403414688</v>
+        <v>0.9983746681556275</v>
       </c>
       <c r="D25">
-        <v>1.002943531185744</v>
+        <v>1.000940869559735</v>
       </c>
       <c r="E25">
-        <v>0.9908674922017333</v>
+        <v>0.997080871821905</v>
       </c>
       <c r="F25">
-        <v>0.9908674922017333</v>
+        <v>0.997080871821905</v>
       </c>
       <c r="G25">
-        <v>1.00890700788199</v>
+        <v>1.002847057051159</v>
       </c>
       <c r="H25">
-        <v>0.996575311192052</v>
+        <v>0.9989053244560648</v>
       </c>
       <c r="I25">
-        <v>1.00273974973363</v>
+        <v>1.000875731819619</v>
       </c>
       <c r="J25">
-        <v>1.013698763136555</v>
+        <v>1.004378693169182</v>
       </c>
       <c r="K25">
-        <v>0.9908674922017333</v>
+        <v>0.997080871821905</v>
       </c>
       <c r="L25">
-        <v>1.013698763136555</v>
+        <v>1.004378693169182</v>
       </c>
       <c r="M25">
-        <v>0.996575311192052</v>
+        <v>0.9989053244560648</v>
       </c>
       <c r="N25">
-        <v>0.9908674922017333</v>
+        <v>0.997080871821905</v>
       </c>
       <c r="O25">
-        <v>0.996575311192052</v>
+        <v>0.9989053244560648</v>
       </c>
       <c r="P25">
-        <v>1.005137037164304</v>
+        <v>1.001642008812623</v>
       </c>
       <c r="Q25">
-        <v>0.9997594211888983</v>
+        <v>0.9999230970079002</v>
       </c>
       <c r="R25">
-        <v>1.00038052217678</v>
+        <v>1.000121629815717</v>
       </c>
       <c r="S25">
-        <v>1.004405868504784</v>
+        <v>1.001408295728327</v>
       </c>
       <c r="T25">
-        <v>1.00038052217678</v>
+        <v>1.000121629815717</v>
       </c>
       <c r="U25">
-        <v>1.001021274429021</v>
+        <v>1.000326439751722</v>
       </c>
       <c r="V25">
-        <v>0.9989905179835636</v>
+        <v>0.9996773261657583</v>
       </c>
       <c r="W25">
-        <v>1.000902788358153</v>
+        <v>1.00028856756117</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9986425339601728</v>
+        <v>0.9995785444410302</v>
       </c>
       <c r="D26">
-        <v>1.000785810630476</v>
+        <v>1.000243971537558</v>
       </c>
       <c r="E26">
-        <v>0.9975619771097732</v>
+        <v>0.9992430526738371</v>
       </c>
       <c r="F26">
-        <v>0.9975619771097732</v>
+        <v>0.9992430526738371</v>
       </c>
       <c r="G26">
-        <v>1.00237783324719</v>
+        <v>1.000738253705005</v>
       </c>
       <c r="H26">
-        <v>0.9990857341341745</v>
+        <v>0.9997161461140691</v>
       </c>
       <c r="I26">
-        <v>1.000731406432863</v>
+        <v>1.00022707990357</v>
       </c>
       <c r="J26">
-        <v>1.003657046535804</v>
+        <v>1.001135415294444</v>
       </c>
       <c r="K26">
-        <v>0.9975619771097732</v>
+        <v>0.9992430526738371</v>
       </c>
       <c r="L26">
-        <v>1.003657046535804</v>
+        <v>1.001135415294444</v>
       </c>
       <c r="M26">
-        <v>0.9990857341341745</v>
+        <v>0.9997161461140691</v>
       </c>
       <c r="N26">
-        <v>0.9975619771097732</v>
+        <v>0.9992430526738371</v>
       </c>
       <c r="O26">
-        <v>0.9990857341341745</v>
+        <v>0.9997161461140691</v>
       </c>
       <c r="P26">
-        <v>1.001371390334989</v>
+        <v>1.000425780704256</v>
       </c>
       <c r="Q26">
-        <v>0.9999357723823252</v>
+        <v>0.9999800588258133</v>
       </c>
       <c r="R26">
-        <v>1.000101585926584</v>
+        <v>1.00003153802745</v>
       </c>
       <c r="S26">
-        <v>1.001176197100152</v>
+        <v>1.00036517764869</v>
       </c>
       <c r="T26">
-        <v>1.000101585926584</v>
+        <v>1.00003153802745</v>
       </c>
       <c r="U26">
-        <v>1.000272642102557</v>
+        <v>1.000084646404977</v>
       </c>
       <c r="V26">
-        <v>0.9997305091040001</v>
+        <v>0.9999163276587488</v>
       </c>
       <c r="W26">
-        <v>1.000241009523079</v>
+        <v>1.000074826222948</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.000380313871962</v>
+        <v>0.9949151403414688</v>
       </c>
       <c r="D27">
-        <v>0.9997798342723206</v>
+        <v>1.002943531185744</v>
       </c>
       <c r="E27">
-        <v>1.000683044448457</v>
+        <v>0.9908674922017333</v>
       </c>
       <c r="F27">
-        <v>1.000683044448457</v>
+        <v>0.9908674922017333</v>
       </c>
       <c r="G27">
-        <v>0.9993338285464076</v>
+        <v>1.00890700788199</v>
       </c>
       <c r="H27">
-        <v>1.000256135877702</v>
+        <v>0.996575311192052</v>
       </c>
       <c r="I27">
-        <v>0.9997951011925987</v>
+        <v>1.00273974973363</v>
       </c>
       <c r="J27">
-        <v>0.9989754654530382</v>
+        <v>1.013698763136555</v>
       </c>
       <c r="K27">
-        <v>1.000683044448457</v>
+        <v>0.9908674922017333</v>
       </c>
       <c r="L27">
-        <v>0.9989754654530382</v>
+        <v>1.013698763136555</v>
       </c>
       <c r="M27">
-        <v>1.000256135877702</v>
+        <v>0.996575311192052</v>
       </c>
       <c r="N27">
-        <v>1.000683044448457</v>
+        <v>0.9908674922017333</v>
       </c>
       <c r="O27">
-        <v>1.000256135877702</v>
+        <v>0.996575311192052</v>
       </c>
       <c r="P27">
-        <v>0.9996158006653699</v>
+        <v>1.005137037164304</v>
       </c>
       <c r="Q27">
-        <v>1.000017985075011</v>
+        <v>0.9997594211888983</v>
       </c>
       <c r="R27">
-        <v>0.9999715485930656</v>
+        <v>1.00038052217678</v>
       </c>
       <c r="S27">
-        <v>0.9996704785343535</v>
+        <v>1.004405868504784</v>
       </c>
       <c r="T27">
-        <v>0.9999715485930656</v>
+        <v>1.00038052217678</v>
       </c>
       <c r="U27">
-        <v>0.9999236200128794</v>
+        <v>1.001021274429021</v>
       </c>
       <c r="V27">
-        <v>1.000075504899995</v>
+        <v>0.9989905179835636</v>
       </c>
       <c r="W27">
-        <v>0.9999324824425234</v>
+        <v>1.000902788358153</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.000372747986499</v>
+        <v>0.9986425339601728</v>
       </c>
       <c r="D28">
-        <v>0.9997842214452117</v>
+        <v>1.000785810630476</v>
       </c>
       <c r="E28">
-        <v>1.000669469003816</v>
+        <v>0.9975619771097732</v>
       </c>
       <c r="F28">
-        <v>1.000669469003816</v>
+        <v>0.9975619771097732</v>
       </c>
       <c r="G28">
-        <v>0.999347058266792</v>
+        <v>1.00237783324719</v>
       </c>
       <c r="H28">
-        <v>1.000251060831639</v>
+        <v>0.9990857341341745</v>
       </c>
       <c r="I28">
-        <v>0.9997991668799046</v>
+        <v>1.000731406432863</v>
       </c>
       <c r="J28">
-        <v>0.9989958061640675</v>
+        <v>1.003657046535804</v>
       </c>
       <c r="K28">
-        <v>1.000669469003816</v>
+        <v>0.9975619771097732</v>
       </c>
       <c r="L28">
-        <v>0.9989958061640675</v>
+        <v>1.003657046535804</v>
       </c>
       <c r="M28">
-        <v>1.000251060831639</v>
+        <v>0.9990857341341745</v>
       </c>
       <c r="N28">
-        <v>1.000669469003816</v>
+        <v>0.9975619771097732</v>
       </c>
       <c r="O28">
-        <v>1.000251060831639</v>
+        <v>0.9990857341341745</v>
       </c>
       <c r="P28">
-        <v>0.9996234334978533</v>
+        <v>1.001371390334989</v>
       </c>
       <c r="Q28">
-        <v>1.000017641138425</v>
+        <v>0.9999357723823252</v>
       </c>
       <c r="R28">
-        <v>0.999972111999841</v>
+        <v>1.000101585926584</v>
       </c>
       <c r="S28">
-        <v>0.999677029480306</v>
+        <v>1.001176197100152</v>
       </c>
       <c r="T28">
-        <v>0.999972111999841</v>
+        <v>1.000101585926584</v>
       </c>
       <c r="U28">
-        <v>0.9999251393611837</v>
+        <v>1.000272642102557</v>
       </c>
       <c r="V28">
-        <v>1.00007400528971</v>
+        <v>0.9997305091040001</v>
       </c>
       <c r="W28">
-        <v>0.9999338239261962</v>
+        <v>1.000241009523079</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.000380313871962</v>
+      </c>
+      <c r="D29">
+        <v>0.9997798342723206</v>
+      </c>
+      <c r="E29">
+        <v>1.000683044448457</v>
+      </c>
+      <c r="F29">
+        <v>1.000683044448457</v>
+      </c>
+      <c r="G29">
+        <v>0.9993338285464076</v>
+      </c>
+      <c r="H29">
+        <v>1.000256135877702</v>
+      </c>
+      <c r="I29">
+        <v>0.9997951011925987</v>
+      </c>
+      <c r="J29">
+        <v>0.9989754654530382</v>
+      </c>
+      <c r="K29">
+        <v>1.000683044448457</v>
+      </c>
+      <c r="L29">
+        <v>0.9989754654530382</v>
+      </c>
+      <c r="M29">
+        <v>1.000256135877702</v>
+      </c>
+      <c r="N29">
+        <v>1.000683044448457</v>
+      </c>
+      <c r="O29">
+        <v>1.000256135877702</v>
+      </c>
+      <c r="P29">
+        <v>0.9996158006653699</v>
+      </c>
+      <c r="Q29">
+        <v>1.000017985075011</v>
+      </c>
+      <c r="R29">
+        <v>0.9999715485930656</v>
+      </c>
+      <c r="S29">
+        <v>0.9996704785343535</v>
+      </c>
+      <c r="T29">
+        <v>0.9999715485930656</v>
+      </c>
+      <c r="U29">
+        <v>0.9999236200128794</v>
+      </c>
+      <c r="V29">
+        <v>1.000075504899995</v>
+      </c>
+      <c r="W29">
+        <v>0.9999324824425234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.000372747986499</v>
+      </c>
+      <c r="D30">
+        <v>0.9997842214452117</v>
+      </c>
+      <c r="E30">
+        <v>1.000669469003816</v>
+      </c>
+      <c r="F30">
+        <v>1.000669469003816</v>
+      </c>
+      <c r="G30">
+        <v>0.999347058266792</v>
+      </c>
+      <c r="H30">
+        <v>1.000251060831639</v>
+      </c>
+      <c r="I30">
+        <v>0.9997991668799046</v>
+      </c>
+      <c r="J30">
+        <v>0.9989958061640675</v>
+      </c>
+      <c r="K30">
+        <v>1.000669469003816</v>
+      </c>
+      <c r="L30">
+        <v>0.9989958061640675</v>
+      </c>
+      <c r="M30">
+        <v>1.000251060831639</v>
+      </c>
+      <c r="N30">
+        <v>1.000669469003816</v>
+      </c>
+      <c r="O30">
+        <v>1.000251060831639</v>
+      </c>
+      <c r="P30">
+        <v>0.9996234334978533</v>
+      </c>
+      <c r="Q30">
+        <v>1.000017641138425</v>
+      </c>
+      <c r="R30">
+        <v>0.999972111999841</v>
+      </c>
+      <c r="S30">
+        <v>0.999677029480306</v>
+      </c>
+      <c r="T30">
+        <v>0.999972111999841</v>
+      </c>
+      <c r="U30">
+        <v>0.9999251393611837</v>
+      </c>
+      <c r="V30">
+        <v>1.00007400528971</v>
+      </c>
+      <c r="W30">
+        <v>0.9999338239261962</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9992480841462991</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.00043526959427</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9986495625379689</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9986495625379689</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.001317100969767</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9994936002262427</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.000405145468639</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.002025682343194</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9986495625379689</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.002025682343194</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9994936002262427</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9986495625379689</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9994936002262427</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.000759641284718</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9999644349102565</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.000056281702469</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.000651517387902</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000056281702469</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>1.000151028675419</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.9998507354479289</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>1.000133505689078</v>
       </c>
     </row>
